--- a/benchmark/measurements/json.xlsx
+++ b/benchmark/measurements/json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/projects/truediff/benchmark/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A672E-2779-A147-A2A4-289832C5E83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC6818-84E0-2C40-A433-4044DEA3B124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="42740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="42740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="json_unchanged" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="json_replacesubtrees_with_singl" sheetId="3" r:id="rId3"/>
     <sheet name="json_replacesubtrees_with_tree" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(json_changeleaves!$H$3:$H$32,json_changeleaves!$H$34:$H$255,json_changeleaves!$H$257:$H$279,json_changeleaves!$H$281:$H$1048576)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(json_changeleaves!$H$3:$H$32,json_changeleaves!$H$34:$H$255,json_changeleaves!$H$257:$H$279,json_changeleaves!$H$281:$H$1048576)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2373,6 +2377,679 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{3A390E2F-110B-7B4E-A008-5769EA1F95F5}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541167</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>185566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>162593</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>48535</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2A7DAB-ACC3-FC41-B482-79439720F587}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13540466" y="1601171"/>
+              <a:ext cx="4572000" cy="8154370"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2851,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="J277" sqref="J277"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11330,6 +12007,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11396,7 +12074,7 @@
         <v>23.904958139999898</v>
       </c>
       <c r="H2">
-        <f>(B2+C2)/G2</f>
+        <f t="shared" ref="H2:H65" si="0">(B2+C2)/G2</f>
         <v>2870.1995459758746</v>
       </c>
     </row>
@@ -11423,7 +12101,7 @@
         <v>37.639481399999902</v>
       </c>
       <c r="H3">
-        <f>(B3+C3)/G3</f>
+        <f t="shared" si="0"/>
         <v>1822.8731493627906</v>
       </c>
     </row>
@@ -11450,7 +12128,7 @@
         <v>37.909873099999999</v>
       </c>
       <c r="H4">
-        <f>(B4+C4)/G4</f>
+        <f t="shared" si="0"/>
         <v>1809.8715292191259</v>
       </c>
     </row>
@@ -11477,7 +12155,7 @@
         <v>40.028058139999999</v>
       </c>
       <c r="H5">
-        <f>(B5+C5)/G5</f>
+        <f t="shared" si="0"/>
         <v>1714.0976402109322</v>
       </c>
     </row>
@@ -11504,7 +12182,7 @@
         <v>34.4051379</v>
       </c>
       <c r="H6">
-        <f>(B6+C6)/G6</f>
+        <f t="shared" si="0"/>
         <v>1994.2370293478755</v>
       </c>
     </row>
@@ -11531,7 +12209,7 @@
         <v>34.144773979999997</v>
       </c>
       <c r="H7">
-        <f>(B7+C7)/G7</f>
+        <f t="shared" si="0"/>
         <v>2008.8872177094436</v>
       </c>
     </row>
@@ -11558,7 +12236,7 @@
         <v>34.081771139999901</v>
       </c>
       <c r="H8">
-        <f>(B8+C8)/G8</f>
+        <f t="shared" si="0"/>
         <v>2013.1582868201901</v>
       </c>
     </row>
@@ -11585,7 +12263,7 @@
         <v>34.057916640000002</v>
       </c>
       <c r="H9">
-        <f>(B9+C9)/G9</f>
+        <f t="shared" si="0"/>
         <v>2014.4215139520054</v>
       </c>
     </row>
@@ -11612,7 +12290,7 @@
         <v>34.528592279999998</v>
       </c>
       <c r="H10">
-        <f>(B10+C10)/G10</f>
+        <f t="shared" si="0"/>
         <v>1985.1953257794385</v>
       </c>
     </row>
@@ -11639,7 +12317,7 @@
         <v>34.073665079999998</v>
       </c>
       <c r="H11">
-        <f>(B11+C11)/G11</f>
+        <f t="shared" si="0"/>
         <v>2013.6372133408315</v>
       </c>
     </row>
@@ -11666,7 +12344,7 @@
         <v>33.731030599999997</v>
       </c>
       <c r="H12">
-        <f>(B12+C12)/G12</f>
+        <f t="shared" si="0"/>
         <v>2034.0914220391478</v>
       </c>
     </row>
@@ -11693,7 +12371,7 @@
         <v>33.987349539999997</v>
       </c>
       <c r="H13">
-        <f>(B13+C13)/G13</f>
+        <f t="shared" si="0"/>
         <v>2018.7511214797719</v>
       </c>
     </row>
@@ -11720,7 +12398,7 @@
         <v>33.791938819999999</v>
       </c>
       <c r="H14">
-        <f>(B14+C14)/G14</f>
+        <f t="shared" si="0"/>
         <v>2030.4250775747587</v>
       </c>
     </row>
@@ -11747,7 +12425,7 @@
         <v>34.0099065799999</v>
       </c>
       <c r="H15">
-        <f>(B15+C15)/G15</f>
+        <f t="shared" si="0"/>
         <v>2016.8535258587647</v>
       </c>
     </row>
@@ -11774,7 +12452,7 @@
         <v>36.898154239999997</v>
       </c>
       <c r="H16">
-        <f>(B16+C16)/G16</f>
+        <f t="shared" si="0"/>
         <v>1859.3612990436675</v>
       </c>
     </row>
@@ -11801,7 +12479,7 @@
         <v>34.19369726</v>
       </c>
       <c r="H17">
-        <f>(B17+C17)/G17</f>
+        <f t="shared" si="0"/>
         <v>2006.5686222315228</v>
       </c>
     </row>
@@ -11828,7 +12506,7 @@
         <v>34.033475780000003</v>
       </c>
       <c r="H18">
-        <f>(B18+C18)/G18</f>
+        <f t="shared" si="0"/>
         <v>2016.0150683263535</v>
       </c>
     </row>
@@ -11855,7 +12533,7 @@
         <v>34.308826400000001</v>
       </c>
       <c r="H19">
-        <f>(B19+C19)/G19</f>
+        <f t="shared" si="0"/>
         <v>1999.8352377334597</v>
       </c>
     </row>
@@ -11882,7 +12560,7 @@
         <v>34.121195380000003</v>
       </c>
       <c r="H20">
-        <f>(B20+C20)/G20</f>
+        <f t="shared" si="0"/>
         <v>2010.8322476948342</v>
       </c>
     </row>
@@ -11909,7 +12587,7 @@
         <v>34.342906259999999</v>
       </c>
       <c r="H21">
-        <f>(B21+C21)/G21</f>
+        <f t="shared" si="0"/>
         <v>1997.8507200456133</v>
       </c>
     </row>
@@ -11936,7 +12614,7 @@
         <v>34.270775999999998</v>
       </c>
       <c r="H22">
-        <f>(B22+C22)/G22</f>
+        <f t="shared" si="0"/>
         <v>2001.8221939298953</v>
       </c>
     </row>
@@ -11963,7 +12641,7 @@
         <v>34.046583720000001</v>
       </c>
       <c r="H23">
-        <f>(B23+C23)/G23</f>
+        <f t="shared" si="0"/>
         <v>2015.0920446005912</v>
       </c>
     </row>
@@ -11990,7 +12668,7 @@
         <v>33.690184719999998</v>
       </c>
       <c r="H24">
-        <f>(B24+C24)/G24</f>
+        <f t="shared" si="0"/>
         <v>2036.5575484443352</v>
       </c>
     </row>
@@ -12017,7 +12695,7 @@
         <v>34.203049100000001</v>
       </c>
       <c r="H25">
-        <f>(B25+C25)/G25</f>
+        <f t="shared" si="0"/>
         <v>2006.0199837563605</v>
       </c>
     </row>
@@ -12044,7 +12722,7 @@
         <v>33.97333072</v>
       </c>
       <c r="H26">
-        <f>(B26+C26)/G26</f>
+        <f t="shared" si="0"/>
         <v>2019.5841427937567</v>
       </c>
     </row>
@@ -12071,7 +12749,7 @@
         <v>34.238603579999896</v>
       </c>
       <c r="H27">
-        <f>(B27+C27)/G27</f>
+        <f t="shared" si="0"/>
         <v>2003.9368673341264</v>
       </c>
     </row>
@@ -12098,7 +12776,7 @@
         <v>34.117088879999997</v>
       </c>
       <c r="H28">
-        <f>(B28+C28)/G28</f>
+        <f t="shared" si="0"/>
         <v>2011.074281317756</v>
       </c>
     </row>
@@ -12125,7 +12803,7 @@
         <v>34.252814839999999</v>
       </c>
       <c r="H29">
-        <f>(B29+C29)/G29</f>
+        <f t="shared" si="0"/>
         <v>2003.1054475521755</v>
       </c>
     </row>
@@ -12152,7 +12830,7 @@
         <v>34.066133439999902</v>
       </c>
       <c r="H30">
-        <f>(B30+C30)/G30</f>
+        <f t="shared" si="0"/>
         <v>2013.847568607428</v>
       </c>
     </row>
@@ -12179,7 +12857,7 @@
         <v>34.137571080000001</v>
       </c>
       <c r="H31">
-        <f>(B31+C31)/G31</f>
+        <f t="shared" si="0"/>
         <v>2009.8676569346596</v>
       </c>
     </row>
@@ -12206,7 +12884,7 @@
         <v>34.017964599999999</v>
       </c>
       <c r="H32">
-        <f>(B32+C32)/G32</f>
+        <f t="shared" si="0"/>
         <v>2016.9343112315428</v>
       </c>
     </row>
@@ -12233,7 +12911,7 @@
         <v>34.006376099999997</v>
       </c>
       <c r="H33">
-        <f>(B33+C33)/G33</f>
+        <f t="shared" si="0"/>
         <v>2017.6216306682559</v>
       </c>
     </row>
@@ -12260,7 +12938,7 @@
         <v>111.907420719999</v>
       </c>
       <c r="H34">
-        <f>(B34+C34)/G34</f>
+        <f t="shared" si="0"/>
         <v>3989.6549945254069</v>
       </c>
     </row>
@@ -12287,7 +12965,7 @@
         <v>189.12648171999999</v>
       </c>
       <c r="H35">
-        <f>(B35+C35)/G35</f>
+        <f t="shared" si="0"/>
         <v>2360.6900310290403</v>
       </c>
     </row>
@@ -12314,7 +12992,7 @@
         <v>189.40971991999999</v>
       </c>
       <c r="H36">
-        <f>(B36+C36)/G36</f>
+        <f t="shared" si="0"/>
         <v>2357.1599186597859</v>
       </c>
     </row>
@@ -12341,7 +13019,7 @@
         <v>185.23766592000001</v>
       </c>
       <c r="H37">
-        <f>(B37+C37)/G37</f>
+        <f t="shared" si="0"/>
         <v>2410.2495449970738</v>
       </c>
     </row>
@@ -12368,7 +13046,7 @@
         <v>186.55515958000001</v>
       </c>
       <c r="H38">
-        <f>(B38+C38)/G38</f>
+        <f t="shared" si="0"/>
         <v>2393.227831410054</v>
       </c>
     </row>
@@ -12395,7 +13073,7 @@
         <v>186.68680283999899</v>
       </c>
       <c r="H39">
-        <f>(B39+C39)/G39</f>
+        <f t="shared" si="0"/>
         <v>2391.5402332035696</v>
       </c>
     </row>
@@ -12422,7 +13100,7 @@
         <v>187.29386528000001</v>
       </c>
       <c r="H40">
-        <f>(B40+C40)/G40</f>
+        <f t="shared" si="0"/>
         <v>2383.7887019552891</v>
       </c>
     </row>
@@ -12449,7 +13127,7 @@
         <v>210.42413044</v>
       </c>
       <c r="H41">
-        <f>(B41+C41)/G41</f>
+        <f t="shared" si="0"/>
         <v>2121.757609578458</v>
       </c>
     </row>
@@ -12476,7 +13154,7 @@
         <v>188.77974603999999</v>
       </c>
       <c r="H42">
-        <f>(B42+C42)/G42</f>
+        <f t="shared" si="0"/>
         <v>2365.0259594342233</v>
       </c>
     </row>
@@ -12503,7 +13181,7 @@
         <v>186.77409639999999</v>
       </c>
       <c r="H43">
-        <f>(B43+C43)/G43</f>
+        <f t="shared" si="0"/>
         <v>2390.4224868732922</v>
       </c>
     </row>
@@ -12530,7 +13208,7 @@
         <v>186.27783828</v>
       </c>
       <c r="H44">
-        <f>(B44+C44)/G44</f>
+        <f t="shared" si="0"/>
         <v>2396.7907515058159</v>
       </c>
     </row>
@@ -12557,7 +13235,7 @@
         <v>185.04956084</v>
       </c>
       <c r="H45">
-        <f>(B45+C45)/G45</f>
+        <f t="shared" si="0"/>
         <v>2412.699592332629</v>
       </c>
     </row>
@@ -12584,7 +13262,7 @@
         <v>186.70584961999899</v>
       </c>
       <c r="H46">
-        <f>(B46+C46)/G46</f>
+        <f t="shared" si="0"/>
         <v>2391.2962604476238</v>
       </c>
     </row>
@@ -12611,7 +13289,7 @@
         <v>185.21223871999999</v>
       </c>
       <c r="H47">
-        <f>(B47+C47)/G47</f>
+        <f t="shared" si="0"/>
         <v>2410.5804405018966</v>
       </c>
     </row>
@@ -12638,7 +13316,7 @@
         <v>182.09949768000001</v>
       </c>
       <c r="H48">
-        <f>(B48+C48)/G48</f>
+        <f t="shared" si="0"/>
         <v>2451.7860053879526</v>
       </c>
     </row>
@@ -12665,7 +13343,7 @@
         <v>187.603093819999</v>
       </c>
       <c r="H49">
-        <f>(B49+C49)/G49</f>
+        <f t="shared" si="0"/>
         <v>2379.859473044603</v>
       </c>
     </row>
@@ -12692,7 +13370,7 @@
         <v>184.31744665999901</v>
       </c>
       <c r="H50">
-        <f>(B50+C50)/G50</f>
+        <f t="shared" si="0"/>
         <v>2422.2829042525668</v>
       </c>
     </row>
@@ -12719,7 +13397,7 @@
         <v>189.467449979999</v>
       </c>
       <c r="H51">
-        <f>(B51+C51)/G51</f>
+        <f t="shared" si="0"/>
         <v>2356.4417003930289</v>
       </c>
     </row>
@@ -12746,7 +13424,7 @@
         <v>192.387107159999</v>
       </c>
       <c r="H52">
-        <f>(B52+C52)/G52</f>
+        <f t="shared" si="0"/>
         <v>2320.6804582216282</v>
       </c>
     </row>
@@ -12773,7 +13451,7 @@
         <v>182.90554485999999</v>
       </c>
       <c r="H53">
-        <f>(B53+C53)/G53</f>
+        <f t="shared" si="0"/>
         <v>2440.9812197970127</v>
       </c>
     </row>
@@ -12800,7 +13478,7 @@
         <v>181.23005843999999</v>
       </c>
       <c r="H54">
-        <f>(B54+C54)/G54</f>
+        <f t="shared" si="0"/>
         <v>2463.5482868743484</v>
       </c>
     </row>
@@ -12827,7 +13505,7 @@
         <v>182.31115097999901</v>
       </c>
       <c r="H55">
-        <f>(B55+C55)/G55</f>
+        <f t="shared" si="0"/>
         <v>2448.9396155969703</v>
       </c>
     </row>
@@ -12854,7 +13532,7 @@
         <v>184.61765389999999</v>
       </c>
       <c r="H56">
-        <f>(B56+C56)/G56</f>
+        <f t="shared" si="0"/>
         <v>2418.3440238160238</v>
       </c>
     </row>
@@ -12881,7 +13559,7 @@
         <v>179.11648412</v>
       </c>
       <c r="H57">
-        <f>(B57+C57)/G57</f>
+        <f t="shared" si="0"/>
         <v>2492.6181540102466</v>
       </c>
     </row>
@@ -12908,7 +13586,7 @@
         <v>181.06097243999901</v>
       </c>
       <c r="H58">
-        <f>(B58+C58)/G58</f>
+        <f t="shared" si="0"/>
         <v>2465.8489015237856</v>
       </c>
     </row>
@@ -12935,7 +13613,7 @@
         <v>185.56655269999999</v>
       </c>
       <c r="H59">
-        <f>(B59+C59)/G59</f>
+        <f t="shared" si="0"/>
         <v>2405.977766487872</v>
       </c>
     </row>
@@ -12962,7 +13640,7 @@
         <v>178.97067745999999</v>
       </c>
       <c r="H60">
-        <f>(B60+C60)/G60</f>
+        <f t="shared" si="0"/>
         <v>2494.6488795617706</v>
       </c>
     </row>
@@ -12989,7 +13667,7 @@
         <v>179.37863730000001</v>
       </c>
       <c r="H61">
-        <f>(B61+C61)/G61</f>
+        <f t="shared" si="0"/>
         <v>2488.9753134499924</v>
       </c>
     </row>
@@ -13016,7 +13694,7 @@
         <v>178.58445172</v>
       </c>
       <c r="H62">
-        <f>(B62+C62)/G62</f>
+        <f t="shared" si="0"/>
         <v>2500.044072705794</v>
       </c>
     </row>
@@ -13043,7 +13721,7 @@
         <v>199.41300183999999</v>
       </c>
       <c r="H63">
-        <f>(B63+C63)/G63</f>
+        <f t="shared" si="0"/>
         <v>2238.9161984444054</v>
       </c>
     </row>
@@ -13070,7 +13748,7 @@
         <v>199.64808736000001</v>
       </c>
       <c r="H64">
-        <f>(B64+C64)/G64</f>
+        <f t="shared" si="0"/>
         <v>2236.279875774313</v>
       </c>
     </row>
@@ -13097,7 +13775,7 @@
         <v>198.95885647999901</v>
       </c>
       <c r="H65">
-        <f>(B65+C65)/G65</f>
+        <f t="shared" si="0"/>
         <v>2244.0267696496476</v>
       </c>
     </row>
@@ -13124,7 +13802,7 @@
         <v>199.45058553999999</v>
       </c>
       <c r="H66">
-        <f>(B66+C66)/G66</f>
+        <f t="shared" ref="H66:H129" si="1">(B66+C66)/G66</f>
         <v>2238.4943057008986</v>
       </c>
     </row>
@@ -13151,7 +13829,7 @@
         <v>199.78327408000001</v>
       </c>
       <c r="H67">
-        <f>(B67+C67)/G67</f>
+        <f t="shared" si="1"/>
         <v>2234.7666593011118</v>
       </c>
     </row>
@@ -13178,7 +13856,7 @@
         <v>198.65818938000001</v>
       </c>
       <c r="H68">
-        <f>(B68+C68)/G68</f>
+        <f t="shared" si="1"/>
         <v>2247.4230807871668</v>
       </c>
     </row>
@@ -13205,7 +13883,7 @@
         <v>198.66733095999999</v>
       </c>
       <c r="H69">
-        <f>(B69+C69)/G69</f>
+        <f t="shared" si="1"/>
         <v>2247.3196667140651</v>
       </c>
     </row>
@@ -13232,7 +13910,7 @@
         <v>200.15678489999999</v>
       </c>
       <c r="H70">
-        <f>(B70+C70)/G70</f>
+        <f t="shared" si="1"/>
         <v>2230.5963808474426</v>
       </c>
     </row>
@@ -13259,7 +13937,7 @@
         <v>202.46034469999901</v>
       </c>
       <c r="H71">
-        <f>(B71+C71)/G71</f>
+        <f t="shared" si="1"/>
         <v>2205.2170298414107</v>
       </c>
     </row>
@@ -13286,7 +13964,7 @@
         <v>215.97436058</v>
       </c>
       <c r="H72">
-        <f>(B72+C72)/G72</f>
+        <f t="shared" si="1"/>
         <v>2067.2314935949144</v>
       </c>
     </row>
@@ -13313,7 +13991,7 @@
         <v>199.64514940000001</v>
       </c>
       <c r="H73">
-        <f>(B73+C73)/G73</f>
+        <f t="shared" si="1"/>
         <v>2236.3127846671341</v>
       </c>
     </row>
@@ -13340,7 +14018,7 @@
         <v>206.93457427999999</v>
       </c>
       <c r="H74">
-        <f>(B74+C74)/G74</f>
+        <f t="shared" si="1"/>
         <v>2157.5369971568389</v>
       </c>
     </row>
@@ -13367,7 +14045,7 @@
         <v>198.88427458000001</v>
       </c>
       <c r="H75">
-        <f>(B75+C75)/G75</f>
+        <f t="shared" si="1"/>
         <v>2244.8682830396956</v>
       </c>
     </row>
@@ -13394,7 +14072,7 @@
         <v>199.23690637999999</v>
       </c>
       <c r="H76">
-        <f>(B76+C76)/G76</f>
+        <f t="shared" si="1"/>
         <v>2240.8950636307304</v>
       </c>
     </row>
@@ -13421,7 +14099,7 @@
         <v>198.82747931999899</v>
       </c>
       <c r="H77">
-        <f>(B77+C77)/G77</f>
+        <f t="shared" si="1"/>
         <v>2245.5095318159679</v>
       </c>
     </row>
@@ -13448,7 +14126,7 @@
         <v>198.99926762000001</v>
       </c>
       <c r="H78">
-        <f>(B78+C78)/G78</f>
+        <f t="shared" si="1"/>
         <v>2243.5710710883468</v>
       </c>
     </row>
@@ -13475,7 +14153,7 @@
         <v>198.91183677999999</v>
       </c>
       <c r="H79">
-        <f>(B79+C79)/G79</f>
+        <f t="shared" si="1"/>
         <v>2244.557223076687</v>
       </c>
     </row>
@@ -13502,7 +14180,7 @@
         <v>199.57221041999901</v>
       </c>
       <c r="H80">
-        <f>(B80+C80)/G80</f>
+        <f t="shared" si="1"/>
         <v>2237.1301047395705</v>
       </c>
     </row>
@@ -13529,7 +14207,7 @@
         <v>199.63192269999999</v>
       </c>
       <c r="H81">
-        <f>(B81+C81)/G81</f>
+        <f t="shared" si="1"/>
         <v>2236.4609525448409</v>
       </c>
     </row>
@@ -13556,7 +14234,7 @@
         <v>199.42566518000001</v>
       </c>
       <c r="H82">
-        <f>(B82+C82)/G82</f>
+        <f t="shared" si="1"/>
         <v>2238.7740293959691</v>
       </c>
     </row>
@@ -13583,7 +14261,7 @@
         <v>199.90565769999901</v>
       </c>
       <c r="H83">
-        <f>(B83+C83)/G83</f>
+        <f t="shared" si="1"/>
         <v>2233.3985197658676</v>
       </c>
     </row>
@@ -13610,7 +14288,7 @@
         <v>198.21157176</v>
       </c>
       <c r="H84">
-        <f>(B84+C84)/G84</f>
+        <f t="shared" si="1"/>
         <v>2252.4870573177072</v>
       </c>
     </row>
@@ -13637,7 +14315,7 @@
         <v>198.89740649999999</v>
       </c>
       <c r="H85">
-        <f>(B85+C85)/G85</f>
+        <f t="shared" si="1"/>
         <v>2244.720068785814</v>
       </c>
     </row>
@@ -13664,7 +14342,7 @@
         <v>198.93542590000001</v>
       </c>
       <c r="H86">
-        <f>(B86+C86)/G86</f>
+        <f t="shared" si="1"/>
         <v>2244.2910707338224</v>
       </c>
     </row>
@@ -13691,7 +14369,7 @@
         <v>198.76862181999999</v>
       </c>
       <c r="H87">
-        <f>(B87+C87)/G87</f>
+        <f t="shared" si="1"/>
         <v>2246.1744510374047</v>
       </c>
     </row>
@@ -13718,7 +14396,7 @@
         <v>199.13639918000001</v>
       </c>
       <c r="H88">
-        <f>(B88+C88)/G88</f>
+        <f t="shared" si="1"/>
         <v>2242.0260777962308</v>
       </c>
     </row>
@@ -13745,7 +14423,7 @@
         <v>198.22235347999899</v>
       </c>
       <c r="H89">
-        <f>(B89+C89)/G89</f>
+        <f t="shared" si="1"/>
         <v>2252.3645399309094</v>
       </c>
     </row>
@@ -13772,7 +14450,7 @@
         <v>198.66237358000001</v>
       </c>
       <c r="H90">
-        <f>(B90+C90)/G90</f>
+        <f t="shared" si="1"/>
         <v>2247.3757458666923</v>
       </c>
     </row>
@@ -13799,7 +14477,7 @@
         <v>198.80529431999901</v>
       </c>
       <c r="H91">
-        <f>(B91+C91)/G91</f>
+        <f t="shared" si="1"/>
         <v>2245.7601118074804</v>
       </c>
     </row>
@@ -13826,7 +14504,7 @@
         <v>179.57427006</v>
       </c>
       <c r="H92">
-        <f>(B92+C92)/G92</f>
+        <f t="shared" si="1"/>
         <v>2486.2637606758708</v>
       </c>
     </row>
@@ -13853,7 +14531,7 @@
         <v>183.93114233999901</v>
       </c>
       <c r="H93">
-        <f>(B93+C93)/G93</f>
+        <f t="shared" si="1"/>
         <v>2427.3703426181983</v>
       </c>
     </row>
@@ -13880,7 +14558,7 @@
         <v>200.00188255999899</v>
       </c>
       <c r="H94">
-        <f>(B94+C94)/G94</f>
+        <f t="shared" si="1"/>
         <v>2232.3239875807808</v>
       </c>
     </row>
@@ -13907,7 +14585,7 @@
         <v>182.65851684</v>
       </c>
       <c r="H95">
-        <f>(B95+C95)/G95</f>
+        <f t="shared" si="1"/>
         <v>2444.282411375787</v>
       </c>
     </row>
@@ -13934,7 +14612,7 @@
         <v>181.62995047999999</v>
       </c>
       <c r="H96">
-        <f>(B96+C96)/G96</f>
+        <f t="shared" si="1"/>
         <v>2458.1243281744028</v>
       </c>
     </row>
@@ -13961,7 +14639,7 @@
         <v>179.24030096000001</v>
       </c>
       <c r="H97">
-        <f>(B97+C97)/G97</f>
+        <f t="shared" si="1"/>
         <v>2490.8962862076191</v>
       </c>
     </row>
@@ -13988,7 +14666,7 @@
         <v>190.72937379999999</v>
       </c>
       <c r="H98">
-        <f>(B98+C98)/G98</f>
+        <f t="shared" si="1"/>
         <v>2340.8507620235264</v>
       </c>
     </row>
@@ -14015,7 +14693,7 @@
         <v>188.63704809999999</v>
       </c>
       <c r="H99">
-        <f>(B99+C99)/G99</f>
+        <f t="shared" si="1"/>
         <v>2366.8150265122817</v>
       </c>
     </row>
@@ -14042,7 +14720,7 @@
         <v>191.5386317</v>
       </c>
       <c r="H100">
-        <f>(B100+C100)/G100</f>
+        <f t="shared" si="1"/>
         <v>2330.9605797920085</v>
       </c>
     </row>
@@ -14069,7 +14747,7 @@
         <v>190.10318821999999</v>
       </c>
       <c r="H101">
-        <f>(B101+C101)/G101</f>
+        <f t="shared" si="1"/>
         <v>2348.5613480785842</v>
       </c>
     </row>
@@ -14096,7 +14774,7 @@
         <v>191.80832336</v>
       </c>
       <c r="H102">
-        <f>(B102+C102)/G102</f>
+        <f t="shared" si="1"/>
         <v>2327.6831379315799</v>
       </c>
     </row>
@@ -14123,7 +14801,7 @@
         <v>190.39659626</v>
       </c>
       <c r="H103">
-        <f>(B103+C103)/G103</f>
+        <f t="shared" si="1"/>
         <v>2344.942130112006</v>
       </c>
     </row>
@@ -14150,7 +14828,7 @@
         <v>193.83667149999999</v>
       </c>
       <c r="H104">
-        <f>(B104+C104)/G104</f>
+        <f t="shared" si="1"/>
         <v>2303.3257667138596</v>
       </c>
     </row>
@@ -14177,7 +14855,7 @@
         <v>189.9617149</v>
       </c>
       <c r="H105">
-        <f>(B105+C105)/G105</f>
+        <f t="shared" si="1"/>
         <v>2350.3104308940938</v>
       </c>
     </row>
@@ -14204,7 +14882,7 @@
         <v>192.65526392000001</v>
       </c>
       <c r="H106">
-        <f>(B106+C106)/G106</f>
+        <f t="shared" si="1"/>
         <v>2317.4503043186819</v>
       </c>
     </row>
@@ -14231,7 +14909,7 @@
         <v>190.203101</v>
       </c>
       <c r="H107">
-        <f>(B107+C107)/G107</f>
+        <f t="shared" si="1"/>
         <v>2347.3276600259005</v>
       </c>
     </row>
@@ -14258,7 +14936,7 @@
         <v>192.13398541999999</v>
       </c>
       <c r="H108">
-        <f>(B108+C108)/G108</f>
+        <f t="shared" si="1"/>
         <v>2323.7377761359094</v>
       </c>
     </row>
@@ -14285,7 +14963,7 @@
         <v>190.01623726</v>
       </c>
       <c r="H109">
-        <f>(B109+C109)/G109</f>
+        <f t="shared" si="1"/>
         <v>2349.6360439402588</v>
       </c>
     </row>
@@ -14312,7 +14990,7 @@
         <v>192.23689421999899</v>
       </c>
       <c r="H110">
-        <f>(B110+C110)/G110</f>
+        <f t="shared" si="1"/>
         <v>2322.4938262321994</v>
       </c>
     </row>
@@ -14339,7 +15017,7 @@
         <v>194.91874077999901</v>
       </c>
       <c r="H111">
-        <f>(B111+C111)/G111</f>
+        <f t="shared" si="1"/>
         <v>2290.5391149839247</v>
       </c>
     </row>
@@ -14366,7 +15044,7 @@
         <v>192.7951377</v>
       </c>
       <c r="H112">
-        <f>(B112+C112)/G112</f>
+        <f t="shared" si="1"/>
         <v>2315.7689832133146</v>
       </c>
     </row>
@@ -14393,7 +15071,7 @@
         <v>192.38708958000001</v>
       </c>
       <c r="H113">
-        <f>(B113+C113)/G113</f>
+        <f t="shared" si="1"/>
         <v>2320.6806702813888</v>
       </c>
     </row>
@@ -14420,7 +15098,7 @@
         <v>181.55125944</v>
       </c>
       <c r="H114">
-        <f>(B114+C114)/G114</f>
+        <f t="shared" si="1"/>
         <v>2459.1897703003892</v>
       </c>
     </row>
@@ -14447,7 +15125,7 @@
         <v>181.58870361999999</v>
       </c>
       <c r="H115">
-        <f>(B115+C115)/G115</f>
+        <f t="shared" si="1"/>
         <v>2458.6826773888943</v>
       </c>
     </row>
@@ -14474,7 +15152,7 @@
         <v>180.12450935999999</v>
       </c>
       <c r="H116">
-        <f>(B116+C116)/G116</f>
+        <f t="shared" si="1"/>
         <v>2478.6687918615189</v>
       </c>
     </row>
@@ -14501,7 +15179,7 @@
         <v>179.83802882000001</v>
       </c>
       <c r="H117">
-        <f>(B117+C117)/G117</f>
+        <f t="shared" si="1"/>
         <v>2482.6172914009812</v>
       </c>
     </row>
@@ -14528,7 +15206,7 @@
         <v>180.86399236</v>
       </c>
       <c r="H118">
-        <f>(B118+C118)/G118</f>
+        <f t="shared" si="1"/>
         <v>2468.5344726402345</v>
       </c>
     </row>
@@ -14555,7 +15233,7 @@
         <v>181.35117973999999</v>
       </c>
       <c r="H119">
-        <f>(B119+C119)/G119</f>
+        <f t="shared" si="1"/>
         <v>2461.9029258044793</v>
       </c>
     </row>
@@ -14582,7 +15260,7 @@
         <v>181.83487823999999</v>
       </c>
       <c r="H120">
-        <f>(B120+C120)/G120</f>
+        <f t="shared" si="1"/>
         <v>2455.3540240542579</v>
       </c>
     </row>
@@ -14609,7 +15287,7 @@
         <v>184.62361075999999</v>
       </c>
       <c r="H121">
-        <f>(B121+C121)/G121</f>
+        <f t="shared" si="1"/>
         <v>2418.2659962185653</v>
       </c>
     </row>
@@ -14636,7 +15314,7 @@
         <v>185.75735232</v>
       </c>
       <c r="H122">
-        <f>(B122+C122)/G122</f>
+        <f t="shared" si="1"/>
         <v>2403.5064799528254</v>
       </c>
     </row>
@@ -14663,7 +15341,7 @@
         <v>183.80628503999901</v>
       </c>
       <c r="H123">
-        <f>(B123+C123)/G123</f>
+        <f t="shared" si="1"/>
         <v>2429.0192247933287</v>
       </c>
     </row>
@@ -14690,7 +15368,7 @@
         <v>182.47540581999999</v>
       </c>
       <c r="H124">
-        <f>(B124+C124)/G124</f>
+        <f t="shared" si="1"/>
         <v>2446.7352079239236</v>
       </c>
     </row>
@@ -14717,7 +15395,7 @@
         <v>182.33251869999901</v>
       </c>
       <c r="H125">
-        <f>(B125+C125)/G125</f>
+        <f t="shared" si="1"/>
         <v>2448.6526220514629</v>
       </c>
     </row>
@@ -14744,7 +15422,7 @@
         <v>183.70203934</v>
       </c>
       <c r="H126">
-        <f>(B126+C126)/G126</f>
+        <f t="shared" si="1"/>
         <v>2430.397624348986</v>
       </c>
     </row>
@@ -14771,7 +15449,7 @@
         <v>181.83323035999999</v>
       </c>
       <c r="H127">
-        <f>(B127+C127)/G127</f>
+        <f t="shared" si="1"/>
         <v>2455.3762759208785</v>
       </c>
     </row>
@@ -14798,7 +15476,7 @@
         <v>180.56480003999999</v>
       </c>
       <c r="H128">
-        <f>(B128+C128)/G128</f>
+        <f t="shared" si="1"/>
         <v>2472.6247856785762</v>
       </c>
     </row>
@@ -14825,7 +15503,7 @@
         <v>180.57571745999999</v>
       </c>
       <c r="H129">
-        <f>(B129+C129)/G129</f>
+        <f t="shared" si="1"/>
         <v>2472.4752933566442</v>
       </c>
     </row>
@@ -14852,7 +15530,7 @@
         <v>181.21766498</v>
       </c>
       <c r="H130">
-        <f>(B130+C130)/G130</f>
+        <f t="shared" ref="H130:H193" si="2">(B130+C130)/G130</f>
         <v>2463.7167687227088</v>
       </c>
     </row>
@@ -14879,7 +15557,7 @@
         <v>181.23275753999999</v>
       </c>
       <c r="H131">
-        <f>(B131+C131)/G131</f>
+        <f t="shared" si="2"/>
         <v>2463.511597242345</v>
       </c>
     </row>
@@ -14906,7 +15584,7 @@
         <v>180.54220247999999</v>
       </c>
       <c r="H132">
-        <f>(B132+C132)/G132</f>
+        <f t="shared" si="2"/>
         <v>2472.9342716945016</v>
       </c>
     </row>
@@ -14933,7 +15611,7 @@
         <v>182.74870788000001</v>
       </c>
       <c r="H133">
-        <f>(B133+C133)/G133</f>
+        <f t="shared" si="2"/>
         <v>2443.0760971134696</v>
       </c>
     </row>
@@ -14960,7 +15638,7 @@
         <v>181.49262071999999</v>
       </c>
       <c r="H134">
-        <f>(B134+C134)/G134</f>
+        <f t="shared" si="2"/>
         <v>2459.9843135704982</v>
       </c>
     </row>
@@ -14987,7 +15665,7 @@
         <v>181.49197053999899</v>
       </c>
       <c r="H135">
-        <f>(B135+C135)/G135</f>
+        <f t="shared" si="2"/>
         <v>2459.9931262612126</v>
       </c>
     </row>
@@ -15014,7 +15692,7 @@
         <v>186.30329436</v>
       </c>
       <c r="H136">
-        <f>(B136+C136)/G136</f>
+        <f t="shared" si="2"/>
         <v>2396.4632591910758</v>
       </c>
     </row>
@@ -15041,7 +15719,7 @@
         <v>186.74921802</v>
       </c>
       <c r="H137">
-        <f>(B137+C137)/G137</f>
+        <f t="shared" si="2"/>
         <v>2390.740934466377</v>
       </c>
     </row>
@@ -15068,7 +15746,7 @@
         <v>186.14971435999999</v>
       </c>
       <c r="H138">
-        <f>(B138+C138)/G138</f>
+        <f t="shared" si="2"/>
         <v>2398.4404248752244</v>
       </c>
     </row>
@@ -15095,7 +15773,7 @@
         <v>185.69191409999999</v>
       </c>
       <c r="H139">
-        <f>(B139+C139)/G139</f>
+        <f t="shared" si="2"/>
         <v>2404.3534806774874</v>
       </c>
     </row>
@@ -15122,7 +15800,7 @@
         <v>188.71767016000001</v>
       </c>
       <c r="H140">
-        <f>(B140+C140)/G140</f>
+        <f t="shared" si="2"/>
         <v>2365.8038996638279</v>
       </c>
     </row>
@@ -15149,7 +15827,7 @@
         <v>185.1325148</v>
       </c>
       <c r="H141">
-        <f>(B141+C141)/G141</f>
+        <f t="shared" si="2"/>
         <v>2411.6185127303202</v>
       </c>
     </row>
@@ -15176,7 +15854,7 @@
         <v>194.7072005</v>
       </c>
       <c r="H142">
-        <f>(B142+C142)/G142</f>
+        <f t="shared" si="2"/>
         <v>2293.0276787580847</v>
       </c>
     </row>
@@ -15203,7 +15881,7 @@
         <v>185.58641746000001</v>
       </c>
       <c r="H143">
-        <f>(B143+C143)/G143</f>
+        <f t="shared" si="2"/>
         <v>2405.7202359446846</v>
       </c>
     </row>
@@ -15230,7 +15908,7 @@
         <v>185.52962693999899</v>
       </c>
       <c r="H144">
-        <f>(B144+C144)/G144</f>
+        <f t="shared" si="2"/>
         <v>2406.4566256277217</v>
       </c>
     </row>
@@ -15257,7 +15935,7 @@
         <v>185.63872835999999</v>
       </c>
       <c r="H145">
-        <f>(B145+C145)/G145</f>
+        <f t="shared" si="2"/>
         <v>2405.0423311141453</v>
       </c>
     </row>
@@ -15284,7 +15962,7 @@
         <v>185.41290304</v>
       </c>
       <c r="H146">
-        <f>(B146+C146)/G146</f>
+        <f t="shared" si="2"/>
         <v>2407.9715741448758</v>
       </c>
     </row>
@@ -15311,7 +15989,7 @@
         <v>15.38550478</v>
       </c>
       <c r="H147">
-        <f>(B147+C147)/G147</f>
+        <f t="shared" si="2"/>
         <v>3844.2677601897963</v>
       </c>
     </row>
@@ -15338,7 +16016,7 @@
         <v>28.187649220000001</v>
       </c>
       <c r="H148">
-        <f>(B148+C148)/G148</f>
+        <f t="shared" si="2"/>
         <v>2097.8691603002712</v>
       </c>
     </row>
@@ -15365,7 +16043,7 @@
         <v>28.402895219999898</v>
       </c>
       <c r="H149">
-        <f>(B149+C149)/G149</f>
+        <f t="shared" si="2"/>
         <v>2082.3933455330407</v>
       </c>
     </row>
@@ -15392,7 +16070,7 @@
         <v>28.302131839999898</v>
       </c>
       <c r="H150">
-        <f>(B150+C150)/G150</f>
+        <f t="shared" si="2"/>
         <v>2089.8072390577986</v>
       </c>
     </row>
@@ -15419,7 +16097,7 @@
         <v>28.389448079999902</v>
       </c>
       <c r="H151">
-        <f>(B151+C151)/G151</f>
+        <f t="shared" si="2"/>
         <v>2083.2740331315454</v>
       </c>
     </row>
@@ -15446,7 +16124,7 @@
         <v>28.944670639999998</v>
       </c>
       <c r="H152">
-        <f>(B152+C152)/G152</f>
+        <f t="shared" si="2"/>
         <v>2043.2431495098886</v>
       </c>
     </row>
@@ -15473,7 +16151,7 @@
         <v>28.954665940000002</v>
       </c>
       <c r="H153">
-        <f>(B153+C153)/G153</f>
+        <f t="shared" si="2"/>
         <v>2042.7104951776209</v>
       </c>
     </row>
@@ -15500,7 +16178,7 @@
         <v>29.253584539999999</v>
       </c>
       <c r="H154">
-        <f>(B154+C154)/G154</f>
+        <f t="shared" si="2"/>
         <v>2021.8376971590096</v>
       </c>
     </row>
@@ -15527,7 +16205,7 @@
         <v>29.277332340000001</v>
       </c>
       <c r="H155">
-        <f>(B155+C155)/G155</f>
+        <f t="shared" si="2"/>
         <v>2020.061094131775</v>
       </c>
     </row>
@@ -15554,7 +16232,7 @@
         <v>28.468488140000002</v>
       </c>
       <c r="H156">
-        <f>(B156+C156)/G156</f>
+        <f t="shared" si="2"/>
         <v>2077.5953998377659</v>
       </c>
     </row>
@@ -15581,7 +16259,7 @@
         <v>28.565864980000001</v>
       </c>
       <c r="H157">
-        <f>(B157+C157)/G157</f>
+        <f t="shared" si="2"/>
         <v>2070.5131821287491</v>
       </c>
     </row>
@@ -15608,7 +16286,7 @@
         <v>28.996214259999999</v>
       </c>
       <c r="H158">
-        <f>(B158+C158)/G158</f>
+        <f t="shared" si="2"/>
         <v>2039.7835203470456</v>
       </c>
     </row>
@@ -15635,7 +16313,7 @@
         <v>28.363435419999998</v>
       </c>
       <c r="H159">
-        <f>(B159+C159)/G159</f>
+        <f t="shared" si="2"/>
         <v>2085.2904143725195</v>
       </c>
     </row>
@@ -15662,7 +16340,7 @@
         <v>28.38466266</v>
       </c>
       <c r="H160">
-        <f>(B160+C160)/G160</f>
+        <f t="shared" si="2"/>
         <v>2083.6957165373619</v>
       </c>
     </row>
@@ -15689,7 +16367,7 @@
         <v>28.464072539999901</v>
       </c>
       <c r="H161">
-        <f>(B161+C161)/G161</f>
+        <f t="shared" si="2"/>
         <v>2077.9176949076241</v>
       </c>
     </row>
@@ -15716,7 +16394,7 @@
         <v>28.413446759999999</v>
       </c>
       <c r="H162">
-        <f>(B162+C162)/G162</f>
+        <f t="shared" si="2"/>
         <v>2081.584839022888</v>
       </c>
     </row>
@@ -15743,7 +16421,7 @@
         <v>28.368226279999998</v>
       </c>
       <c r="H163">
-        <f>(B163+C163)/G163</f>
+        <f t="shared" si="2"/>
         <v>2084.9382480320514</v>
       </c>
     </row>
@@ -15770,7 +16448,7 @@
         <v>28.576782859999899</v>
       </c>
       <c r="H164">
-        <f>(B164+C164)/G164</f>
+        <f t="shared" si="2"/>
         <v>2069.6871404229232</v>
       </c>
     </row>
@@ -15797,7 +16475,7 @@
         <v>28.32548152</v>
       </c>
       <c r="H165">
-        <f>(B165+C165)/G165</f>
+        <f t="shared" si="2"/>
         <v>2087.9080187301261</v>
       </c>
     </row>
@@ -15824,7 +16502,7 @@
         <v>28.366048979999999</v>
       </c>
       <c r="H166">
-        <f>(B166+C166)/G166</f>
+        <f t="shared" si="2"/>
         <v>2085.0982821647799</v>
       </c>
     </row>
@@ -15851,7 +16529,7 @@
         <v>28.430499940000001</v>
       </c>
       <c r="H167">
-        <f>(B167+C167)/G167</f>
+        <f t="shared" si="2"/>
         <v>2080.3714364792136</v>
       </c>
     </row>
@@ -15878,7 +16556,7 @@
         <v>28.226541260000001</v>
       </c>
       <c r="H168">
-        <f>(B168+C168)/G168</f>
+        <f t="shared" si="2"/>
         <v>2095.4037356258077</v>
       </c>
     </row>
@@ -15905,7 +16583,7 @@
         <v>28.390614939999999</v>
       </c>
       <c r="H169">
-        <f>(B169+C169)/G169</f>
+        <f t="shared" si="2"/>
         <v>2083.2940788706987</v>
       </c>
     </row>
@@ -15932,7 +16610,7 @@
         <v>28.274323199999898</v>
       </c>
       <c r="H170">
-        <f>(B170+C170)/G170</f>
+        <f t="shared" si="2"/>
         <v>2091.862626794908</v>
       </c>
     </row>
@@ -15959,7 +16637,7 @@
         <v>28.271409379999898</v>
       </c>
       <c r="H171">
-        <f>(B171+C171)/G171</f>
+        <f t="shared" si="2"/>
         <v>2092.0782266285519</v>
       </c>
     </row>
@@ -15986,7 +16664,7 @@
         <v>28.295308559999999</v>
       </c>
       <c r="H172">
-        <f>(B172+C172)/G172</f>
+        <f t="shared" si="2"/>
         <v>2090.1698200106148</v>
       </c>
     </row>
@@ -16013,7 +16691,7 @@
         <v>29.776339920000002</v>
       </c>
       <c r="H173">
-        <f>(B173+C173)/G173</f>
+        <f t="shared" si="2"/>
         <v>1986.3421817089466</v>
       </c>
     </row>
@@ -16040,7 +16718,7 @@
         <v>29.344552700000001</v>
       </c>
       <c r="H174">
-        <f>(B174+C174)/G174</f>
+        <f t="shared" si="2"/>
         <v>2015.0929068344599</v>
       </c>
     </row>
@@ -16067,7 +16745,7 @@
         <v>28.638487379999901</v>
       </c>
       <c r="H175">
-        <f>(B175+C175)/G175</f>
+        <f t="shared" si="2"/>
         <v>2065.2277899741575</v>
       </c>
     </row>
@@ -16094,7 +16772,7 @@
         <v>30.483007399999899</v>
       </c>
       <c r="H176">
-        <f>(B176+C176)/G176</f>
+        <f t="shared" si="2"/>
         <v>1940.2941194050361</v>
       </c>
     </row>
@@ -16121,7 +16799,7 @@
         <v>30.440299199999998</v>
       </c>
       <c r="H177">
-        <f>(B177+C177)/G177</f>
+        <f t="shared" si="2"/>
         <v>1943.0163813895758</v>
       </c>
     </row>
@@ -16148,7 +16826,7 @@
         <v>29.431778139999999</v>
       </c>
       <c r="H178">
-        <f>(B178+C178)/G178</f>
+        <f t="shared" si="2"/>
         <v>2007.3880592251571</v>
       </c>
     </row>
@@ -16175,7 +16853,7 @@
         <v>41.210686759999902</v>
       </c>
       <c r="H179">
-        <f>(B179+C179)/G179</f>
+        <f t="shared" si="2"/>
         <v>4126.8421705865403</v>
       </c>
     </row>
@@ -16202,7 +16880,7 @@
         <v>77.865957559999998</v>
       </c>
       <c r="H180">
-        <f>(B180+C180)/G180</f>
+        <f t="shared" si="2"/>
         <v>2184.1380409269573</v>
       </c>
     </row>
@@ -16229,7 +16907,7 @@
         <v>76.624371519999997</v>
       </c>
       <c r="H181">
-        <f>(B181+C181)/G181</f>
+        <f t="shared" si="2"/>
         <v>2219.2025412647718</v>
       </c>
     </row>
@@ -16256,7 +16934,7 @@
         <v>111.22918575999999</v>
       </c>
       <c r="H182">
-        <f>(B182+C182)/G182</f>
+        <f t="shared" si="2"/>
         <v>1529.0051692634095</v>
       </c>
     </row>
@@ -16283,7 +16961,7 @@
         <v>142.72233012000001</v>
       </c>
       <c r="H183">
-        <f>(B183+C183)/G183</f>
+        <f t="shared" si="2"/>
         <v>1191.6145136994769</v>
       </c>
     </row>
@@ -16310,7 +16988,7 @@
         <v>150.9577109</v>
       </c>
       <c r="H184">
-        <f>(B184+C184)/G184</f>
+        <f t="shared" si="2"/>
         <v>1126.6069085577265</v>
       </c>
     </row>
@@ -16337,7 +17015,7 @@
         <v>141.01656389999999</v>
       </c>
       <c r="H185">
-        <f>(B185+C185)/G185</f>
+        <f t="shared" si="2"/>
         <v>1206.0214438397616</v>
       </c>
     </row>
@@ -16364,7 +17042,7 @@
         <v>111.40341812</v>
       </c>
       <c r="H186">
-        <f>(B186+C186)/G186</f>
+        <f t="shared" si="2"/>
         <v>1526.60486428529</v>
       </c>
     </row>
@@ -16391,7 +17069,7 @@
         <v>90.815792639999998</v>
       </c>
       <c r="H187">
-        <f>(B187+C187)/G187</f>
+        <f t="shared" si="2"/>
         <v>1872.6808967484887</v>
       </c>
     </row>
@@ -16418,7 +17096,7 @@
         <v>78.349645999999893</v>
       </c>
       <c r="H188">
-        <f>(B188+C188)/G188</f>
+        <f t="shared" si="2"/>
         <v>2170.6415878381918</v>
       </c>
     </row>
@@ -16445,7 +17123,7 @@
         <v>78.326458220000006</v>
       </c>
       <c r="H189">
-        <f>(B189+C189)/G189</f>
+        <f t="shared" si="2"/>
         <v>2171.2841849980941</v>
       </c>
     </row>
@@ -16472,7 +17150,7 @@
         <v>76.771794299999996</v>
       </c>
       <c r="H190">
-        <f>(B190+C190)/G190</f>
+        <f t="shared" si="2"/>
         <v>2215.2536820414007</v>
       </c>
     </row>
@@ -16499,7 +17177,7 @@
         <v>76.198678060000006</v>
       </c>
       <c r="H191">
-        <f>(B191+C191)/G191</f>
+        <f t="shared" si="2"/>
         <v>2231.9153603437198</v>
       </c>
     </row>
@@ -16526,7 +17204,7 @@
         <v>77.385779239999906</v>
       </c>
       <c r="H192">
-        <f>(B192+C192)/G192</f>
+        <f t="shared" si="2"/>
         <v>2197.6776827762833</v>
       </c>
     </row>
@@ -16553,7 +17231,7 @@
         <v>77.426303819999902</v>
       </c>
       <c r="H193">
-        <f>(B193+C193)/G193</f>
+        <f t="shared" si="2"/>
         <v>2196.5274281383126</v>
       </c>
     </row>
@@ -16580,7 +17258,7 @@
         <v>75.535298239999904</v>
       </c>
       <c r="H194">
-        <f>(B194+C194)/G194</f>
+        <f t="shared" ref="H194:H257" si="3">(B194+C194)/G194</f>
         <v>2251.5168929317811</v>
       </c>
     </row>
@@ -16607,7 +17285,7 @@
         <v>75.890898879999995</v>
       </c>
       <c r="H195">
-        <f>(B195+C195)/G195</f>
+        <f t="shared" si="3"/>
         <v>2240.9670001262739</v>
       </c>
     </row>
@@ -16634,7 +17312,7 @@
         <v>75.834715700000004</v>
       </c>
       <c r="H196">
-        <f>(B196+C196)/G196</f>
+        <f t="shared" si="3"/>
         <v>2242.6272509913292</v>
       </c>
     </row>
@@ -16661,7 +17339,7 @@
         <v>75.447775800000002</v>
       </c>
       <c r="H197">
-        <f>(B197+C197)/G197</f>
+        <f t="shared" si="3"/>
         <v>2254.1287426527424</v>
       </c>
     </row>
@@ -16688,7 +17366,7 @@
         <v>75.810267859999996</v>
       </c>
       <c r="H198">
-        <f>(B198+C198)/G198</f>
+        <f t="shared" si="3"/>
         <v>2243.3504695441661</v>
       </c>
     </row>
@@ -16715,7 +17393,7 @@
         <v>76.076248299999904</v>
       </c>
       <c r="H199">
-        <f>(B199+C199)/G199</f>
+        <f t="shared" si="3"/>
         <v>2235.5071891735256</v>
       </c>
     </row>
@@ -16742,7 +17420,7 @@
         <v>75.633365040000001</v>
       </c>
       <c r="H200">
-        <f>(B200+C200)/G200</f>
+        <f t="shared" si="3"/>
         <v>2248.5975588955494</v>
       </c>
     </row>
@@ -16769,7 +17447,7 @@
         <v>75.722858579999993</v>
       </c>
       <c r="H201">
-        <f>(B201+C201)/G201</f>
+        <f t="shared" si="3"/>
         <v>2245.7551549026584</v>
       </c>
     </row>
@@ -16796,7 +17474,7 @@
         <v>75.842150820000001</v>
       </c>
       <c r="H202">
-        <f>(B202+C202)/G202</f>
+        <f t="shared" si="3"/>
         <v>2242.407396958366</v>
       </c>
     </row>
@@ -16823,7 +17501,7 @@
         <v>76.045450520000003</v>
       </c>
       <c r="H203">
-        <f>(B203+C203)/G203</f>
+        <f t="shared" si="3"/>
         <v>2236.4125511396865</v>
       </c>
     </row>
@@ -16850,7 +17528,7 @@
         <v>76.546406779999998</v>
       </c>
       <c r="H204">
-        <f>(B204+C204)/G204</f>
+        <f t="shared" si="3"/>
         <v>2221.7763988424799</v>
       </c>
     </row>
@@ -16877,7 +17555,7 @@
         <v>78.388590319999906</v>
       </c>
       <c r="H205">
-        <f>(B205+C205)/G205</f>
+        <f t="shared" si="3"/>
         <v>2169.5631890526411</v>
       </c>
     </row>
@@ -16904,7 +17582,7 @@
         <v>77.605929519999904</v>
       </c>
       <c r="H206">
-        <f>(B206+C206)/G206</f>
+        <f t="shared" si="3"/>
         <v>2191.4433736171068</v>
       </c>
     </row>
@@ -16931,7 +17609,7 @@
         <v>80.121091000000007</v>
       </c>
       <c r="H207">
-        <f>(B207+C207)/G207</f>
+        <f t="shared" si="3"/>
         <v>2122.1253714580594</v>
       </c>
     </row>
@@ -16958,7 +17636,7 @@
         <v>78.119903139999906</v>
       </c>
       <c r="H208">
-        <f>(B208+C208)/G208</f>
+        <f t="shared" si="3"/>
         <v>2176.9484236971907</v>
       </c>
     </row>
@@ -16985,7 +17663,7 @@
         <v>75.566109239999903</v>
       </c>
       <c r="H209">
-        <f>(B209+C209)/G209</f>
+        <f t="shared" si="3"/>
         <v>2250.5988691287052</v>
       </c>
     </row>
@@ -17012,7 +17690,7 @@
         <v>76.227308579999999</v>
       </c>
       <c r="H210">
-        <f>(B210+C210)/G210</f>
+        <f t="shared" si="3"/>
         <v>2231.0770663182188</v>
       </c>
     </row>
@@ -17039,7 +17717,7 @@
         <v>77.528752420000004</v>
       </c>
       <c r="H211">
-        <f>(B211+C211)/G211</f>
+        <f t="shared" si="3"/>
         <v>2193.6248771123974</v>
       </c>
     </row>
@@ -17066,7 +17744,7 @@
         <v>77.839579540000003</v>
       </c>
       <c r="H212">
-        <f>(B212+C212)/G212</f>
+        <f t="shared" si="3"/>
         <v>2184.8653474882321</v>
       </c>
     </row>
@@ -17093,7 +17771,7 @@
         <v>77.854927259999997</v>
       </c>
       <c r="H213">
-        <f>(B213+C213)/G213</f>
+        <f t="shared" si="3"/>
         <v>2184.4346399817059</v>
       </c>
     </row>
@@ -17120,7 +17798,7 @@
         <v>79.001855739999996</v>
       </c>
       <c r="H214">
-        <f>(B214+C214)/G214</f>
+        <f t="shared" si="3"/>
         <v>2152.7215836512451</v>
       </c>
     </row>
@@ -17147,7 +17825,7 @@
         <v>108.8732304</v>
       </c>
       <c r="H215">
-        <f>(B215+C215)/G215</f>
+        <f t="shared" si="3"/>
         <v>1562.082794596678</v>
       </c>
     </row>
@@ -17174,7 +17852,7 @@
         <v>86.594626500000004</v>
       </c>
       <c r="H216">
-        <f>(B216+C216)/G216</f>
+        <f t="shared" si="3"/>
         <v>1963.967129068915</v>
       </c>
     </row>
@@ -17201,7 +17879,7 @@
         <v>85.127636659999993</v>
       </c>
       <c r="H217">
-        <f>(B217+C217)/G217</f>
+        <f t="shared" si="3"/>
         <v>1997.8118349421122</v>
       </c>
     </row>
@@ -17228,7 +17906,7 @@
         <v>79.434473679999996</v>
       </c>
       <c r="H218">
-        <f>(B218+C218)/G218</f>
+        <f t="shared" si="3"/>
         <v>2140.9973796152935</v>
       </c>
     </row>
@@ -17255,7 +17933,7 @@
         <v>82.571037939999997</v>
       </c>
       <c r="H219">
-        <f>(B219+C219)/G219</f>
+        <f t="shared" si="3"/>
         <v>2059.6689134945855</v>
       </c>
     </row>
@@ -17282,7 +17960,7 @@
         <v>78.246643739999996</v>
       </c>
       <c r="H220">
-        <f>(B220+C220)/G220</f>
+        <f t="shared" si="3"/>
         <v>2173.4989754334988</v>
       </c>
     </row>
@@ -17309,7 +17987,7 @@
         <v>75.602103359999901</v>
       </c>
       <c r="H221">
-        <f>(B221+C221)/G221</f>
+        <f t="shared" si="3"/>
         <v>2248.9718201406431</v>
       </c>
     </row>
@@ -17336,7 +18014,7 @@
         <v>75.605694540000002</v>
       </c>
       <c r="H222">
-        <f>(B222+C222)/G222</f>
+        <f t="shared" si="3"/>
         <v>2249.4205103826298</v>
       </c>
     </row>
@@ -17363,7 +18041,7 @@
         <v>75.770297959999994</v>
       </c>
       <c r="H223">
-        <f>(B223+C223)/G223</f>
+        <f t="shared" si="3"/>
         <v>2244.5338685322495</v>
       </c>
     </row>
@@ -17390,7 +18068,7 @@
         <v>75.948392740000003</v>
       </c>
       <c r="H224">
-        <f>(B224+C224)/G224</f>
+        <f t="shared" si="3"/>
         <v>2239.2705607636799</v>
       </c>
     </row>
@@ -17417,7 +18095,7 @@
         <v>75.599347519999995</v>
       </c>
       <c r="H225">
-        <f>(B225+C225)/G225</f>
+        <f t="shared" si="3"/>
         <v>2249.6225903934892</v>
       </c>
     </row>
@@ -17444,7 +18122,7 @@
         <v>75.738109179999995</v>
       </c>
       <c r="H226">
-        <f>(B226+C226)/G226</f>
+        <f t="shared" si="3"/>
         <v>2245.4877979038561</v>
       </c>
     </row>
@@ -17471,7 +18149,7 @@
         <v>75.653333840000002</v>
       </c>
       <c r="H227">
-        <f>(B227+C227)/G227</f>
+        <f t="shared" si="3"/>
         <v>2248.0040385223556</v>
       </c>
     </row>
@@ -17498,7 +18176,7 @@
         <v>75.996441500000003</v>
       </c>
       <c r="H228">
-        <f>(B228+C228)/G228</f>
+        <f t="shared" si="3"/>
         <v>2237.8547816610599</v>
       </c>
     </row>
@@ -17525,7 +18203,7 @@
         <v>76.098568560000004</v>
       </c>
       <c r="H229">
-        <f>(B229+C229)/G229</f>
+        <f t="shared" si="3"/>
         <v>2234.864639614188</v>
       </c>
     </row>
@@ -17552,7 +18230,7 @@
         <v>76.094989139999996</v>
       </c>
       <c r="H230">
-        <f>(B230+C230)/G230</f>
+        <f t="shared" si="3"/>
         <v>2234.9566235840584</v>
       </c>
     </row>
@@ -17579,7 +18257,7 @@
         <v>75.439745020000004</v>
       </c>
       <c r="H231">
-        <f>(B231+C231)/G231</f>
+        <f t="shared" si="3"/>
         <v>2254.3687012053474</v>
       </c>
     </row>
@@ -17606,7 +18284,7 @@
         <v>75.355249479999998</v>
       </c>
       <c r="H232">
-        <f>(B232+C232)/G232</f>
+        <f t="shared" si="3"/>
         <v>2256.3391558424446</v>
       </c>
     </row>
@@ -17633,7 +18311,7 @@
         <v>75.615412319999905</v>
       </c>
       <c r="H233">
-        <f>(B233+C233)/G233</f>
+        <f t="shared" si="3"/>
         <v>2249.1314241636105</v>
       </c>
     </row>
@@ -17660,7 +18338,7 @@
         <v>75.467311780000003</v>
       </c>
       <c r="H234">
-        <f>(B234+C234)/G234</f>
+        <f t="shared" si="3"/>
         <v>2253.4657189825771</v>
       </c>
     </row>
@@ -17687,7 +18365,7 @@
         <v>80.821100739999906</v>
       </c>
       <c r="H235">
-        <f>(B235+C235)/G235</f>
+        <f t="shared" si="3"/>
         <v>2104.2648323623935</v>
       </c>
     </row>
@@ -17714,7 +18392,7 @@
         <v>85.252635580000003</v>
       </c>
       <c r="H236">
-        <f>(B236+C236)/G236</f>
+        <f t="shared" si="3"/>
         <v>1994.8122288889826</v>
       </c>
     </row>
@@ -17741,7 +18419,7 @@
         <v>85.178888420000007</v>
       </c>
       <c r="H237">
-        <f>(B237+C237)/G237</f>
+        <f t="shared" si="3"/>
         <v>1996.5393204176776</v>
       </c>
     </row>
@@ -17768,7 +18446,7 @@
         <v>81.360295280000003</v>
       </c>
       <c r="H238">
-        <f>(B238+C238)/G238</f>
+        <f t="shared" si="3"/>
         <v>2085.9314659065481</v>
       </c>
     </row>
@@ -17795,7 +18473,7 @@
         <v>84.841215099999999</v>
       </c>
       <c r="H239">
-        <f>(B239+C239)/G239</f>
+        <f t="shared" si="3"/>
         <v>2003.6488138416585</v>
       </c>
     </row>
@@ -17822,7 +18500,7 @@
         <v>83.012839439999993</v>
       </c>
       <c r="H240">
-        <f>(B240+C240)/G240</f>
+        <f t="shared" si="3"/>
         <v>2047.6109617098048</v>
       </c>
     </row>
@@ -17849,7 +18527,7 @@
         <v>76.495176760000007</v>
       </c>
       <c r="H241">
-        <f>(B241+C241)/G241</f>
+        <f t="shared" si="3"/>
         <v>2223.2643573539731</v>
       </c>
     </row>
@@ -17876,7 +18554,7 @@
         <v>79.055797739999903</v>
       </c>
       <c r="H242">
-        <f>(B242+C242)/G242</f>
+        <f t="shared" si="3"/>
         <v>2151.2527210126436</v>
       </c>
     </row>
@@ -17903,7 +18581,7 @@
         <v>77.934913219999999</v>
       </c>
       <c r="H243">
-        <f>(B243+C243)/G243</f>
+        <f t="shared" si="3"/>
         <v>2182.1157293129272</v>
       </c>
     </row>
@@ -17930,7 +18608,7 @@
         <v>76.982680419999994</v>
       </c>
       <c r="H244">
-        <f>(B244+C244)/G244</f>
+        <f t="shared" si="3"/>
         <v>2209.1852228597681</v>
       </c>
     </row>
@@ -17957,7 +18635,7 @@
         <v>75.841612499999997</v>
       </c>
       <c r="H245">
-        <f>(B245+C245)/G245</f>
+        <f t="shared" si="3"/>
         <v>2242.4233134547344</v>
       </c>
     </row>
@@ -17984,7 +18662,7 @@
         <v>75.728041500000003</v>
       </c>
       <c r="H246">
-        <f>(B246+C246)/G246</f>
+        <f t="shared" si="3"/>
         <v>2245.7863247394293</v>
       </c>
     </row>
@@ -18011,7 +18689,7 @@
         <v>75.541437180000003</v>
       </c>
       <c r="H247">
-        <f>(B247+C247)/G247</f>
+        <f t="shared" si="3"/>
         <v>2251.333921470939</v>
       </c>
     </row>
@@ -18038,7 +18716,7 @@
         <v>75.687140720000002</v>
       </c>
       <c r="H248">
-        <f>(B248+C248)/G248</f>
+        <f t="shared" si="3"/>
         <v>2246.4450153957409</v>
       </c>
     </row>
@@ -18065,7 +18743,7 @@
         <v>75.610644620000002</v>
       </c>
       <c r="H249">
-        <f>(B249+C249)/G249</f>
+        <f t="shared" si="3"/>
         <v>2249.2732452516948</v>
       </c>
     </row>
@@ -18092,7 +18770,7 @@
         <v>76.176124819999998</v>
       </c>
       <c r="H250">
-        <f>(B250+C250)/G250</f>
+        <f t="shared" si="3"/>
         <v>2232.5761569240194</v>
       </c>
     </row>
@@ -18119,7 +18797,7 @@
         <v>78.155025159999994</v>
       </c>
       <c r="H251">
-        <f>(B251+C251)/G251</f>
+        <f t="shared" si="3"/>
         <v>2171.4790527232685</v>
       </c>
     </row>
@@ -18146,7 +18824,7 @@
         <v>75.856059959999996</v>
       </c>
       <c r="H252">
-        <f>(B252+C252)/G252</f>
+        <f t="shared" si="3"/>
         <v>2241.9962240285067</v>
       </c>
     </row>
@@ -18173,7 +18851,7 @@
         <v>75.566255139999996</v>
       </c>
       <c r="H253">
-        <f>(B253+C253)/G253</f>
+        <f t="shared" si="3"/>
         <v>2250.5945237714477</v>
       </c>
     </row>
@@ -18200,7 +18878,7 @@
         <v>76.23115172</v>
       </c>
       <c r="H254">
-        <f>(B254+C254)/G254</f>
+        <f t="shared" si="3"/>
         <v>2230.9645881341276</v>
       </c>
     </row>
@@ -18227,7 +18905,7 @@
         <v>76.115802219999907</v>
       </c>
       <c r="H255">
-        <f>(B255+C255)/G255</f>
+        <f t="shared" si="3"/>
         <v>2234.3454977777701</v>
       </c>
     </row>
@@ -18254,7 +18932,7 @@
         <v>75.825019839999996</v>
       </c>
       <c r="H256">
-        <f>(B256+C256)/G256</f>
+        <f t="shared" si="3"/>
         <v>2242.9140191307069</v>
       </c>
     </row>
@@ -18281,7 +18959,7 @@
         <v>75.794222519999906</v>
       </c>
       <c r="H257">
-        <f>(B257+C257)/G257</f>
+        <f t="shared" si="3"/>
         <v>2243.8253780507307</v>
       </c>
     </row>
@@ -18308,7 +18986,7 @@
         <v>75.612147140000005</v>
       </c>
       <c r="H258">
-        <f>(B258+C258)/G258</f>
+        <f t="shared" ref="H258:H321" si="4">(B258+C258)/G258</f>
         <v>2249.2285490201461</v>
       </c>
     </row>
@@ -18335,7 +19013,7 @@
         <v>75.941193620000007</v>
       </c>
       <c r="H259">
-        <f>(B259+C259)/G259</f>
+        <f t="shared" si="4"/>
         <v>2239.4038320094551</v>
       </c>
     </row>
@@ -18362,7 +19040,7 @@
         <v>75.510908939999993</v>
       </c>
       <c r="H260">
-        <f>(B260+C260)/G260</f>
+        <f t="shared" si="4"/>
         <v>2252.1646525951619</v>
       </c>
     </row>
@@ -18389,7 +19067,7 @@
         <v>75.909038379999998</v>
       </c>
       <c r="H261">
-        <f>(B261+C261)/G261</f>
+        <f t="shared" si="4"/>
         <v>2240.4314904983521</v>
       </c>
     </row>
@@ -18416,7 +19094,7 @@
         <v>75.716896939999998</v>
       </c>
       <c r="H262">
-        <f>(B262+C262)/G262</f>
+        <f t="shared" si="4"/>
         <v>2246.1168757981063</v>
       </c>
     </row>
@@ -18443,7 +19121,7 @@
         <v>81.736771840000003</v>
       </c>
       <c r="H263">
-        <f>(B263+C263)/G263</f>
+        <f t="shared" si="4"/>
         <v>2080.6914216395849</v>
       </c>
     </row>
@@ -18470,7 +19148,7 @@
         <v>88.995201819999906</v>
       </c>
       <c r="H264">
-        <f>(B264+C264)/G264</f>
+        <f t="shared" si="4"/>
         <v>1910.9906660358893</v>
       </c>
     </row>
@@ -18497,7 +19175,7 @@
         <v>84.725304420000001</v>
       </c>
       <c r="H265">
-        <f>(B265+C265)/G265</f>
+        <f t="shared" si="4"/>
         <v>2007.2987776701812</v>
       </c>
     </row>
@@ -18524,7 +19202,7 @@
         <v>81.383480459999902</v>
       </c>
       <c r="H266">
-        <f>(B266+C266)/G266</f>
+        <f t="shared" si="4"/>
         <v>2089.7238486081847</v>
       </c>
     </row>
@@ -18551,7 +19229,7 @@
         <v>79.027361919999905</v>
       </c>
       <c r="H267">
-        <f>(B267+C267)/G267</f>
+        <f t="shared" si="4"/>
         <v>2152.0267900649696</v>
       </c>
     </row>
@@ -18578,7 +19256,7 @@
         <v>77.924535659999904</v>
       </c>
       <c r="H268">
-        <f>(B268+C268)/G268</f>
+        <f t="shared" si="4"/>
         <v>2182.4833290254633</v>
       </c>
     </row>
@@ -18605,7 +19283,7 @@
         <v>77.498571699999999</v>
       </c>
       <c r="H269">
-        <f>(B269+C269)/G269</f>
+        <f t="shared" si="4"/>
         <v>2194.4791532203167</v>
       </c>
     </row>
@@ -18632,7 +19310,7 @@
         <v>78.003297399999994</v>
       </c>
       <c r="H270">
-        <f>(B270+C270)/G270</f>
+        <f t="shared" si="4"/>
         <v>2180.2796249482653</v>
       </c>
     </row>
@@ -18659,7 +19337,7 @@
         <v>78.493033400000002</v>
       </c>
       <c r="H271">
-        <f>(B271+C271)/G271</f>
+        <f t="shared" si="4"/>
         <v>2166.676361369925</v>
       </c>
     </row>
@@ -18686,7 +19364,7 @@
         <v>78.002432019999901</v>
       </c>
       <c r="H272">
-        <f>(B272+C272)/G272</f>
+        <f t="shared" si="4"/>
         <v>2179.3166648498072</v>
       </c>
     </row>
@@ -18713,7 +19391,7 @@
         <v>78.191046760000006</v>
       </c>
       <c r="H273">
-        <f>(B273+C273)/G273</f>
+        <f t="shared" si="4"/>
         <v>2175.044420648449</v>
       </c>
     </row>
@@ -18738,7 +19416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D2DD8-2C20-3749-8214-0315492B8D93}">
   <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+    <sheetView zoomScale="182" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -18800,7 +19478,7 @@
         <v>17.816616</v>
       </c>
       <c r="H2">
-        <f>(B2+C2)/G2</f>
+        <f t="shared" ref="H2:H65" si="0">(B2+C2)/G2</f>
         <v>3851.0118868813247</v>
       </c>
       <c r="I2">
@@ -18831,11 +19509,11 @@
         <v>83.730568860000005</v>
       </c>
       <c r="H3">
-        <f>(B3+C3)/G3</f>
+        <f t="shared" si="0"/>
         <v>1172.6183320713676</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">F3/(B3+C3)</f>
+        <f t="shared" ref="I3:I66" si="1">F3/(B3+C3)</f>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -18862,11 +19540,11 @@
         <v>86.863311199999998</v>
       </c>
       <c r="H4">
-        <f>(B4+C4)/G4</f>
+        <f t="shared" si="0"/>
         <v>1130.3276221411186</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -18893,11 +19571,11 @@
         <v>89.612829079999997</v>
       </c>
       <c r="H5">
-        <f>(B5+C5)/G5</f>
+        <f t="shared" si="0"/>
         <v>1095.6466948761126</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -18924,11 +19602,11 @@
         <v>87.64024388</v>
       </c>
       <c r="H6">
-        <f>(B6+C6)/G6</f>
+        <f t="shared" si="0"/>
         <v>1120.3072430336556</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -18955,11 +19633,11 @@
         <v>94.629645659999994</v>
       </c>
       <c r="H7">
-        <f>(B7+C7)/G7</f>
+        <f t="shared" si="0"/>
         <v>1037.3599025479011</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44328426628635459</v>
       </c>
     </row>
@@ -18986,11 +19664,11 @@
         <v>110.424718959999</v>
       </c>
       <c r="H8">
-        <f>(B8+C8)/G8</f>
+        <f t="shared" si="0"/>
         <v>889.14874246197394</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19017,11 +19695,11 @@
         <v>134.35587808</v>
       </c>
       <c r="H9">
-        <f>(B9+C9)/G9</f>
+        <f t="shared" si="0"/>
         <v>730.73840462373312</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44294604752543826</v>
       </c>
     </row>
@@ -19048,11 +19726,11 @@
         <v>129.51471143999899</v>
       </c>
       <c r="H10">
-        <f>(B10+C10)/G10</f>
+        <f t="shared" si="0"/>
         <v>757.58189096113358</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.444077539289427</v>
       </c>
     </row>
@@ -19079,11 +19757,11 @@
         <v>83.432951279999997</v>
       </c>
       <c r="H11">
-        <f>(B11+C11)/G11</f>
+        <f t="shared" si="0"/>
         <v>1176.8012337295329</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19110,11 +19788,11 @@
         <v>92.334216579999904</v>
       </c>
       <c r="H12">
-        <f>(B12+C12)/G12</f>
+        <f t="shared" si="0"/>
         <v>1063.3544490512004</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19141,11 +19819,11 @@
         <v>84.0748780199999</v>
       </c>
       <c r="H13">
-        <f>(B13+C13)/G13</f>
+        <f t="shared" si="0"/>
         <v>1167.8161457057813</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19172,11 +19850,11 @@
         <v>83.551642799999996</v>
       </c>
       <c r="H14">
-        <f>(B14+C14)/G14</f>
+        <f t="shared" si="0"/>
         <v>1175.1294972742296</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19203,11 +19881,11 @@
         <v>84.430832359999997</v>
       </c>
       <c r="H15">
-        <f>(B15+C15)/G15</f>
+        <f t="shared" si="0"/>
         <v>1162.6676802313123</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44324351856568023</v>
       </c>
     </row>
@@ -19234,11 +19912,11 @@
         <v>82.669069219999997</v>
       </c>
       <c r="H16">
-        <f>(B16+C16)/G16</f>
+        <f t="shared" si="0"/>
         <v>1187.6146777306126</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44294604752543826</v>
       </c>
     </row>
@@ -19265,11 +19943,11 @@
         <v>83.009996540000003</v>
       </c>
       <c r="H17">
-        <f>(B17+C17)/G17</f>
+        <f t="shared" si="0"/>
         <v>1182.7973026440027</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19296,11 +19974,11 @@
         <v>83.957153180000006</v>
       </c>
       <c r="H18">
-        <f>(B18+C18)/G18</f>
+        <f t="shared" si="0"/>
         <v>1169.4536591718199</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19327,11 +20005,11 @@
         <v>82.778423140000001</v>
       </c>
       <c r="H19">
-        <f>(B19+C19)/G19</f>
+        <f t="shared" si="0"/>
         <v>1186.1061889756602</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19358,11 +20036,11 @@
         <v>82.983070280000007</v>
       </c>
       <c r="H20">
-        <f>(B20+C20)/G20</f>
+        <f t="shared" si="0"/>
         <v>1183.1810954777798</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19389,11 +20067,11 @@
         <v>82.943415259999995</v>
       </c>
       <c r="H21">
-        <f>(B21+C21)/G21</f>
+        <f t="shared" si="0"/>
         <v>1183.7467711237334</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19420,11 +20098,11 @@
         <v>84.067681359999995</v>
       </c>
       <c r="H22">
-        <f>(B22+C22)/G22</f>
+        <f t="shared" si="0"/>
         <v>1167.820955827061</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44316329856584091</v>
       </c>
     </row>
@@ -19451,11 +20129,11 @@
         <v>83.200387879999994</v>
       </c>
       <c r="H23">
-        <f>(B23+C23)/G23</f>
+        <f t="shared" si="0"/>
         <v>1180.0305563671611</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44294604752543826</v>
       </c>
     </row>
@@ -19482,11 +20160,11 @@
         <v>83.488406179999998</v>
       </c>
       <c r="H24">
-        <f>(B24+C24)/G24</f>
+        <f t="shared" si="0"/>
         <v>1176.019575560186</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19513,11 +20191,11 @@
         <v>84.267134060000004</v>
       </c>
       <c r="H25">
-        <f>(B25+C25)/G25</f>
+        <f t="shared" si="0"/>
         <v>1165.1517652195325</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19544,11 +20222,11 @@
         <v>83.042209060000005</v>
       </c>
       <c r="H26">
-        <f>(B26+C26)/G26</f>
+        <f t="shared" si="0"/>
         <v>1182.3384892020356</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19575,11 +20253,11 @@
         <v>83.812933360000002</v>
       </c>
       <c r="H27">
-        <f>(B27+C27)/G27</f>
+        <f t="shared" si="0"/>
         <v>1171.4659786249485</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19606,11 +20284,11 @@
         <v>83.793362759999994</v>
       </c>
       <c r="H28">
-        <f>(B28+C28)/G28</f>
+        <f t="shared" si="0"/>
         <v>1171.7395837331114</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19637,11 +20315,11 @@
         <v>84.042496819999897</v>
       </c>
       <c r="H29">
-        <f>(B29+C29)/G29</f>
+        <f t="shared" si="0"/>
         <v>1168.2661000694447</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44297441538336185</v>
       </c>
     </row>
@@ -19668,11 +20346,11 @@
         <v>83.763237820000001</v>
       </c>
       <c r="H30">
-        <f>(B30+C30)/G30</f>
+        <f t="shared" si="0"/>
         <v>1172.065485469554</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44312255541069101</v>
       </c>
     </row>
@@ -19699,11 +20377,11 @@
         <v>83.567573159999995</v>
       </c>
       <c r="H31">
-        <f>(B31+C31)/G31</f>
+        <f t="shared" si="0"/>
         <v>1174.9054841166098</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19730,11 +20408,11 @@
         <v>83.740742819999994</v>
       </c>
       <c r="H32">
-        <f>(B32+C32)/G32</f>
+        <f t="shared" si="0"/>
         <v>1172.4758665091574</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19761,11 +20439,11 @@
         <v>84.019324900000001</v>
       </c>
       <c r="H33">
-        <f>(B33+C33)/G33</f>
+        <f t="shared" si="0"/>
         <v>1168.5882993806345</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44295404546565631</v>
       </c>
     </row>
@@ -19792,11 +20470,11 @@
         <v>99.524980740000004</v>
       </c>
       <c r="H34">
-        <f>(B34+C34)/G34</f>
+        <f t="shared" si="0"/>
         <v>4486.0295041540139</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19823,11 +20501,11 @@
         <v>221.95067907999999</v>
       </c>
       <c r="H35">
-        <f>(B35+C35)/G35</f>
+        <f t="shared" si="0"/>
         <v>2144.8053323072536</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -19854,11 +20532,11 @@
         <v>226.95170651999999</v>
       </c>
       <c r="H36">
-        <f>(B36+C36)/G36</f>
+        <f t="shared" si="0"/>
         <v>2097.5431614921526</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -19885,11 +20563,11 @@
         <v>224.16882584000001</v>
       </c>
       <c r="H37">
-        <f>(B37+C37)/G37</f>
+        <f t="shared" si="0"/>
         <v>2123.582519630866</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -19916,11 +20594,11 @@
         <v>222.51006262000001</v>
       </c>
       <c r="H38">
-        <f>(B38+C38)/G38</f>
+        <f t="shared" si="0"/>
         <v>2139.4133568376055</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -19947,11 +20625,11 @@
         <v>224.13667197999999</v>
       </c>
       <c r="H39">
-        <f>(B39+C39)/G39</f>
+        <f t="shared" si="0"/>
         <v>2123.8871613230599</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -19978,11 +20656,11 @@
         <v>223.83604728</v>
       </c>
       <c r="H40">
-        <f>(B40+C40)/G40</f>
+        <f t="shared" si="0"/>
         <v>2126.7396640743609</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20009,11 +20687,11 @@
         <v>224.6941544</v>
       </c>
       <c r="H41">
-        <f>(B41+C41)/G41</f>
+        <f t="shared" si="0"/>
         <v>2118.6176439310161</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20040,11 +20718,11 @@
         <v>220.99673923999899</v>
       </c>
       <c r="H42">
-        <f>(B42+C42)/G42</f>
+        <f t="shared" si="0"/>
         <v>2154.0634564885004</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20071,11 +20749,11 @@
         <v>221.323274</v>
       </c>
       <c r="H43">
-        <f>(B43+C43)/G43</f>
+        <f t="shared" si="0"/>
         <v>2150.8854057526728</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20102,11 +20780,11 @@
         <v>218.21237443999999</v>
       </c>
       <c r="H44">
-        <f>(B44+C44)/G44</f>
+        <f t="shared" si="0"/>
         <v>2181.5490584421141</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20133,11 +20811,11 @@
         <v>221.43883640000001</v>
       </c>
       <c r="H45">
-        <f>(B45+C45)/G45</f>
+        <f t="shared" si="0"/>
         <v>2149.7629220743138</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20164,11 +20842,11 @@
         <v>216.67962333999901</v>
       </c>
       <c r="H46">
-        <f>(B46+C46)/G46</f>
+        <f t="shared" si="0"/>
         <v>2196.9809281652142</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20195,11 +20873,11 @@
         <v>218.33899825999899</v>
       </c>
       <c r="H47">
-        <f>(B47+C47)/G47</f>
+        <f t="shared" si="0"/>
         <v>2180.283887870221</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20226,11 +20904,11 @@
         <v>224.09213055999999</v>
       </c>
       <c r="H48">
-        <f>(B48+C48)/G48</f>
+        <f t="shared" si="0"/>
         <v>2124.3093133631546</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20257,11 +20935,11 @@
         <v>219.77292421999999</v>
       </c>
       <c r="H49">
-        <f>(B49+C49)/G49</f>
+        <f t="shared" si="0"/>
         <v>2166.0584518749324</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20288,11 +20966,11 @@
         <v>220.2326759</v>
       </c>
       <c r="H50">
-        <f>(B50+C50)/G50</f>
+        <f t="shared" si="0"/>
         <v>2161.5366477958687</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20319,11 +20997,11 @@
         <v>221.86680712</v>
       </c>
       <c r="H51">
-        <f>(B51+C51)/G51</f>
+        <f t="shared" si="0"/>
         <v>2145.6161296922892</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20350,11 +21028,11 @@
         <v>219.78270784</v>
       </c>
       <c r="H52">
-        <f>(B52+C52)/G52</f>
+        <f t="shared" si="0"/>
         <v>2165.9620298542955</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20381,11 +21059,11 @@
         <v>222.06373665999999</v>
       </c>
       <c r="H53">
-        <f>(B53+C53)/G53</f>
+        <f t="shared" si="0"/>
         <v>2143.7133642800154</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20412,11 +21090,11 @@
         <v>217.48925987999999</v>
       </c>
       <c r="H54">
-        <f>(B54+C54)/G54</f>
+        <f t="shared" si="0"/>
         <v>2188.8023356309932</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20443,11 +21121,11 @@
         <v>218.08895821999999</v>
       </c>
       <c r="H55">
-        <f>(B55+C55)/G55</f>
+        <f t="shared" si="0"/>
         <v>2182.7835938387475</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20474,11 +21152,11 @@
         <v>216.31635999999901</v>
       </c>
       <c r="H56">
-        <f>(B56+C56)/G56</f>
+        <f t="shared" si="0"/>
         <v>2200.67035151665</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20505,11 +21183,11 @@
         <v>217.22138819999901</v>
       </c>
       <c r="H57">
-        <f>(B57+C57)/G57</f>
+        <f t="shared" si="0"/>
         <v>2191.5015088739874</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20536,11 +21214,11 @@
         <v>217.56832993999899</v>
       </c>
       <c r="H58">
-        <f>(B58+C58)/G58</f>
+        <f t="shared" si="0"/>
         <v>2188.006867227793</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20567,11 +21245,11 @@
         <v>217.84107965999999</v>
       </c>
       <c r="H59">
-        <f>(B59+C59)/G59</f>
+        <f t="shared" si="0"/>
         <v>2185.2673551884286</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20598,11 +21276,11 @@
         <v>219.02565379999999</v>
       </c>
       <c r="H60">
-        <f>(B60+C60)/G60</f>
+        <f t="shared" si="0"/>
         <v>2173.448597188938</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20629,11 +21307,11 @@
         <v>219.68646705999899</v>
       </c>
       <c r="H61">
-        <f>(B61+C61)/G61</f>
+        <f t="shared" si="0"/>
         <v>2166.9108997505409</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20660,11 +21338,11 @@
         <v>241.94400447999999</v>
       </c>
       <c r="H62">
-        <f>(B62+C62)/G62</f>
+        <f t="shared" si="0"/>
         <v>1967.5668385465256</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20691,11 +21369,11 @@
         <v>324.52478406</v>
       </c>
       <c r="H63">
-        <f>(B63+C63)/G63</f>
+        <f t="shared" si="0"/>
         <v>1466.8864240334472</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20722,11 +21400,11 @@
         <v>249.39066969999999</v>
       </c>
       <c r="H64">
-        <f>(B64+C64)/G64</f>
+        <f t="shared" si="0"/>
         <v>1908.8163986753993</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20753,11 +21431,11 @@
         <v>248.59816074</v>
       </c>
       <c r="H65">
-        <f>(B65+C65)/G65</f>
+        <f t="shared" si="0"/>
         <v>1914.9015366122294</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20784,11 +21462,11 @@
         <v>249.33367459999999</v>
       </c>
       <c r="H66">
-        <f>(B66+C66)/G66</f>
+        <f t="shared" ref="H66:H129" si="2">(B66+C66)/G66</f>
         <v>1909.2527343677148</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20815,11 +21493,11 @@
         <v>245.920821979999</v>
       </c>
       <c r="H67">
-        <f>(B67+C67)/G67</f>
+        <f t="shared" si="2"/>
         <v>1935.7490600723386</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="1">F67/(B67+C67)</f>
+        <f t="shared" ref="I67:I130" si="3">F67/(B67+C67)</f>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20846,11 +21524,11 @@
         <v>247.84355217999999</v>
       </c>
       <c r="H68">
-        <f>(B68+C68)/G68</f>
+        <f t="shared" si="2"/>
         <v>1920.7318318867069</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20877,11 +21555,11 @@
         <v>248.80240812</v>
       </c>
       <c r="H69">
-        <f>(B69+C69)/G69</f>
+        <f t="shared" si="2"/>
         <v>1913.32955173971</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20908,11 +21586,11 @@
         <v>256.97784744000001</v>
       </c>
       <c r="H70">
-        <f>(B70+C70)/G70</f>
+        <f t="shared" si="2"/>
         <v>1852.4592868307357</v>
       </c>
       <c r="I70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20939,11 +21617,11 @@
         <v>250.44837856000001</v>
       </c>
       <c r="H71">
-        <f>(B71+C71)/G71</f>
+        <f t="shared" si="2"/>
         <v>1900.7549688965332</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -20970,11 +21648,11 @@
         <v>251.46776871999899</v>
       </c>
       <c r="H72">
-        <f>(B72+C72)/G72</f>
+        <f t="shared" si="2"/>
         <v>1893.049763089344</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21001,11 +21679,11 @@
         <v>248.09800632</v>
       </c>
       <c r="H73">
-        <f>(B73+C73)/G73</f>
+        <f t="shared" si="2"/>
         <v>1918.7618919677905</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21032,11 +21710,11 @@
         <v>257.13894071999999</v>
       </c>
       <c r="H74">
-        <f>(B74+C74)/G74</f>
+        <f t="shared" si="2"/>
         <v>1851.2987518229052</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21063,11 +21741,11 @@
         <v>250.78765358000001</v>
       </c>
       <c r="H75">
-        <f>(B75+C75)/G75</f>
+        <f t="shared" si="2"/>
         <v>1898.1835557073996</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21094,11 +21772,11 @@
         <v>248.27593234</v>
       </c>
       <c r="H76">
-        <f>(B76+C76)/G76</f>
+        <f t="shared" si="2"/>
         <v>1917.3868184214025</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21125,11 +21803,11 @@
         <v>252.24882683999999</v>
       </c>
       <c r="H77">
-        <f>(B77+C77)/G77</f>
+        <f t="shared" si="2"/>
         <v>1887.1881624327636</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21156,11 +21834,11 @@
         <v>255.17975092</v>
       </c>
       <c r="H78">
-        <f>(B78+C78)/G78</f>
+        <f t="shared" si="2"/>
         <v>1865.5124408724773</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21187,11 +21865,11 @@
         <v>252.007267479999</v>
       </c>
       <c r="H79">
-        <f>(B79+C79)/G79</f>
+        <f t="shared" si="2"/>
         <v>1888.9971101241429</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21218,11 +21896,11 @@
         <v>247.96721108</v>
       </c>
       <c r="H80">
-        <f>(B80+C80)/G80</f>
+        <f t="shared" si="2"/>
         <v>1919.7739811108256</v>
       </c>
       <c r="I80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21249,11 +21927,11 @@
         <v>249.28651134</v>
       </c>
       <c r="H81">
-        <f>(B81+C81)/G81</f>
+        <f t="shared" si="2"/>
         <v>1909.6139515977711</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21280,11 +21958,11 @@
         <v>249.512755</v>
       </c>
       <c r="H82">
-        <f>(B82+C82)/G82</f>
+        <f t="shared" si="2"/>
         <v>1907.8824246880686</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21311,11 +21989,11 @@
         <v>246.12099075999899</v>
       </c>
       <c r="H83">
-        <f>(B83+C83)/G83</f>
+        <f t="shared" si="2"/>
         <v>1934.174726544165</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21342,11 +22020,11 @@
         <v>251.10318521999901</v>
       </c>
       <c r="H84">
-        <f>(B84+C84)/G84</f>
+        <f t="shared" si="2"/>
         <v>1895.7983331948826</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21373,11 +22051,11 @@
         <v>325.44044616000002</v>
       </c>
       <c r="H85">
-        <f>(B85+C85)/G85</f>
+        <f t="shared" si="2"/>
         <v>1462.7591794965722</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21404,11 +22082,11 @@
         <v>246.37308302</v>
       </c>
       <c r="H86">
-        <f>(B86+C86)/G86</f>
+        <f t="shared" si="2"/>
         <v>1932.1956528885751</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21435,11 +22113,11 @@
         <v>245.16929324</v>
       </c>
       <c r="H87">
-        <f>(B87+C87)/G87</f>
+        <f t="shared" si="2"/>
         <v>1941.6828009288918</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21466,11 +22144,11 @@
         <v>247.97934771999999</v>
       </c>
       <c r="H88">
-        <f>(B88+C88)/G88</f>
+        <f t="shared" si="2"/>
         <v>1919.6800232635114</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21497,11 +22175,11 @@
         <v>244.82146738</v>
       </c>
       <c r="H89">
-        <f>(B89+C89)/G89</f>
+        <f t="shared" si="2"/>
         <v>1944.4414131425503</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21528,11 +22206,11 @@
         <v>247.54331024000001</v>
       </c>
       <c r="H90">
-        <f>(B90+C90)/G90</f>
+        <f t="shared" si="2"/>
         <v>1923.0614616022756</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21559,11 +22237,11 @@
         <v>245.82518274</v>
       </c>
       <c r="H91">
-        <f>(B91+C91)/G91</f>
+        <f t="shared" si="2"/>
         <v>1936.5021707458286</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21590,11 +22268,11 @@
         <v>216.34294506000001</v>
       </c>
       <c r="H92">
-        <f>(B92+C92)/G92</f>
+        <f t="shared" si="2"/>
         <v>2200.3999246103263</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21621,11 +22299,11 @@
         <v>224.90919667999901</v>
       </c>
       <c r="H93">
-        <f>(B93+C93)/G93</f>
+        <f t="shared" si="2"/>
         <v>2116.5919714582037</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21652,11 +22330,11 @@
         <v>222.75576403999901</v>
       </c>
       <c r="H94">
-        <f>(B94+C94)/G94</f>
+        <f t="shared" si="2"/>
         <v>2137.0535664994959</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21683,11 +22361,11 @@
         <v>260.67564781999999</v>
       </c>
       <c r="H95">
-        <f>(B95+C95)/G95</f>
+        <f t="shared" si="2"/>
         <v>1826.1813252640793</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21714,11 +22392,11 @@
         <v>245.58991435999999</v>
       </c>
       <c r="H96">
-        <f>(B96+C96)/G96</f>
+        <f t="shared" si="2"/>
         <v>1938.3572865382062</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21745,11 +22423,11 @@
         <v>236.23089307999999</v>
       </c>
       <c r="H97">
-        <f>(B97+C97)/G97</f>
+        <f t="shared" si="2"/>
         <v>2015.1513368693395</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21776,11 +22454,11 @@
         <v>236.64117288</v>
       </c>
       <c r="H98">
-        <f>(B98+C98)/G98</f>
+        <f t="shared" si="2"/>
         <v>2011.6575412740999</v>
       </c>
       <c r="I98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21807,11 +22485,11 @@
         <v>235.33208718</v>
       </c>
       <c r="H99">
-        <f>(B99+C99)/G99</f>
+        <f t="shared" si="2"/>
         <v>2022.8478220051963</v>
       </c>
       <c r="I99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21838,11 +22516,11 @@
         <v>235.44282165999999</v>
       </c>
       <c r="H100">
-        <f>(B100+C100)/G100</f>
+        <f t="shared" si="2"/>
         <v>2021.8964275217734</v>
       </c>
       <c r="I100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21869,11 +22547,11 @@
         <v>236.53767246000001</v>
       </c>
       <c r="H101">
-        <f>(B101+C101)/G101</f>
+        <f t="shared" si="2"/>
         <v>2012.5377706187646</v>
       </c>
       <c r="I101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21900,11 +22578,11 @@
         <v>236.76311799999999</v>
       </c>
       <c r="H102">
-        <f>(B102+C102)/G102</f>
+        <f t="shared" si="2"/>
         <v>2010.6214347118034</v>
       </c>
       <c r="I102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21931,11 +22609,11 @@
         <v>233.79563474</v>
       </c>
       <c r="H103">
-        <f>(B103+C103)/G103</f>
+        <f t="shared" si="2"/>
         <v>2036.1415238971283</v>
       </c>
       <c r="I103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21962,11 +22640,11 @@
         <v>240.9195541</v>
       </c>
       <c r="H104">
-        <f>(B104+C104)/G104</f>
+        <f t="shared" si="2"/>
         <v>1975.9334263187563</v>
       </c>
       <c r="I104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -21993,11 +22671,11 @@
         <v>233.85754757999999</v>
       </c>
       <c r="H105">
-        <f>(B105+C105)/G105</f>
+        <f t="shared" si="2"/>
         <v>2035.6024636628495</v>
       </c>
       <c r="I105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22024,11 +22702,11 @@
         <v>235.21267291999999</v>
       </c>
       <c r="H106">
-        <f>(B106+C106)/G106</f>
+        <f t="shared" si="2"/>
         <v>2023.8747942034145</v>
       </c>
       <c r="I106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22055,11 +22733,11 @@
         <v>232.610186139999</v>
       </c>
       <c r="H107">
-        <f>(B107+C107)/G107</f>
+        <f t="shared" si="2"/>
         <v>2046.5182883843679</v>
       </c>
       <c r="I107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22086,11 +22764,11 @@
         <v>237.02099808</v>
       </c>
       <c r="H108">
-        <f>(B108+C108)/G108</f>
+        <f t="shared" si="2"/>
         <v>2008.4338681222046</v>
       </c>
       <c r="I108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22117,11 +22795,11 @@
         <v>240.51309541999899</v>
       </c>
       <c r="H109">
-        <f>(B109+C109)/G109</f>
+        <f t="shared" si="2"/>
         <v>1979.2726843779856</v>
       </c>
       <c r="I109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22148,11 +22826,11 @@
         <v>237.37817622</v>
       </c>
       <c r="H110">
-        <f>(B110+C110)/G110</f>
+        <f t="shared" si="2"/>
         <v>2005.4118183080545</v>
       </c>
       <c r="I110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22179,11 +22857,11 @@
         <v>234.01080836</v>
       </c>
       <c r="H111">
-        <f>(B111+C111)/G111</f>
+        <f t="shared" si="2"/>
         <v>2034.2692858342809</v>
       </c>
       <c r="I111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22210,11 +22888,11 @@
         <v>296.30729086000002</v>
       </c>
       <c r="H112">
-        <f>(B112+C112)/G112</f>
+        <f t="shared" si="2"/>
         <v>1606.5787602402297</v>
       </c>
       <c r="I112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22241,11 +22919,11 @@
         <v>242.20130871999999</v>
       </c>
       <c r="H113">
-        <f>(B113+C113)/G113</f>
+        <f t="shared" si="2"/>
         <v>1965.476580270396</v>
       </c>
       <c r="I113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22272,11 +22950,11 @@
         <v>222.72353913999899</v>
       </c>
       <c r="H114">
-        <f>(B114+C114)/G114</f>
+        <f t="shared" si="2"/>
         <v>2137.3627674835543</v>
       </c>
       <c r="I114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22303,11 +22981,11 @@
         <v>219.05858445999999</v>
       </c>
       <c r="H115">
-        <f>(B115+C115)/G115</f>
+        <f t="shared" si="2"/>
         <v>2173.1218667987187</v>
       </c>
       <c r="I115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22334,11 +23012,11 @@
         <v>218.20080426000001</v>
       </c>
       <c r="H116">
-        <f>(B116+C116)/G116</f>
+        <f t="shared" si="2"/>
         <v>2181.6647359043054</v>
       </c>
       <c r="I116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22365,11 +23043,11 @@
         <v>255.45916004</v>
       </c>
       <c r="H117">
-        <f>(B117+C117)/G117</f>
+        <f t="shared" si="2"/>
         <v>1863.4720317935012</v>
       </c>
       <c r="I117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22396,11 +23074,11 @@
         <v>230.00422965999999</v>
       </c>
       <c r="H118">
-        <f>(B118+C118)/G118</f>
+        <f t="shared" si="2"/>
         <v>2069.7054167382048</v>
       </c>
       <c r="I118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22427,11 +23105,11 @@
         <v>224.18096599999899</v>
       </c>
       <c r="H119">
-        <f>(B119+C119)/G119</f>
+        <f t="shared" si="2"/>
         <v>2123.467520431695</v>
       </c>
       <c r="I119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22458,11 +23136,11 @@
         <v>218.31401387999901</v>
       </c>
       <c r="H120">
-        <f>(B120+C120)/G120</f>
+        <f t="shared" si="2"/>
         <v>2180.5334047940055</v>
       </c>
       <c r="I120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22489,11 +23167,11 @@
         <v>219.37609918000001</v>
       </c>
       <c r="H121">
-        <f>(B121+C121)/G121</f>
+        <f t="shared" si="2"/>
         <v>2169.976591704296</v>
       </c>
       <c r="I121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22520,11 +23198,11 @@
         <v>226.25663234000001</v>
       </c>
       <c r="H122">
-        <f>(B122+C122)/G122</f>
+        <f t="shared" si="2"/>
         <v>2103.9869420695895</v>
       </c>
       <c r="I122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22551,11 +23229,11 @@
         <v>220.77950351999999</v>
       </c>
       <c r="H123">
-        <f>(B123+C123)/G123</f>
+        <f t="shared" si="2"/>
         <v>2156.1829445679332</v>
       </c>
       <c r="I123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22582,11 +23260,11 @@
         <v>219.20817855999999</v>
       </c>
       <c r="H124">
-        <f>(B124+C124)/G124</f>
+        <f t="shared" si="2"/>
         <v>2171.6388646042315</v>
       </c>
       <c r="I124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22613,11 +23291,11 @@
         <v>221.22729365999999</v>
       </c>
       <c r="H125">
-        <f>(B125+C125)/G125</f>
+        <f t="shared" si="2"/>
         <v>2151.818575928603</v>
       </c>
       <c r="I125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22644,11 +23322,11 @@
         <v>230.03442477999999</v>
       </c>
       <c r="H126">
-        <f>(B126+C126)/G126</f>
+        <f t="shared" si="2"/>
         <v>2069.4337399946789</v>
       </c>
       <c r="I126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22675,11 +23353,11 @@
         <v>230.98149346</v>
       </c>
       <c r="H127">
-        <f>(B127+C127)/G127</f>
+        <f t="shared" si="2"/>
         <v>2060.9486624625965</v>
       </c>
       <c r="I127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22706,11 +23384,11 @@
         <v>228.45424980000001</v>
       </c>
       <c r="H128">
-        <f>(B128+C128)/G128</f>
+        <f t="shared" si="2"/>
         <v>2083.7476230656662</v>
       </c>
       <c r="I128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22737,11 +23415,11 @@
         <v>230.56519014</v>
       </c>
       <c r="H129">
-        <f>(B129+C129)/G129</f>
+        <f t="shared" si="2"/>
         <v>2064.6698649997697</v>
       </c>
       <c r="I129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22768,11 +23446,11 @@
         <v>233.34102200000001</v>
       </c>
       <c r="H130">
-        <f>(B130+C130)/G130</f>
+        <f t="shared" ref="H130:H193" si="4">(B130+C130)/G130</f>
         <v>2040.1084897965347</v>
       </c>
       <c r="I130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22799,11 +23477,11 @@
         <v>230.51625795999999</v>
       </c>
       <c r="H131">
-        <f>(B131+C131)/G131</f>
+        <f t="shared" si="4"/>
         <v>2065.1081368959422</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="2">F131/(B131+C131)</f>
+        <f t="shared" ref="I131:I194" si="5">F131/(B131+C131)</f>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22830,11 +23508,11 @@
         <v>237.59812769999999</v>
       </c>
       <c r="H132">
-        <f>(B132+C132)/G132</f>
+        <f t="shared" si="4"/>
         <v>2003.5553504069132</v>
       </c>
       <c r="I132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22861,11 +23539,11 @@
         <v>237.97005414</v>
       </c>
       <c r="H133">
-        <f>(B133+C133)/G133</f>
+        <f t="shared" si="4"/>
         <v>2000.4239681348336</v>
       </c>
       <c r="I133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22892,11 +23570,11 @@
         <v>233.02611089999999</v>
       </c>
       <c r="H134">
-        <f>(B134+C134)/G134</f>
+        <f t="shared" si="4"/>
         <v>2042.8654890279079</v>
       </c>
       <c r="I134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22923,11 +23601,11 @@
         <v>275.33194319999899</v>
       </c>
       <c r="H135">
-        <f>(B135+C135)/G135</f>
+        <f t="shared" si="4"/>
         <v>1728.9711991543513</v>
       </c>
       <c r="I135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22954,11 +23632,11 @@
         <v>298.96354609999997</v>
       </c>
       <c r="H136">
-        <f>(B136+C136)/G136</f>
+        <f t="shared" si="4"/>
         <v>1592.304500699124</v>
       </c>
       <c r="I136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -22985,11 +23663,11 @@
         <v>298.79459200000002</v>
       </c>
       <c r="H137">
-        <f>(B137+C137)/G137</f>
+        <f t="shared" si="4"/>
         <v>1593.2048729985045</v>
       </c>
       <c r="I137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23016,11 +23694,11 @@
         <v>249.13891232</v>
       </c>
       <c r="H138">
-        <f>(B138+C138)/G138</f>
+        <f t="shared" si="4"/>
         <v>1910.7452768701241</v>
       </c>
       <c r="I138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23047,11 +23725,11 @@
         <v>249.79397198000001</v>
       </c>
       <c r="H139">
-        <f>(B139+C139)/G139</f>
+        <f t="shared" si="4"/>
         <v>1905.7345388547433</v>
       </c>
       <c r="I139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23078,11 +23756,11 @@
         <v>250.14360058</v>
       </c>
       <c r="H140">
-        <f>(B140+C140)/G140</f>
+        <f t="shared" si="4"/>
         <v>1903.0708716761849</v>
       </c>
       <c r="I140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23109,11 +23787,11 @@
         <v>250.04895056000001</v>
       </c>
       <c r="H141">
-        <f>(B141+C141)/G141</f>
+        <f t="shared" si="4"/>
         <v>1903.7912334120056</v>
       </c>
       <c r="I141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23140,11 +23818,11 @@
         <v>271.87189117999998</v>
       </c>
       <c r="H142">
-        <f>(B142+C142)/G142</f>
+        <f t="shared" si="4"/>
         <v>1750.975424247976</v>
       </c>
       <c r="I142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23171,11 +23849,11 @@
         <v>259.55555104000001</v>
       </c>
       <c r="H143">
-        <f>(B143+C143)/G143</f>
+        <f t="shared" si="4"/>
         <v>1834.062103825464</v>
       </c>
       <c r="I143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23202,11 +23880,11 @@
         <v>245.48892752</v>
       </c>
       <c r="H144">
-        <f>(B144+C144)/G144</f>
+        <f t="shared" si="4"/>
         <v>1939.1546690480241</v>
       </c>
       <c r="I144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23233,11 +23911,11 @@
         <v>242.24762559999999</v>
       </c>
       <c r="H145">
-        <f>(B145+C145)/G145</f>
+        <f t="shared" si="4"/>
         <v>1965.1007881746602</v>
       </c>
       <c r="I145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23264,11 +23942,11 @@
         <v>231.7884536</v>
       </c>
       <c r="H146">
-        <f>(B146+C146)/G146</f>
+        <f t="shared" si="4"/>
         <v>2053.7735707124975</v>
       </c>
       <c r="I146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
@@ -23295,11 +23973,11 @@
         <v>17.479334659999999</v>
       </c>
       <c r="H147">
-        <f>(B147+C147)/G147</f>
+        <f t="shared" si="4"/>
         <v>3383.7672400283459</v>
       </c>
       <c r="I147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -23326,11 +24004,11 @@
         <v>87.451701400000005</v>
       </c>
       <c r="H148">
-        <f>(B148+C148)/G148</f>
+        <f t="shared" si="4"/>
         <v>1014.3427581158529</v>
       </c>
       <c r="I148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49003449597546955</v>
       </c>
     </row>
@@ -23357,11 +24035,11 @@
         <v>87.928061560000003</v>
       </c>
       <c r="H149">
-        <f>(B149+C149)/G149</f>
+        <f t="shared" si="4"/>
         <v>1008.9839173750119</v>
       </c>
       <c r="I149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23388,11 +24066,11 @@
         <v>87.726333600000004</v>
       </c>
       <c r="H150">
-        <f>(B150+C150)/G150</f>
+        <f t="shared" si="4"/>
         <v>1011.3040903375904</v>
       </c>
       <c r="I150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23419,11 +24097,11 @@
         <v>87.748394219999994</v>
       </c>
       <c r="H151">
-        <f>(B151+C151)/G151</f>
+        <f t="shared" si="4"/>
         <v>1011.0156520651143</v>
       </c>
       <c r="I151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49013131939356364</v>
       </c>
     </row>
@@ -23450,11 +24128,11 @@
         <v>88.255864579999994</v>
       </c>
       <c r="H152">
-        <f>(B152+C152)/G152</f>
+        <f t="shared" si="4"/>
         <v>1005.1796605491937</v>
       </c>
       <c r="I152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49011982460293307</v>
       </c>
     </row>
@@ -23481,11 +24159,11 @@
         <v>87.450202160000003</v>
       </c>
       <c r="H153">
-        <f>(B153+C153)/G153</f>
+        <f t="shared" si="4"/>
         <v>1014.4973688875003</v>
       </c>
       <c r="I153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23512,11 +24190,11 @@
         <v>87.084312780000005</v>
       </c>
       <c r="H154">
-        <f>(B154+C154)/G154</f>
+        <f t="shared" si="4"/>
         <v>1018.7598336353318</v>
       </c>
       <c r="I154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23543,11 +24221,11 @@
         <v>88.625789380000001</v>
       </c>
       <c r="H155">
-        <f>(B155+C155)/G155</f>
+        <f t="shared" si="4"/>
         <v>1000.995315478904</v>
       </c>
       <c r="I155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49013684424104426</v>
       </c>
     </row>
@@ -23574,11 +24252,11 @@
         <v>88.847338339999993</v>
       </c>
       <c r="H156">
-        <f>(B156+C156)/G156</f>
+        <f t="shared" si="4"/>
         <v>998.54426320004052</v>
       </c>
       <c r="I156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23605,11 +24283,11 @@
         <v>87.025222839999998</v>
       </c>
       <c r="H157">
-        <f>(B157+C157)/G157</f>
+        <f t="shared" si="4"/>
         <v>1019.4515693813535</v>
       </c>
       <c r="I157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23636,11 +24314,11 @@
         <v>87.296371899999997</v>
       </c>
       <c r="H158">
-        <f>(B158+C158)/G158</f>
+        <f t="shared" si="4"/>
         <v>1016.2850765622712</v>
       </c>
       <c r="I158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23667,11 +24345,11 @@
         <v>86.990835439999998</v>
       </c>
       <c r="H159">
-        <f>(B159+C159)/G159</f>
+        <f t="shared" si="4"/>
         <v>1019.8545576814385</v>
       </c>
       <c r="I159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23698,11 +24376,11 @@
         <v>87.616452659999993</v>
       </c>
       <c r="H160">
-        <f>(B160+C160)/G160</f>
+        <f t="shared" si="4"/>
         <v>1012.5609666516714</v>
       </c>
       <c r="I160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49016535725960075</v>
       </c>
     </row>
@@ -23729,11 +24407,11 @@
         <v>87.889664539999998</v>
       </c>
       <c r="H161">
-        <f>(B161+C161)/G161</f>
+        <f t="shared" si="4"/>
         <v>1009.4247197817328</v>
       </c>
       <c r="I161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23760,11 +24438,11 @@
         <v>86.640064519999996</v>
       </c>
       <c r="H162">
-        <f>(B162+C162)/G162</f>
+        <f t="shared" si="4"/>
         <v>1023.9719983070946</v>
       </c>
       <c r="I162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49016535725960075</v>
       </c>
     </row>
@@ -23791,11 +24469,11 @@
         <v>87.162691559999999</v>
       </c>
       <c r="H163">
-        <f>(B163+C163)/G163</f>
+        <f t="shared" si="4"/>
         <v>1017.8437403912587</v>
       </c>
       <c r="I163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23822,11 +24500,11 @@
         <v>87.937934560000002</v>
       </c>
       <c r="H164">
-        <f>(B164+C164)/G164</f>
+        <f t="shared" si="4"/>
         <v>1008.8592647063872</v>
       </c>
       <c r="I164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49016535725960075</v>
       </c>
     </row>
@@ -23853,11 +24531,11 @@
         <v>87.795122980000002</v>
       </c>
       <c r="H165">
-        <f>(B165+C165)/G165</f>
+        <f t="shared" si="4"/>
         <v>1010.4547609120508</v>
       </c>
       <c r="I165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49011982460293307</v>
       </c>
     </row>
@@ -23884,11 +24562,11 @@
         <v>87.53893472</v>
       </c>
       <c r="H166">
-        <f>(B166+C166)/G166</f>
+        <f t="shared" si="4"/>
         <v>1013.4690384772368</v>
       </c>
       <c r="I166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23915,11 +24593,11 @@
         <v>88.306152920000002</v>
       </c>
       <c r="H167">
-        <f>(B167+C167)/G167</f>
+        <f t="shared" si="4"/>
         <v>1004.6638548547472</v>
       </c>
       <c r="I167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23946,11 +24624,11 @@
         <v>92.260308940000002</v>
       </c>
       <c r="H168">
-        <f>(B168+C168)/G168</f>
+        <f t="shared" si="4"/>
         <v>961.60527771152726</v>
       </c>
       <c r="I168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -23977,11 +24655,11 @@
         <v>105.81938</v>
       </c>
       <c r="H169">
-        <f>(B169+C169)/G169</f>
+        <f t="shared" si="4"/>
         <v>838.39085052284372</v>
       </c>
       <c r="I169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -24008,11 +24686,11 @@
         <v>101.74592744</v>
       </c>
       <c r="H170">
-        <f>(B170+C170)/G170</f>
+        <f t="shared" si="4"/>
         <v>871.95627611058319</v>
       </c>
       <c r="I170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -24039,11 +24717,11 @@
         <v>99.994399799999997</v>
       </c>
       <c r="H171">
-        <f>(B171+C171)/G171</f>
+        <f t="shared" si="4"/>
         <v>887.22968663691108</v>
       </c>
       <c r="I171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -24070,11 +24748,11 @@
         <v>93.802635800000004</v>
       </c>
       <c r="H172">
-        <f>(B172+C172)/G172</f>
+        <f t="shared" si="4"/>
         <v>945.75167577540503</v>
       </c>
       <c r="I172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49013684424104426</v>
       </c>
     </row>
@@ -24101,11 +24779,11 @@
         <v>92.024838380000006</v>
       </c>
       <c r="H173">
-        <f>(B173+C173)/G173</f>
+        <f t="shared" si="4"/>
         <v>964.06580616479857</v>
       </c>
       <c r="I173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -24132,11 +24810,11 @@
         <v>90.260750459999997</v>
       </c>
       <c r="H174">
-        <f>(B174+C174)/G174</f>
+        <f t="shared" si="4"/>
         <v>982.75274189427569</v>
       </c>
       <c r="I174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49001172438672441</v>
       </c>
     </row>
@@ -24163,11 +24841,11 @@
         <v>98.482897840000007</v>
       </c>
       <c r="H175">
-        <f>(B175+C175)/G175</f>
+        <f t="shared" si="4"/>
         <v>900.83661169408163</v>
       </c>
       <c r="I175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49016535725960075</v>
       </c>
     </row>
@@ -24194,11 +24872,11 @@
         <v>93.874535080000001</v>
       </c>
       <c r="H176">
-        <f>(B176+C176)/G176</f>
+        <f t="shared" si="4"/>
         <v>945.06992683792691</v>
       </c>
       <c r="I176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -24225,11 +24903,11 @@
         <v>92.257417619999998</v>
       </c>
       <c r="H177">
-        <f>(B177+C177)/G177</f>
+        <f t="shared" si="4"/>
         <v>961.63541413462769</v>
       </c>
       <c r="I177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49017110394733876</v>
       </c>
     </row>
@@ -24256,11 +24934,11 @@
         <v>92.108618280000002</v>
       </c>
       <c r="H178">
-        <f>(B178+C178)/G178</f>
+        <f t="shared" si="4"/>
         <v>962.48322529933841</v>
       </c>
       <c r="I178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.48945890156001487</v>
       </c>
     </row>
@@ -24287,11 +24965,11 @@
         <v>43.33542164</v>
       </c>
       <c r="H179">
-        <f>(B179+C179)/G179</f>
+        <f t="shared" si="4"/>
         <v>3924.503179242633</v>
       </c>
       <c r="I179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -24318,11 +24996,11 @@
         <v>169.81442794</v>
       </c>
       <c r="H180">
-        <f>(B180+C180)/G180</f>
+        <f t="shared" si="4"/>
         <v>1175.6480437017924</v>
       </c>
       <c r="I180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21785496037907856</v>
       </c>
     </row>
@@ -24349,11 +25027,11 @@
         <v>145.34443065999901</v>
       </c>
       <c r="H181">
-        <f>(B181+C181)/G181</f>
+        <f t="shared" si="4"/>
         <v>1373.4065976491361</v>
       </c>
       <c r="I181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21798744595901151</v>
       </c>
     </row>
@@ -24380,11 +25058,11 @@
         <v>190.0127377</v>
       </c>
       <c r="H182">
-        <f>(B182+C182)/G182</f>
+        <f t="shared" si="4"/>
         <v>1050.676930486645</v>
       </c>
       <c r="I182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21784494244698011</v>
       </c>
     </row>
@@ -24411,11 +25089,11 @@
         <v>148.45167712</v>
       </c>
       <c r="H183">
-        <f>(B183+C183)/G183</f>
+        <f t="shared" si="4"/>
         <v>1344.8281883580246</v>
       </c>
       <c r="I183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21785496037907856</v>
       </c>
     </row>
@@ -24442,11 +25120,11 @@
         <v>139.95726642</v>
       </c>
       <c r="H184">
-        <f>(B184+C184)/G184</f>
+        <f t="shared" si="4"/>
         <v>1426.4496950154137</v>
       </c>
       <c r="I184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21784494244698011</v>
       </c>
     </row>
@@ -24473,11 +25151,11 @@
         <v>159.69452788000001</v>
       </c>
       <c r="H185">
-        <f>(B185+C185)/G185</f>
+        <f t="shared" si="4"/>
         <v>1250.1430239990261</v>
       </c>
       <c r="I185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24504,11 +25182,11 @@
         <v>146.97621616000001</v>
       </c>
       <c r="H186">
-        <f>(B186+C186)/G186</f>
+        <f t="shared" si="4"/>
         <v>1358.3218102626108</v>
       </c>
       <c r="I186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24535,11 +25213,11 @@
         <v>141.31957435999999</v>
       </c>
       <c r="H187">
-        <f>(B187+C187)/G187</f>
+        <f t="shared" si="4"/>
         <v>1412.6917725596243</v>
       </c>
       <c r="I187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24566,11 +25244,11 @@
         <v>141.75662198000001</v>
       </c>
       <c r="H188">
-        <f>(B188+C188)/G188</f>
+        <f t="shared" si="4"/>
         <v>1408.3363246915317</v>
       </c>
       <c r="I188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24597,11 +25275,11 @@
         <v>150.785337</v>
       </c>
       <c r="H189">
-        <f>(B189+C189)/G189</f>
+        <f t="shared" si="4"/>
         <v>1324.0080499339269</v>
       </c>
       <c r="I189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24628,11 +25306,11 @@
         <v>137.90508600000001</v>
       </c>
       <c r="H190">
-        <f>(B190+C190)/G190</f>
+        <f t="shared" si="4"/>
         <v>1447.6695950140663</v>
       </c>
       <c r="I190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24659,11 +25337,11 @@
         <v>142.20968382000001</v>
       </c>
       <c r="H191">
-        <f>(B191+C191)/G191</f>
+        <f t="shared" si="4"/>
         <v>1403.8495455252746</v>
       </c>
       <c r="I191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24690,11 +25368,11 @@
         <v>140.35350134000001</v>
       </c>
       <c r="H192">
-        <f>(B192+C192)/G192</f>
+        <f t="shared" si="4"/>
         <v>1422.4155300292703</v>
       </c>
       <c r="I192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24721,11 +25399,11 @@
         <v>141.138729479999</v>
       </c>
       <c r="H193">
-        <f>(B193+C193)/G193</f>
+        <f t="shared" si="4"/>
         <v>1414.5018928223485</v>
       </c>
       <c r="I193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24752,11 +25430,11 @@
         <v>140.57014573999999</v>
       </c>
       <c r="H194">
-        <f>(B194+C194)/G194</f>
+        <f t="shared" ref="H194:H257" si="6">(B194+C194)/G194</f>
         <v>1420.2233265750331</v>
       </c>
       <c r="I194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24783,11 +25461,11 @@
         <v>153.32200940000001</v>
       </c>
       <c r="H195">
-        <f>(B195+C195)/G195</f>
+        <f t="shared" si="6"/>
         <v>1302.1026842868914</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="3">F195/(B195+C195)</f>
+        <f t="shared" ref="I195:I258" si="7">F195/(B195+C195)</f>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24814,11 +25492,11 @@
         <v>163.17872474000001</v>
       </c>
       <c r="H196">
-        <f>(B196+C196)/G196</f>
+        <f t="shared" si="6"/>
         <v>1223.4499339181439</v>
       </c>
       <c r="I196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24845,11 +25523,11 @@
         <v>154.96339834</v>
       </c>
       <c r="H197">
-        <f>(B197+C197)/G197</f>
+        <f t="shared" si="6"/>
         <v>1288.3106729627493</v>
       </c>
       <c r="I197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24876,11 +25554,11 @@
         <v>141.77538172000001</v>
       </c>
       <c r="H198">
-        <f>(B198+C198)/G198</f>
+        <f t="shared" si="6"/>
         <v>1408.1499734155677</v>
       </c>
       <c r="I198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24907,11 +25585,11 @@
         <v>142.67461502</v>
       </c>
       <c r="H199">
-        <f>(B199+C199)/G199</f>
+        <f t="shared" si="6"/>
         <v>1399.2748462788177</v>
       </c>
       <c r="I199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24938,11 +25616,11 @@
         <v>149.13933668000001</v>
       </c>
       <c r="H200">
-        <f>(B200+C200)/G200</f>
+        <f t="shared" si="6"/>
         <v>1338.6206781136395</v>
       </c>
       <c r="I200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -24969,11 +25647,11 @@
         <v>144.74691128000001</v>
       </c>
       <c r="H201">
-        <f>(B201+C201)/G201</f>
+        <f t="shared" si="6"/>
         <v>1379.1451453761204</v>
       </c>
       <c r="I201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21795648885170843</v>
       </c>
     </row>
@@ -25000,11 +25678,11 @@
         <v>158.05120682</v>
       </c>
       <c r="H202">
-        <f>(B202+C202)/G202</f>
+        <f t="shared" si="6"/>
         <v>1263.1412566647809</v>
       </c>
       <c r="I202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25031,11 +25709,11 @@
         <v>154.81195258</v>
       </c>
       <c r="H203">
-        <f>(B203+C203)/G203</f>
+        <f t="shared" si="6"/>
         <v>1289.5709709289683</v>
       </c>
       <c r="I203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25062,11 +25740,11 @@
         <v>164.49917465999999</v>
       </c>
       <c r="H204">
-        <f>(B204+C204)/G204</f>
+        <f t="shared" si="6"/>
         <v>1213.6291894025239</v>
       </c>
       <c r="I204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25093,11 +25771,11 @@
         <v>187.53391847999899</v>
       </c>
       <c r="H205">
-        <f>(B205+C205)/G205</f>
+        <f t="shared" si="6"/>
         <v>1064.5594227333988</v>
       </c>
       <c r="I205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25124,11 +25802,11 @@
         <v>158.40009842000001</v>
       </c>
       <c r="H206">
-        <f>(B206+C206)/G206</f>
+        <f t="shared" si="6"/>
         <v>1260.3590653753838</v>
       </c>
       <c r="I206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25155,11 +25833,11 @@
         <v>140.10122774000001</v>
       </c>
       <c r="H207">
-        <f>(B207+C207)/G207</f>
+        <f t="shared" si="6"/>
         <v>1424.6770226055121</v>
       </c>
       <c r="I207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21806722478569532</v>
       </c>
     </row>
@@ -25186,11 +25864,11 @@
         <v>131.39984440000001</v>
       </c>
       <c r="H208">
-        <f>(B208+C208)/G208</f>
+        <f t="shared" si="6"/>
         <v>1519.2940365460584</v>
       </c>
       <c r="I208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -25217,11 +25895,11 @@
         <v>138.18330535999999</v>
       </c>
       <c r="H209">
-        <f>(B209+C209)/G209</f>
+        <f t="shared" si="6"/>
         <v>1444.7548456008362</v>
       </c>
       <c r="I209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25248,11 +25926,11 @@
         <v>140.78030747999901</v>
       </c>
       <c r="H210">
-        <f>(B210+C210)/G210</f>
+        <f t="shared" si="6"/>
         <v>1418.103167791159</v>
       </c>
       <c r="I210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25279,11 +25957,11 @@
         <v>152.04084395999999</v>
       </c>
       <c r="H211">
-        <f>(B211+C211)/G211</f>
+        <f t="shared" si="6"/>
         <v>1313.0747949052625</v>
       </c>
       <c r="I211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25310,11 +25988,11 @@
         <v>131.52688223999999</v>
       </c>
       <c r="H212">
-        <f>(B212+C212)/G212</f>
+        <f t="shared" si="6"/>
         <v>1517.872214409452</v>
       </c>
       <c r="I212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25341,11 +26019,11 @@
         <v>195.35942886000001</v>
       </c>
       <c r="H213">
-        <f>(B213+C213)/G213</f>
+        <f t="shared" si="6"/>
         <v>1021.9163782622865</v>
       </c>
       <c r="I213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25372,11 +26050,11 @@
         <v>145.48862388000001</v>
       </c>
       <c r="H214">
-        <f>(B214+C214)/G214</f>
+        <f t="shared" si="6"/>
         <v>1372.210380961918</v>
       </c>
       <c r="I214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25403,11 +26081,11 @@
         <v>184.79300198000001</v>
       </c>
       <c r="H215">
-        <f>(B215+C215)/G215</f>
+        <f t="shared" si="6"/>
         <v>1080.3493523072209</v>
       </c>
       <c r="I215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25434,11 +26112,11 @@
         <v>167.74343937999899</v>
       </c>
       <c r="H216">
-        <f>(B216+C216)/G216</f>
+        <f t="shared" si="6"/>
         <v>1190.1568296077535</v>
       </c>
       <c r="I216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25465,11 +26143,11 @@
         <v>149.84749041999899</v>
       </c>
       <c r="H217">
-        <f>(B217+C217)/G217</f>
+        <f t="shared" si="6"/>
         <v>1332.2945845835497</v>
       </c>
       <c r="I217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25496,11 +26174,11 @@
         <v>132.82293648000001</v>
       </c>
       <c r="H218">
-        <f>(B218+C218)/G218</f>
+        <f t="shared" si="6"/>
         <v>1503.0611827352666</v>
       </c>
       <c r="I218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25527,11 +26205,11 @@
         <v>148.45887529999999</v>
       </c>
       <c r="H219">
-        <f>(B219+C219)/G219</f>
+        <f t="shared" si="6"/>
         <v>1344.756247119434</v>
       </c>
       <c r="I219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25558,11 +26236,11 @@
         <v>155.71008182</v>
       </c>
       <c r="H220">
-        <f>(B220+C220)/G220</f>
+        <f t="shared" si="6"/>
         <v>1282.1327794996853</v>
       </c>
       <c r="I220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25589,11 +26267,11 @@
         <v>148.15004142000001</v>
       </c>
       <c r="H221">
-        <f>(B221+C221)/G221</f>
+        <f t="shared" si="6"/>
         <v>1347.2760323714258</v>
       </c>
       <c r="I221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21806722478569532</v>
       </c>
     </row>
@@ -25620,11 +26298,11 @@
         <v>153.50718812</v>
       </c>
       <c r="H222">
-        <f>(B222+C222)/G222</f>
+        <f t="shared" si="6"/>
         <v>1300.5319323804965</v>
       </c>
       <c r="I222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25651,11 +26329,11 @@
         <v>150.43723158</v>
       </c>
       <c r="H223">
-        <f>(B223+C223)/G223</f>
+        <f t="shared" si="6"/>
         <v>1327.0717488166104</v>
       </c>
       <c r="I223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25682,11 +26360,11 @@
         <v>140.45886518</v>
       </c>
       <c r="H224">
-        <f>(B224+C224)/G224</f>
+        <f t="shared" si="6"/>
         <v>1421.3485189714245</v>
       </c>
       <c r="I224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25713,11 +26391,11 @@
         <v>129.24571358</v>
       </c>
       <c r="H225">
-        <f>(B225+C225)/G225</f>
+        <f t="shared" si="6"/>
         <v>1544.6701826318317</v>
       </c>
       <c r="I225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21785496037907856</v>
       </c>
     </row>
@@ -25744,11 +26422,11 @@
         <v>147.38441109999999</v>
       </c>
       <c r="H226">
-        <f>(B226+C226)/G226</f>
+        <f t="shared" si="6"/>
         <v>1354.5598107017167</v>
       </c>
       <c r="I226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25775,11 +26453,11 @@
         <v>177.25445696</v>
       </c>
       <c r="H227">
-        <f>(B227+C227)/G227</f>
+        <f t="shared" si="6"/>
         <v>1126.2960797936485</v>
       </c>
       <c r="I227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25806,11 +26484,11 @@
         <v>166.90496693999901</v>
       </c>
       <c r="H228">
-        <f>(B228+C228)/G228</f>
+        <f t="shared" si="6"/>
         <v>1196.1357631242295</v>
       </c>
       <c r="I228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25837,11 +26515,11 @@
         <v>142.78784185999999</v>
       </c>
       <c r="H229">
-        <f>(B229+C229)/G229</f>
+        <f t="shared" si="6"/>
         <v>1398.1722631240841</v>
       </c>
       <c r="I229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21784494244698011</v>
       </c>
     </row>
@@ -25868,11 +26546,11 @@
         <v>160.55589477999999</v>
       </c>
       <c r="H230">
-        <f>(B230+C230)/G230</f>
+        <f t="shared" si="6"/>
         <v>1243.4361271727578</v>
       </c>
       <c r="I230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25899,11 +26577,11 @@
         <v>153.09663197999899</v>
       </c>
       <c r="H231">
-        <f>(B231+C231)/G231</f>
+        <f t="shared" si="6"/>
         <v>1304.0195425467082</v>
       </c>
       <c r="I231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25930,11 +26608,11 @@
         <v>156.81763192</v>
       </c>
       <c r="H232">
-        <f>(B232+C232)/G232</f>
+        <f t="shared" si="6"/>
         <v>1272.8096806220412</v>
       </c>
       <c r="I232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21806722478569532</v>
       </c>
     </row>
@@ -25961,11 +26639,11 @@
         <v>152.40986013999901</v>
       </c>
       <c r="H233">
-        <f>(B233+C233)/G233</f>
+        <f t="shared" si="6"/>
         <v>1309.8955659208395</v>
       </c>
       <c r="I233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -25992,11 +26670,11 @@
         <v>154.16939116</v>
       </c>
       <c r="H234">
-        <f>(B234+C234)/G234</f>
+        <f t="shared" si="6"/>
         <v>1294.9068456319899</v>
       </c>
       <c r="I234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -26023,11 +26701,11 @@
         <v>142.28933556000001</v>
       </c>
       <c r="H235">
-        <f>(B235+C235)/G235</f>
+        <f t="shared" si="6"/>
         <v>1403.0636886052234</v>
       </c>
       <c r="I235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26054,11 +26732,11 @@
         <v>144.81225058000001</v>
       </c>
       <c r="H236">
-        <f>(B236+C236)/G236</f>
+        <f t="shared" si="6"/>
         <v>1378.5781189120719</v>
       </c>
       <c r="I236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -26085,11 +26763,11 @@
         <v>142.22987013999901</v>
       </c>
       <c r="H237">
-        <f>(B237+C237)/G237</f>
+        <f t="shared" si="6"/>
         <v>1403.6081155350578</v>
       </c>
       <c r="I237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -26116,11 +26794,11 @@
         <v>145.68711479999999</v>
       </c>
       <c r="H238">
-        <f>(B238+C238)/G238</f>
+        <f t="shared" si="6"/>
         <v>1367.8903606099832</v>
       </c>
       <c r="I238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21988719616226091</v>
       </c>
     </row>
@@ -26147,11 +26825,11 @@
         <v>139.44675294000001</v>
       </c>
       <c r="H239">
-        <f>(B239+C239)/G239</f>
+        <f t="shared" si="6"/>
         <v>1431.1125629857206</v>
       </c>
       <c r="I239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21825579763885269</v>
       </c>
     </row>
@@ -26178,11 +26856,11 @@
         <v>139.81308346</v>
       </c>
       <c r="H240">
-        <f>(B240+C240)/G240</f>
+        <f t="shared" si="6"/>
         <v>1427.2627071921386</v>
       </c>
       <c r="I240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21833124530192935</v>
       </c>
     </row>
@@ -26209,11 +26887,11 @@
         <v>138.01667097999999</v>
       </c>
       <c r="H241">
-        <f>(B241+C241)/G241</f>
+        <f t="shared" si="6"/>
         <v>1446.4991698642696</v>
       </c>
       <c r="I241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26240,11 +26918,11 @@
         <v>142.10863934</v>
       </c>
       <c r="H242">
-        <f>(B242+C242)/G242</f>
+        <f t="shared" si="6"/>
         <v>1404.8477342911699</v>
       </c>
       <c r="I242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26271,11 +26949,11 @@
         <v>136.59494530000001</v>
       </c>
       <c r="H243">
-        <f>(B243+C243)/G243</f>
+        <f t="shared" si="6"/>
         <v>1461.5108894516318</v>
       </c>
       <c r="I243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -26302,11 +26980,11 @@
         <v>135.15806273999999</v>
       </c>
       <c r="H244">
-        <f>(B244+C244)/G244</f>
+        <f t="shared" si="6"/>
         <v>1477.0927901211794</v>
       </c>
       <c r="I244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26333,11 +27011,11 @@
         <v>137.88423183999899</v>
       </c>
       <c r="H245">
-        <f>(B245+C245)/G245</f>
+        <f t="shared" si="6"/>
         <v>1447.8885463253234</v>
       </c>
       <c r="I245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26364,11 +27042,11 @@
         <v>140.83843637999999</v>
       </c>
       <c r="H246">
-        <f>(B246+C246)/G246</f>
+        <f t="shared" si="6"/>
         <v>1417.517867504175</v>
       </c>
       <c r="I246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26395,11 +27073,11 @@
         <v>139.77499132</v>
       </c>
       <c r="H247">
-        <f>(B247+C247)/G247</f>
+        <f t="shared" si="6"/>
         <v>1428.3027179228588</v>
       </c>
       <c r="I247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26426,11 +27104,11 @@
         <v>142.1011809</v>
       </c>
       <c r="H248">
-        <f>(B248+C248)/G248</f>
+        <f t="shared" si="6"/>
         <v>1404.6259062439642</v>
       </c>
       <c r="I248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21806722478569532</v>
       </c>
     </row>
@@ -26457,11 +27135,11 @@
         <v>144.20494381999899</v>
       </c>
       <c r="H249">
-        <f>(B249+C249)/G249</f>
+        <f t="shared" si="6"/>
         <v>1384.4254899415791</v>
       </c>
       <c r="I249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26488,11 +27166,11 @@
         <v>138.15846015999901</v>
       </c>
       <c r="H250">
-        <f>(B250+C250)/G250</f>
+        <f t="shared" si="6"/>
         <v>1445.014657580861</v>
       </c>
       <c r="I250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26519,11 +27197,11 @@
         <v>141.25273238</v>
       </c>
       <c r="H251">
-        <f>(B251+C251)/G251</f>
+        <f t="shared" si="6"/>
         <v>1410.8328854402866</v>
       </c>
       <c r="I251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21988719616226091</v>
       </c>
     </row>
@@ -26550,11 +27228,11 @@
         <v>142.70761279999999</v>
       </c>
       <c r="H252">
-        <f>(B252+C252)/G252</f>
+        <f t="shared" si="6"/>
         <v>1398.9512968715289</v>
       </c>
       <c r="I252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26581,11 +27259,11 @@
         <v>151.71394101999999</v>
       </c>
       <c r="H253">
-        <f>(B253+C253)/G253</f>
+        <f t="shared" si="6"/>
         <v>1315.9041196727064</v>
       </c>
       <c r="I253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26612,11 +27290,11 @@
         <v>144.05301476</v>
       </c>
       <c r="H254">
-        <f>(B254+C254)/G254</f>
+        <f t="shared" si="6"/>
         <v>1385.8856083825287</v>
       </c>
       <c r="I254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26643,11 +27321,11 @@
         <v>166.65908471999899</v>
       </c>
       <c r="H255">
-        <f>(B255+C255)/G255</f>
+        <f t="shared" si="6"/>
         <v>1197.9004945059753</v>
       </c>
       <c r="I255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26674,11 +27352,11 @@
         <v>135.53046927999901</v>
       </c>
       <c r="H256">
-        <f>(B256+C256)/G256</f>
+        <f t="shared" si="6"/>
         <v>1473.0340790568055</v>
       </c>
       <c r="I256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26705,11 +27383,11 @@
         <v>140.72322639999999</v>
       </c>
       <c r="H257">
-        <f>(B257+C257)/G257</f>
+        <f t="shared" si="6"/>
         <v>1418.6783881185943</v>
       </c>
       <c r="I257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26736,11 +27414,11 @@
         <v>151.16371093999999</v>
       </c>
       <c r="H258">
-        <f>(B258+C258)/G258</f>
+        <f t="shared" ref="H258:H321" si="8">(B258+C258)/G258</f>
         <v>1320.6939599362022</v>
       </c>
       <c r="I258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26767,11 +27445,11 @@
         <v>150.83224863999999</v>
       </c>
       <c r="H259">
-        <f>(B259+C259)/G259</f>
+        <f t="shared" si="8"/>
         <v>1323.5564794666714</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I273" si="4">F259/(B259+C259)</f>
+        <f t="shared" ref="I259:I273" si="9">F259/(B259+C259)</f>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -26798,11 +27476,11 @@
         <v>142.08087347999901</v>
       </c>
       <c r="H260">
-        <f>(B260+C260)/G260</f>
+        <f t="shared" si="8"/>
         <v>1405.0800442756497</v>
       </c>
       <c r="I260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21786259924361961</v>
       </c>
     </row>
@@ -26829,11 +27507,11 @@
         <v>159.04896909999999</v>
       </c>
       <c r="H261">
-        <f>(B261+C261)/G261</f>
+        <f t="shared" si="8"/>
         <v>1255.2171895844122</v>
       </c>
       <c r="I261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26860,11 +27538,11 @@
         <v>172.54730645999999</v>
       </c>
       <c r="H262">
-        <f>(B262+C262)/G262</f>
+        <f t="shared" si="8"/>
         <v>1157.0218283661293</v>
       </c>
       <c r="I262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26891,11 +27569,11 @@
         <v>148.3039545</v>
       </c>
       <c r="H263">
-        <f>(B263+C263)/G263</f>
+        <f t="shared" si="8"/>
         <v>1346.1610020655248</v>
       </c>
       <c r="I263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26922,11 +27600,11 @@
         <v>151.65171189999899</v>
       </c>
       <c r="H264">
-        <f>(B264+C264)/G264</f>
+        <f t="shared" si="8"/>
         <v>1316.4440908629224</v>
       </c>
       <c r="I264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26953,11 +27631,11 @@
         <v>149.01348723999999</v>
       </c>
       <c r="H265">
-        <f>(B265+C265)/G265</f>
+        <f t="shared" si="8"/>
         <v>1339.7512110998364</v>
       </c>
       <c r="I265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -26984,11 +27662,11 @@
         <v>147.46199876</v>
       </c>
       <c r="H266">
-        <f>(B266+C266)/G266</f>
+        <f t="shared" si="8"/>
         <v>1353.8471041947785</v>
       </c>
       <c r="I266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -27015,11 +27693,11 @@
         <v>161.87861568</v>
       </c>
       <c r="H267">
-        <f>(B267+C267)/G267</f>
+        <f t="shared" si="8"/>
         <v>1233.275928147596</v>
       </c>
       <c r="I267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -27046,11 +27724,11 @@
         <v>146.73589371999901</v>
       </c>
       <c r="H268">
-        <f>(B268+C268)/G268</f>
+        <f t="shared" si="8"/>
         <v>1360.5464548500611</v>
       </c>
       <c r="I268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -27077,11 +27755,11 @@
         <v>148.26724272000001</v>
       </c>
       <c r="H269">
-        <f>(B269+C269)/G269</f>
+        <f t="shared" si="8"/>
         <v>1346.494318890238</v>
       </c>
       <c r="I269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -27108,11 +27786,11 @@
         <v>149.15200136000001</v>
       </c>
       <c r="H270">
-        <f>(B270+C270)/G270</f>
+        <f t="shared" si="8"/>
         <v>1338.5070141843921</v>
       </c>
       <c r="I270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -27139,11 +27817,11 @@
         <v>147.47738222000001</v>
       </c>
       <c r="H271">
-        <f>(B271+C271)/G271</f>
+        <f t="shared" si="8"/>
         <v>1353.7058835380242</v>
       </c>
       <c r="I271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>
@@ -27170,11 +27848,11 @@
         <v>148.03426189999999</v>
       </c>
       <c r="H272">
-        <f>(B272+C272)/G272</f>
+        <f t="shared" si="8"/>
         <v>1348.0933227120715</v>
       </c>
       <c r="I272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21825579763885269</v>
       </c>
     </row>
@@ -27201,11 +27879,11 @@
         <v>153.96333967999999</v>
       </c>
       <c r="H273">
-        <f>(B273+C273)/G273</f>
+        <f t="shared" si="8"/>
         <v>1296.6788094811222</v>
       </c>
       <c r="I273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21782098867467103</v>
       </c>
     </row>

--- a/benchmark/measurements/json.xlsx
+++ b/benchmark/measurements/json.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/projects/truediff/benchmark/measurements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andiderp/repos/truediff/benchmark/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC6818-84E0-2C40-A433-4044DEA3B124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D7DDF-5686-594D-97E7-D8A2D4EFC469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="42740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="json_unchanged" sheetId="2" r:id="rId1"/>
     <sheet name="json_changeleaves" sheetId="1" r:id="rId2"/>
     <sheet name="json_replacesubtrees_with_singl" sheetId="3" r:id="rId3"/>
     <sheet name="json_replacesubtrees_with_tree" sheetId="4" r:id="rId4"/>
+    <sheet name="json_changeeverything" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(json_changeleaves!$H$3:$H$32,json_changeleaves!$H$34:$H$255,json_changeleaves!$H$257:$H$279,json_changeleaves!$H$281:$H$1048576)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(json_changeleaves!$H$3:$H$32,json_changeleaves!$H$34:$H$255,json_changeleaves!$H$257:$H$279,json_changeleaves!$H$281:$H$1048576)</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">json_changeeverything!$H$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">json_changeeverything!$J$2:$J$312</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="json_changeeverything" localSheetId="4">json_changeeverything!$A$1:$BE$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">json_changeeverything!$P$17:$V$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +49,76 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{313DC744-B4CE-6640-801E-B2D197475083}" name="json_changeeverything" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/andiderp/repos/truediff/benchmark/measurements/json_changeeverything.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="57">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="611">
   <si>
     <t>Filename</t>
   </si>
@@ -1834,13 +1915,49 @@
   </si>
   <si>
     <t>Edits/Nodes</t>
+  </si>
+  <si>
+    <t>parboiled2bench.json to canada.json</t>
+  </si>
+  <si>
+    <t>parboiled2bench.json to twitter.json</t>
+  </si>
+  <si>
+    <t>parboiled2bench.json to citm_catalog.json</t>
+  </si>
+  <si>
+    <t>canada.json to parboiled2bench.json</t>
+  </si>
+  <si>
+    <t>canada.json to twitter.json</t>
+  </si>
+  <si>
+    <t>canada.json to citm_catalog.json</t>
+  </si>
+  <si>
+    <t>twitter.json to parboiled2bench.json</t>
+  </si>
+  <si>
+    <t>twitter.json to canada.json</t>
+  </si>
+  <si>
+    <t>twitter.json to citm_catalog.json</t>
+  </si>
+  <si>
+    <t>citm_catalog.json to parboiled2bench.json</t>
+  </si>
+  <si>
+    <t>citm_catalog.json to canada.json</t>
+  </si>
+  <si>
+    <t>citm_catalog.json to twitter.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1974,6 +2091,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2317,8 +2440,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2382,18 +2506,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{3A390E2F-110B-7B4E-A008-5769EA1F95F5}">
+        <cx:series layoutId="boxWhisker" uniqueId="{314CE1FA-91E4-3147-AA6C-23221BD216B5}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -2401,11 +2534,179 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Number of Nodes / ms</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Number of Nodes / ms</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="9" firstPageNumber="1" orientation="portrait" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B9885FD7-C380-9342-8775-A2A1EBB8C5B9}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Number of Nodes / ms</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Number of Nodes / ms</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -2413,6 +2714,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2967,33 +3308,550 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>541167</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>185566</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>268598</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>162593</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>48535</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137429</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
+            <xdr:cNvPr id="3" name="Chart 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2A7DAB-ACC3-FC41-B482-79439720F587}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC682129-328A-F444-A8A9-5EC04D56D8D3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -3016,8 +3874,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13540466" y="1601171"/>
-              <a:ext cx="4572000" cy="8154370"/>
+              <a:off x="16004692" y="3302823"/>
+              <a:ext cx="4568589" cy="4573669"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3036,7 +3894,85 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98576</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443857</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F517FCC1-2EEC-654F-8733-4B7FD4744025}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7738420" y="3201914"/>
+              <a:ext cx="4572000" cy="4573669"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -3048,6 +3984,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="json_changeeverything" connectionId="1" xr16:uid="{617100B5-0176-B849-A9B5-30DAA904F17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3353,12 +4293,12 @@
       <selection activeCell="I2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +4327,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -3417,7 +4357,7 @@
         <v>4240.2433695324198</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>321</v>
       </c>
@@ -3447,7 +4387,7 @@
         <v>2968.1531122784081</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -3477,7 +4417,7 @@
         <v>4080.3658412922787</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -3521,6 +4461,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3528,17 +4469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +4505,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3591,7 +4532,7 @@
         <v>2408.5985995499518</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3626,7 +4567,7 @@
         <v>2176.6384261088392</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3653,7 +4594,7 @@
         <v>2146.9389512865159</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +4621,7 @@
         <v>2177.5286847003781</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3707,7 +4648,7 @@
         <v>2191.7276296362766</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3734,7 +4675,7 @@
         <v>2196.6845987337938</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3761,7 +4702,7 @@
         <v>2202.0183229067848</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +4729,7 @@
         <v>2198.7688332776956</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3815,7 +4756,7 @@
         <v>2206.731506518322</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3842,7 +4783,7 @@
         <v>2207.926994413162</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3869,7 +4810,7 @@
         <v>2204.3705476414539</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3896,7 +4837,7 @@
         <v>2211.3545028488511</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3923,7 +4864,7 @@
         <v>2213.7192056831423</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3950,7 +4891,7 @@
         <v>2217.298654953001</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3977,7 +4918,7 @@
         <v>2201.4367319464959</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +4945,7 @@
         <v>2190.2090112194742</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4031,7 +4972,7 @@
         <v>2195.1702599290443</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4058,7 +4999,7 @@
         <v>2207.4253813296459</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4085,7 +5026,7 @@
         <v>2212.6424494513558</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -4112,7 +5053,7 @@
         <v>2190.4408602807644</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4139,7 +5080,7 @@
         <v>2203.1863889808874</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4166,7 +5107,7 @@
         <v>2214.331399774162</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -4193,7 +5134,7 @@
         <v>2194.3331079480022</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -4220,7 +5161,7 @@
         <v>2206.8647610386238</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4247,7 +5188,7 @@
         <v>2211.2705922470986</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4274,7 +5215,7 @@
         <v>2201.059411739765</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4301,7 +5242,7 @@
         <v>2200.8808574947461</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4328,7 +5269,7 @@
         <v>2213.6377151739775</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4355,7 +5296,7 @@
         <v>2201.9436331672837</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4382,7 +5323,7 @@
         <v>2216.6403354098215</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -4409,7 +5350,7 @@
         <v>2051.0008375312682</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -4436,7 +5377,7 @@
         <v>3896.6422040509246</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -4471,7 +5412,7 @@
         <v>2405.1851142297132</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -4498,7 +5439,7 @@
         <v>2508.2819098191449</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4525,7 +5466,7 @@
         <v>2485.090037255216</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -4552,7 +5493,7 @@
         <v>2510.7813778020245</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4579,7 +5520,7 @@
         <v>2502.6383593716723</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4606,7 +5547,7 @@
         <v>2422.0949051544194</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4633,7 +5574,7 @@
         <v>2550.9569520665277</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4660,7 +5601,7 @@
         <v>2567.1060803749738</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4687,7 +5628,7 @@
         <v>2547.9728393217688</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4714,7 +5655,7 @@
         <v>2422.3112123398137</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4741,7 +5682,7 @@
         <v>2326.7997176452373</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4768,7 +5709,7 @@
         <v>2496.5494823413551</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4795,7 +5736,7 @@
         <v>2538.0538716853162</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4822,7 +5763,7 @@
         <v>2554.7756304781183</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4849,7 +5790,7 @@
         <v>2478.1184577382292</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4876,7 +5817,7 @@
         <v>2572.0357545465399</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4903,7 +5844,7 @@
         <v>2553.5288702614671</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4930,7 +5871,7 @@
         <v>2547.3736048714695</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4957,7 +5898,7 @@
         <v>2488.9974049557363</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -4984,7 +5925,7 @@
         <v>2520.8136693419174</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -5011,7 +5952,7 @@
         <v>2587.0059943664742</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5038,7 +5979,7 @@
         <v>2568.9802900673308</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -5065,7 +6006,7 @@
         <v>2572.3870965995766</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -5092,7 +6033,7 @@
         <v>2567.2979996799813</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -5119,7 +6060,7 @@
         <v>2556.343980297941</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -5146,7 +6087,7 @@
         <v>2508.3052901569263</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5173,7 +6114,7 @@
         <v>2386.8028695074927</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -5200,7 +6141,7 @@
         <v>2575.5923258301959</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -5227,7 +6168,7 @@
         <v>2582.1968405789867</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -5254,7 +6195,7 @@
         <v>2546.1669688611014</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -5281,7 +6222,7 @@
         <v>2564.9532972819679</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -5308,7 +6249,7 @@
         <v>2574.5514693835194</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -5335,7 +6276,7 @@
         <v>2575.8052126371949</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -5362,7 +6303,7 @@
         <v>2493.7159948205422</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -5389,7 +6330,7 @@
         <v>2401.4325524311193</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -5416,7 +6357,7 @@
         <v>2430.6745356437077</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -5443,7 +6384,7 @@
         <v>2367.4374704138786</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -5470,7 +6411,7 @@
         <v>2370.007846900678</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -5497,7 +6438,7 @@
         <v>2389.7958862996788</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -5524,7 +6465,7 @@
         <v>2546.5429821750649</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -5551,7 +6492,7 @@
         <v>2573.4149158028677</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -5578,7 +6519,7 @@
         <v>2553.3443785444415</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -5605,7 +6546,7 @@
         <v>2542.8664127564502</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -5632,7 +6573,7 @@
         <v>2334.9508699313642</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -5659,7 +6600,7 @@
         <v>2497.8784568263145</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -5686,7 +6627,7 @@
         <v>2506.5097700328183</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -5713,7 +6654,7 @@
         <v>2527.4262469954178</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -5740,7 +6681,7 @@
         <v>2377.0345161952478</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -5767,7 +6708,7 @@
         <v>2398.5894978609167</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -5794,7 +6735,7 @@
         <v>2490.9666748223408</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -5821,7 +6762,7 @@
         <v>2570.7518383450588</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -5848,7 +6789,7 @@
         <v>2343.5371030061051</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -5875,7 +6816,7 @@
         <v>2551.0350467649223</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -5902,7 +6843,7 @@
         <v>2565.5590467042807</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -5929,7 +6870,7 @@
         <v>2575.1921937290949</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -5956,7 +6897,7 @@
         <v>2562.1969007942621</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5983,7 +6924,7 @@
         <v>2287.9447100173838</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -6010,7 +6951,7 @@
         <v>2282.878239459224</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -6037,7 +6978,7 @@
         <v>2228.8678274959352</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -6064,7 +7005,7 @@
         <v>2273.3400231537112</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -6091,7 +7032,7 @@
         <v>2286.186162244187</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -6118,7 +7059,7 @@
         <v>2288.8618260977396</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -6145,7 +7086,7 @@
         <v>2286.4008142795537</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -6172,7 +7113,7 @@
         <v>2283.8849452201348</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -6199,7 +7140,7 @@
         <v>2285.134778674359</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -6226,7 +7167,7 @@
         <v>2230.1974524649791</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -6253,7 +7194,7 @@
         <v>2282.0460155160231</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -6280,7 +7221,7 @@
         <v>2287.9609352921025</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -6307,7 +7248,7 @@
         <v>2230.115695193696</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -6334,7 +7275,7 @@
         <v>2290.0045296524713</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -6361,7 +7302,7 @@
         <v>2291.8645577555048</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -6388,7 +7329,7 @@
         <v>2286.7127767471688</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -6415,7 +7356,7 @@
         <v>2295.9106478556268</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -6442,7 +7383,7 @@
         <v>2284.2726642749781</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -6469,7 +7410,7 @@
         <v>2283.4656629470201</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -6496,7 +7437,7 @@
         <v>2299.5490148506315</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -6523,7 +7464,7 @@
         <v>2297.9171503894763</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -6550,7 +7491,7 @@
         <v>2293.1949478751908</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -6577,7 +7518,7 @@
         <v>2291.5094485459808</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -6604,7 +7545,7 @@
         <v>2299.0067968293124</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -6631,7 +7572,7 @@
         <v>2275.0459161950316</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -6658,7 +7599,7 @@
         <v>2287.7417825583575</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -6685,7 +7626,7 @@
         <v>2293.551657538505</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -6712,7 +7653,7 @@
         <v>2295.9915183138373</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -6739,7 +7680,7 @@
         <v>2310.1059695764229</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -6766,7 +7707,7 @@
         <v>2290.5635322453327</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -6793,7 +7734,7 @@
         <v>2298.9927153568901</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -6820,7 +7761,7 @@
         <v>2227.0114538470416</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -6847,7 +7788,7 @@
         <v>2221.5329634476175</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -6874,7 +7815,7 @@
         <v>2296.8459974076336</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -6901,7 +7842,7 @@
         <v>2301.0659854751325</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -6928,7 +7869,7 @@
         <v>2300.4924985863554</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -6955,7 +7896,7 @@
         <v>2252.3713566147671</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -6982,7 +7923,7 @@
         <v>2302.4116240166668</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -7009,7 +7950,7 @@
         <v>2281.1065270214499</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -7036,7 +7977,7 @@
         <v>2162.5073541473498</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -7063,7 +8004,7 @@
         <v>2272.2683162992093</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -7090,7 +8031,7 @@
         <v>2291.0461381647542</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -7117,7 +8058,7 @@
         <v>2296.4719187600795</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -7144,7 +8085,7 @@
         <v>2160.2454866601161</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -7171,7 +8112,7 @@
         <v>2230.0313700229826</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -7198,7 +8139,7 @@
         <v>2135.5147603281216</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -7225,7 +8166,7 @@
         <v>1982.3614967964998</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -7252,7 +8193,7 @@
         <v>2245.7026647475168</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -7279,7 +8220,7 @@
         <v>2201.5364421607051</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -7306,7 +8247,7 @@
         <v>2273.5280677238634</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -7333,7 +8274,7 @@
         <v>2224.7019137192297</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -7360,7 +8301,7 @@
         <v>2283.7516598321154</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -7387,7 +8328,7 @@
         <v>2291.5183698687947</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -7414,7 +8355,7 @@
         <v>2317.3976352798918</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -7441,7 +8382,7 @@
         <v>2296.5746399438026</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -7468,7 +8409,7 @@
         <v>2288.2438594859791</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -7495,7 +8436,7 @@
         <v>2292.3315992304888</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -7522,7 +8463,7 @@
         <v>2561.8365491827167</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -7549,7 +8490,7 @@
         <v>2464.5570177460422</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -7576,7 +8517,7 @@
         <v>2320.4876404175843</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -7603,7 +8544,7 @@
         <v>2184.8674067430425</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -7630,7 +8571,7 @@
         <v>2424.6516845750202</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -7657,7 +8598,7 @@
         <v>2449.3158589816499</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -7684,7 +8625,7 @@
         <v>2324.0805445124452</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -7711,7 +8652,7 @@
         <v>2342.9333943601241</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -7738,7 +8679,7 @@
         <v>2375.6523766837513</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -7765,7 +8706,7 @@
         <v>2516.1872021772547</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -7792,7 +8733,7 @@
         <v>2537.9346771159931</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -7819,7 +8760,7 @@
         <v>2545.8692273788074</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -7846,7 +8787,7 @@
         <v>2362.8179621598028</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -7873,7 +8814,7 @@
         <v>2403.6274131918258</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -7900,7 +8841,7 @@
         <v>2373.020659588914</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -7927,7 +8868,7 @@
         <v>2355.9668625723448</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -7954,7 +8895,7 @@
         <v>2407.8307424032182</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -7981,7 +8922,7 @@
         <v>2344.9604455076101</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -8008,7 +8949,7 @@
         <v>2381.0271506301278</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -8035,7 +8976,7 @@
         <v>2401.0584048209225</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -8062,7 +9003,7 @@
         <v>2397.152074836355</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -8089,7 +9030,7 @@
         <v>2363.0096319135273</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -8116,7 +9057,7 @@
         <v>2383.9876686722455</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -8143,7 +9084,7 @@
         <v>2373.8884795783356</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -8170,7 +9111,7 @@
         <v>2340.8545979206715</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -8197,7 +9138,7 @@
         <v>2296.8631262075874</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -8224,7 +9165,7 @@
         <v>2341.0583856251105</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -8251,7 +9192,7 @@
         <v>2382.6215129463076</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -8278,7 +9219,7 @@
         <v>2403.9712273659388</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -8305,7 +9246,7 @@
         <v>2398.4954029340938</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -8332,7 +9273,7 @@
         <v>2383.7653595477923</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -8359,7 +9300,7 @@
         <v>2431.4304411419621</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -8386,7 +9327,7 @@
         <v>2405.2809838824169</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -8413,7 +9354,7 @@
         <v>2287.326831135455</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -8440,7 +9381,7 @@
         <v>2385.9839774981051</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -8467,7 +9408,7 @@
         <v>2407.961618644209</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -8494,7 +9435,7 @@
         <v>2376.2697249157682</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -8521,7 +9462,7 @@
         <v>2414.1134081562568</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -8548,7 +9489,7 @@
         <v>2412.3042454833312</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -8575,7 +9516,7 @@
         <v>2409.9669119335258</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -8602,7 +9543,7 @@
         <v>2396.1175096050019</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -8629,7 +9570,7 @@
         <v>2378.6211117411149</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -8656,7 +9597,7 @@
         <v>2387.7894324519671</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -8683,7 +9624,7 @@
         <v>2400.3433356760684</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -8710,7 +9651,7 @@
         <v>2402.3294377288535</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -8737,7 +9678,7 @@
         <v>2436.1079402958094</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -8764,7 +9705,7 @@
         <v>2500.8467381463115</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -8791,7 +9732,7 @@
         <v>2295.6563346154417</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -8818,7 +9759,7 @@
         <v>2165.1816500845171</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -8845,7 +9786,7 @@
         <v>2532.0697173757717</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -8872,7 +9813,7 @@
         <v>2490.7287185147939</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -8899,7 +9840,7 @@
         <v>2528.6604214331819</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -8926,7 +9867,7 @@
         <v>2507.9762835190381</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -8953,7 +9894,7 @@
         <v>2565.5373141513978</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -8980,7 +9921,7 @@
         <v>2558.258068114118</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -9007,7 +9948,7 @@
         <v>2565.4349984845967</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -9034,7 +9975,7 @@
         <v>2552.3549925615321</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -9061,7 +10002,7 @@
         <v>2536.4585350010611</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -9088,7 +10029,7 @@
         <v>2554.4771447797157</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -9115,7 +10056,7 @@
         <v>2540.0438488512859</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -9142,7 +10083,7 @@
         <v>2547.9238413337589</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -9169,7 +10110,7 @@
         <v>2535.4385547270804</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -9196,7 +10137,7 @@
         <v>2540.9591286631958</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -9223,7 +10164,7 @@
         <v>2532.956995942413</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -9250,7 +10191,7 @@
         <v>2528.8911130987722</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -9277,7 +10218,7 @@
         <v>2512.1638372405268</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -9304,7 +10245,7 @@
         <v>2073.2461747164839</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -9331,7 +10272,7 @@
         <v>2500.3952563566963</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -9358,7 +10299,7 @@
         <v>2530.4228402026711</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -9385,7 +10326,7 @@
         <v>2535.7973368613266</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -9412,7 +10353,7 @@
         <v>2536.0565823583415</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -9439,7 +10380,7 @@
         <v>2518.8203640800234</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -9466,7 +10407,7 @@
         <v>2539.3092380766002</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -9493,7 +10434,7 @@
         <v>2548.2139051062532</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -9520,7 +10461,7 @@
         <v>2547.6334772532487</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -9547,7 +10488,7 @@
         <v>2560.0094319391387</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -9574,7 +10515,7 @@
         <v>2541.1476930433882</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -9601,7 +10542,7 @@
         <v>2484.714113591976</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -9628,7 +10569,7 @@
         <v>2564.3111847504638</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -9655,7 +10596,7 @@
         <v>2544.7200548567121</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -9682,7 +10623,7 @@
         <v>2532.850543158439</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -9709,7 +10650,7 @@
         <v>2485.1015938026567</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -9736,7 +10677,7 @@
         <v>2525.7834970569993</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -9763,7 +10704,7 @@
         <v>2529.022718494326</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -9790,7 +10731,7 @@
         <v>2525.5411701411867</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -9817,7 +10758,7 @@
         <v>2479.9111488925028</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -9844,7 +10785,7 @@
         <v>2296.0194379206123</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -9871,7 +10812,7 @@
         <v>2475.2870141397661</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -9898,7 +10839,7 @@
         <v>2224.2608051357633</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -9925,7 +10866,7 @@
         <v>2246.1873017152038</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -9952,7 +10893,7 @@
         <v>2242.973336898825</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -9979,7 +10920,7 @@
         <v>2309.6769134745859</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -10006,7 +10947,7 @@
         <v>2414.1700298422857</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -10033,7 +10974,7 @@
         <v>2408.6965448176106</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -10060,7 +11001,7 @@
         <v>2271.1592296916947</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -10087,7 +11028,7 @@
         <v>2315.62661093116</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -10114,7 +11055,7 @@
         <v>2473.6785061957471</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -10141,7 +11082,7 @@
         <v>2227.4340063069949</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -10168,7 +11109,7 @@
         <v>2435.0378280273076</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -10195,7 +11136,7 @@
         <v>2404.4837201410392</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -10222,7 +11163,7 @@
         <v>2454.1370515250587</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -10249,7 +11190,7 @@
         <v>2405.8925890016803</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -10276,7 +11217,7 @@
         <v>2123.2125278242147</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -10303,7 +11244,7 @@
         <v>2229.4028654189378</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -10330,7 +11271,7 @@
         <v>2451.0709587809592</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -10357,7 +11298,7 @@
         <v>2442.739110209252</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -10384,7 +11325,7 @@
         <v>2470.8641555289028</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -10411,7 +11352,7 @@
         <v>2458.8640750619102</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -10438,7 +11379,7 @@
         <v>2479.7196437297403</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -10465,7 +11406,7 @@
         <v>3901.1402386663322</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -10500,7 +11441,7 @@
         <v>2123.2361890193351</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -10527,7 +11468,7 @@
         <v>2125.987472673633</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -10554,7 +11495,7 @@
         <v>2138.8455116269802</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -10581,7 +11522,7 @@
         <v>2118.7157220061367</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -10608,7 +11549,7 @@
         <v>2125.0962280083772</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -10635,7 +11576,7 @@
         <v>2115.6580651071713</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -10662,7 +11603,7 @@
         <v>2124.6590248439406</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -10689,7 +11630,7 @@
         <v>2118.1575721233116</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -10716,7 +11657,7 @@
         <v>2125.4779734445729</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -10743,7 +11684,7 @@
         <v>2131.1023388181952</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -10770,7 +11711,7 @@
         <v>2124.3571371006974</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -10797,7 +11738,7 @@
         <v>2135.9919980639029</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -10824,7 +11765,7 @@
         <v>2118.7301044325959</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -10851,7 +11792,7 @@
         <v>2109.3476536923908</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -10878,7 +11819,7 @@
         <v>2111.3651179564708</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -10905,7 +11846,7 @@
         <v>2126.9810170076485</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -10932,7 +11873,7 @@
         <v>2126.6232149404254</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -10959,7 +11900,7 @@
         <v>2133.7700773149759</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -10986,7 +11927,7 @@
         <v>2130.164611490241</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -11013,7 +11954,7 @@
         <v>2110.4563693728801</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -11040,7 +11981,7 @@
         <v>2121.5709146979925</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -11067,7 +12008,7 @@
         <v>2122.5929531780098</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -11094,7 +12035,7 @@
         <v>2127.430931636176</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -11121,7 +12062,7 @@
         <v>4369.5945861058735</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -11156,7 +12097,7 @@
         <v>2069.0479921363681</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -11183,7 +12124,7 @@
         <v>2233.8228196525174</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -11210,7 +12151,7 @@
         <v>2249.3760185690962</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -11237,7 +12178,7 @@
         <v>1950.9815995850784</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -11264,7 +12205,7 @@
         <v>1367.0070216480042</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -11291,7 +12232,7 @@
         <v>1726.1502666648234</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -11318,7 +12259,7 @@
         <v>1108.4612035372136</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -11345,7 +12286,7 @@
         <v>1337.0736787196481</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -11372,7 +12313,7 @@
         <v>2262.6564835536033</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -11399,7 +12340,7 @@
         <v>2256.7519354711121</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -11426,7 +12367,7 @@
         <v>2252.4555472540437</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -11453,7 +12394,7 @@
         <v>2253.3586322338083</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -11480,7 +12421,7 @@
         <v>2257.7295933432706</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -11507,7 +12448,7 @@
         <v>2254.629095964011</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -11534,7 +12475,7 @@
         <v>2259.673915350083</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -11561,7 +12502,7 @@
         <v>2057.4609877408625</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -11588,7 +12529,7 @@
         <v>2255.6740539803154</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -11615,7 +12556,7 @@
         <v>2197.6517670515013</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -11642,7 +12583,7 @@
         <v>1956.2432272396773</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -11669,7 +12610,7 @@
         <v>2274.3078605855098</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -11696,7 +12637,7 @@
         <v>2134.4535020279941</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -11723,7 +12664,7 @@
         <v>2233.2022044060682</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -11750,7 +12691,7 @@
         <v>2161.278575287115</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -11777,7 +12718,7 @@
         <v>1374.6896734654974</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -11804,7 +12745,7 @@
         <v>1865.6506585853342</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -11831,7 +12772,7 @@
         <v>2123.0987060921179</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -11858,7 +12799,7 @@
         <v>2264.4361027040686</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -11885,7 +12826,7 @@
         <v>2277.1773147008375</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -11912,7 +12853,7 @@
         <v>2272.9478729755438</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -11939,7 +12880,7 @@
         <v>2253.1810437002036</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -11966,7 +12907,7 @@
         <v>2228.2253886442959</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -12007,7 +12948,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12015,17 +12956,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671D50D1-85CE-EB42-947B-5049A4CFD2E5}">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12051,7 +12992,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -12078,7 +13019,7 @@
         <v>2870.1995459758746</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -12105,7 +13046,7 @@
         <v>1822.8731493627906</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>596</v>
       </c>
@@ -12132,7 +13073,7 @@
         <v>1809.8715292191259</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -12159,7 +13100,7 @@
         <v>1714.0976402109322</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>594</v>
       </c>
@@ -12186,7 +13127,7 @@
         <v>1994.2370293478755</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>593</v>
       </c>
@@ -12213,7 +13154,7 @@
         <v>2008.8872177094436</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>592</v>
       </c>
@@ -12240,7 +13181,7 @@
         <v>2013.1582868201901</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>591</v>
       </c>
@@ -12267,7 +13208,7 @@
         <v>2014.4215139520054</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>590</v>
       </c>
@@ -12294,7 +13235,7 @@
         <v>1985.1953257794385</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -12321,7 +13262,7 @@
         <v>2013.6372133408315</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -12348,7 +13289,7 @@
         <v>2034.0914220391478</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>587</v>
       </c>
@@ -12375,7 +13316,7 @@
         <v>2018.7511214797719</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>586</v>
       </c>
@@ -12402,7 +13343,7 @@
         <v>2030.4250775747587</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -12429,7 +13370,7 @@
         <v>2016.8535258587647</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -12456,7 +13397,7 @@
         <v>1859.3612990436675</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -12483,7 +13424,7 @@
         <v>2006.5686222315228</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>582</v>
       </c>
@@ -12510,7 +13451,7 @@
         <v>2016.0150683263535</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>581</v>
       </c>
@@ -12537,7 +13478,7 @@
         <v>1999.8352377334597</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>580</v>
       </c>
@@ -12564,7 +13505,7 @@
         <v>2010.8322476948342</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>579</v>
       </c>
@@ -12591,7 +13532,7 @@
         <v>1997.8507200456133</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>578</v>
       </c>
@@ -12618,7 +13559,7 @@
         <v>2001.8221939298953</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>577</v>
       </c>
@@ -12645,7 +13586,7 @@
         <v>2015.0920446005912</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>576</v>
       </c>
@@ -12672,7 +13613,7 @@
         <v>2036.5575484443352</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>575</v>
       </c>
@@ -12699,7 +13640,7 @@
         <v>2006.0199837563605</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>574</v>
       </c>
@@ -12726,7 +13667,7 @@
         <v>2019.5841427937567</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>573</v>
       </c>
@@ -12753,7 +13694,7 @@
         <v>2003.9368673341264</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>572</v>
       </c>
@@ -12780,7 +13721,7 @@
         <v>2011.074281317756</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>571</v>
       </c>
@@ -12807,7 +13748,7 @@
         <v>2003.1054475521755</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -12834,7 +13775,7 @@
         <v>2013.847568607428</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>569</v>
       </c>
@@ -12861,7 +13802,7 @@
         <v>2009.8676569346596</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -12888,7 +13829,7 @@
         <v>2016.9343112315428</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>567</v>
       </c>
@@ -12915,7 +13856,7 @@
         <v>2017.6216306682559</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -12942,7 +13883,7 @@
         <v>3989.6549945254069</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>566</v>
       </c>
@@ -12969,7 +13910,7 @@
         <v>2360.6900310290403</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>565</v>
       </c>
@@ -12996,7 +13937,7 @@
         <v>2357.1599186597859</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>564</v>
       </c>
@@ -13023,7 +13964,7 @@
         <v>2410.2495449970738</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>563</v>
       </c>
@@ -13050,7 +13991,7 @@
         <v>2393.227831410054</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>562</v>
       </c>
@@ -13077,7 +14018,7 @@
         <v>2391.5402332035696</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>561</v>
       </c>
@@ -13104,7 +14045,7 @@
         <v>2383.7887019552891</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>560</v>
       </c>
@@ -13131,7 +14072,7 @@
         <v>2121.757609578458</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>559</v>
       </c>
@@ -13158,7 +14099,7 @@
         <v>2365.0259594342233</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>558</v>
       </c>
@@ -13185,7 +14126,7 @@
         <v>2390.4224868732922</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>557</v>
       </c>
@@ -13212,7 +14153,7 @@
         <v>2396.7907515058159</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>556</v>
       </c>
@@ -13239,7 +14180,7 @@
         <v>2412.699592332629</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -13266,7 +14207,7 @@
         <v>2391.2962604476238</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>554</v>
       </c>
@@ -13293,7 +14234,7 @@
         <v>2410.5804405018966</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>553</v>
       </c>
@@ -13320,7 +14261,7 @@
         <v>2451.7860053879526</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>552</v>
       </c>
@@ -13347,7 +14288,7 @@
         <v>2379.859473044603</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>551</v>
       </c>
@@ -13374,7 +14315,7 @@
         <v>2422.2829042525668</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>550</v>
       </c>
@@ -13401,7 +14342,7 @@
         <v>2356.4417003930289</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>549</v>
       </c>
@@ -13428,7 +14369,7 @@
         <v>2320.6804582216282</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>548</v>
       </c>
@@ -13455,7 +14396,7 @@
         <v>2440.9812197970127</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -13482,7 +14423,7 @@
         <v>2463.5482868743484</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -13509,7 +14450,7 @@
         <v>2448.9396155969703</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -13536,7 +14477,7 @@
         <v>2418.3440238160238</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -13563,7 +14504,7 @@
         <v>2492.6181540102466</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>543</v>
       </c>
@@ -13590,7 +14531,7 @@
         <v>2465.8489015237856</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>542</v>
       </c>
@@ -13617,7 +14558,7 @@
         <v>2405.977766487872</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>541</v>
       </c>
@@ -13644,7 +14585,7 @@
         <v>2494.6488795617706</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>540</v>
       </c>
@@ -13671,7 +14612,7 @@
         <v>2488.9753134499924</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>539</v>
       </c>
@@ -13698,7 +14639,7 @@
         <v>2500.044072705794</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>538</v>
       </c>
@@ -13725,7 +14666,7 @@
         <v>2238.9161984444054</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>537</v>
       </c>
@@ -13752,7 +14693,7 @@
         <v>2236.279875774313</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>536</v>
       </c>
@@ -13779,7 +14720,7 @@
         <v>2244.0267696496476</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>535</v>
       </c>
@@ -13806,7 +14747,7 @@
         <v>2238.4943057008986</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>534</v>
       </c>
@@ -13833,7 +14774,7 @@
         <v>2234.7666593011118</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -13860,7 +14801,7 @@
         <v>2247.4230807871668</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>532</v>
       </c>
@@ -13887,7 +14828,7 @@
         <v>2247.3196667140651</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>531</v>
       </c>
@@ -13914,7 +14855,7 @@
         <v>2230.5963808474426</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>530</v>
       </c>
@@ -13941,7 +14882,7 @@
         <v>2205.2170298414107</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>529</v>
       </c>
@@ -13968,7 +14909,7 @@
         <v>2067.2314935949144</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -13995,7 +14936,7 @@
         <v>2236.3127846671341</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>527</v>
       </c>
@@ -14022,7 +14963,7 @@
         <v>2157.5369971568389</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>526</v>
       </c>
@@ -14049,7 +14990,7 @@
         <v>2244.8682830396956</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>525</v>
       </c>
@@ -14076,7 +15017,7 @@
         <v>2240.8950636307304</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>524</v>
       </c>
@@ -14103,7 +15044,7 @@
         <v>2245.5095318159679</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>523</v>
       </c>
@@ -14130,7 +15071,7 @@
         <v>2243.5710710883468</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -14157,7 +15098,7 @@
         <v>2244.557223076687</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>521</v>
       </c>
@@ -14184,7 +15125,7 @@
         <v>2237.1301047395705</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>520</v>
       </c>
@@ -14211,7 +15152,7 @@
         <v>2236.4609525448409</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>519</v>
       </c>
@@ -14238,7 +15179,7 @@
         <v>2238.7740293959691</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>518</v>
       </c>
@@ -14265,7 +15206,7 @@
         <v>2233.3985197658676</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -14292,7 +15233,7 @@
         <v>2252.4870573177072</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>516</v>
       </c>
@@ -14319,7 +15260,7 @@
         <v>2244.720068785814</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>515</v>
       </c>
@@ -14346,7 +15287,7 @@
         <v>2244.2910707338224</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>514</v>
       </c>
@@ -14373,7 +15314,7 @@
         <v>2246.1744510374047</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>513</v>
       </c>
@@ -14400,7 +15341,7 @@
         <v>2242.0260777962308</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>512</v>
       </c>
@@ -14427,7 +15368,7 @@
         <v>2252.3645399309094</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -14454,7 +15395,7 @@
         <v>2247.3757458666923</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>510</v>
       </c>
@@ -14481,7 +15422,7 @@
         <v>2245.7601118074804</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>509</v>
       </c>
@@ -14508,7 +15449,7 @@
         <v>2486.2637606758708</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>508</v>
       </c>
@@ -14535,7 +15476,7 @@
         <v>2427.3703426181983</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>507</v>
       </c>
@@ -14562,7 +15503,7 @@
         <v>2232.3239875807808</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>506</v>
       </c>
@@ -14589,7 +15530,7 @@
         <v>2444.282411375787</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>505</v>
       </c>
@@ -14616,7 +15557,7 @@
         <v>2458.1243281744028</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>504</v>
       </c>
@@ -14643,7 +15584,7 @@
         <v>2490.8962862076191</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>503</v>
       </c>
@@ -14670,7 +15611,7 @@
         <v>2340.8507620235264</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>502</v>
       </c>
@@ -14697,7 +15638,7 @@
         <v>2366.8150265122817</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>501</v>
       </c>
@@ -14724,7 +15665,7 @@
         <v>2330.9605797920085</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>500</v>
       </c>
@@ -14751,7 +15692,7 @@
         <v>2348.5613480785842</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -14778,7 +15719,7 @@
         <v>2327.6831379315799</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>498</v>
       </c>
@@ -14805,7 +15746,7 @@
         <v>2344.942130112006</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>497</v>
       </c>
@@ -14832,7 +15773,7 @@
         <v>2303.3257667138596</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>496</v>
       </c>
@@ -14859,7 +15800,7 @@
         <v>2350.3104308940938</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -14886,7 +15827,7 @@
         <v>2317.4503043186819</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>494</v>
       </c>
@@ -14913,7 +15854,7 @@
         <v>2347.3276600259005</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>493</v>
       </c>
@@ -14940,7 +15881,7 @@
         <v>2323.7377761359094</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>492</v>
       </c>
@@ -14967,7 +15908,7 @@
         <v>2349.6360439402588</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>491</v>
       </c>
@@ -14994,7 +15935,7 @@
         <v>2322.4938262321994</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>490</v>
       </c>
@@ -15021,7 +15962,7 @@
         <v>2290.5391149839247</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>489</v>
       </c>
@@ -15048,7 +15989,7 @@
         <v>2315.7689832133146</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>488</v>
       </c>
@@ -15075,7 +16016,7 @@
         <v>2320.6806702813888</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>487</v>
       </c>
@@ -15102,7 +16043,7 @@
         <v>2459.1897703003892</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>486</v>
       </c>
@@ -15129,7 +16070,7 @@
         <v>2458.6826773888943</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>485</v>
       </c>
@@ -15156,7 +16097,7 @@
         <v>2478.6687918615189</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>484</v>
       </c>
@@ -15183,7 +16124,7 @@
         <v>2482.6172914009812</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>483</v>
       </c>
@@ -15210,7 +16151,7 @@
         <v>2468.5344726402345</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -15237,7 +16178,7 @@
         <v>2461.9029258044793</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>481</v>
       </c>
@@ -15264,7 +16205,7 @@
         <v>2455.3540240542579</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>480</v>
       </c>
@@ -15291,7 +16232,7 @@
         <v>2418.2659962185653</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>479</v>
       </c>
@@ -15318,7 +16259,7 @@
         <v>2403.5064799528254</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>478</v>
       </c>
@@ -15345,7 +16286,7 @@
         <v>2429.0192247933287</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -15372,7 +16313,7 @@
         <v>2446.7352079239236</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>476</v>
       </c>
@@ -15399,7 +16340,7 @@
         <v>2448.6526220514629</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>475</v>
       </c>
@@ -15426,7 +16367,7 @@
         <v>2430.397624348986</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -15453,7 +16394,7 @@
         <v>2455.3762759208785</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>473</v>
       </c>
@@ -15480,7 +16421,7 @@
         <v>2472.6247856785762</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>472</v>
       </c>
@@ -15507,7 +16448,7 @@
         <v>2472.4752933566442</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>471</v>
       </c>
@@ -15534,7 +16475,7 @@
         <v>2463.7167687227088</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>470</v>
       </c>
@@ -15561,7 +16502,7 @@
         <v>2463.511597242345</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>469</v>
       </c>
@@ -15588,7 +16529,7 @@
         <v>2472.9342716945016</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>468</v>
       </c>
@@ -15615,7 +16556,7 @@
         <v>2443.0760971134696</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -15642,7 +16583,7 @@
         <v>2459.9843135704982</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>466</v>
       </c>
@@ -15669,7 +16610,7 @@
         <v>2459.9931262612126</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>465</v>
       </c>
@@ -15696,7 +16637,7 @@
         <v>2396.4632591910758</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>464</v>
       </c>
@@ -15723,7 +16664,7 @@
         <v>2390.740934466377</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>463</v>
       </c>
@@ -15750,7 +16691,7 @@
         <v>2398.4404248752244</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>462</v>
       </c>
@@ -15777,7 +16718,7 @@
         <v>2404.3534806774874</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>461</v>
       </c>
@@ -15804,7 +16745,7 @@
         <v>2365.8038996638279</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>460</v>
       </c>
@@ -15831,7 +16772,7 @@
         <v>2411.6185127303202</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>459</v>
       </c>
@@ -15858,7 +16799,7 @@
         <v>2293.0276787580847</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>458</v>
       </c>
@@ -15885,7 +16826,7 @@
         <v>2405.7202359446846</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>457</v>
       </c>
@@ -15912,7 +16853,7 @@
         <v>2406.4566256277217</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>456</v>
       </c>
@@ -15939,7 +16880,7 @@
         <v>2405.0423311141453</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>455</v>
       </c>
@@ -15966,7 +16907,7 @@
         <v>2407.9715741448758</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -15993,7 +16934,7 @@
         <v>3844.2677601897963</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>454</v>
       </c>
@@ -16020,7 +16961,7 @@
         <v>2097.8691603002712</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>453</v>
       </c>
@@ -16047,7 +16988,7 @@
         <v>2082.3933455330407</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>452</v>
       </c>
@@ -16074,7 +17015,7 @@
         <v>2089.8072390577986</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -16101,7 +17042,7 @@
         <v>2083.2740331315454</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -16128,7 +17069,7 @@
         <v>2043.2431495098886</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>449</v>
       </c>
@@ -16155,7 +17096,7 @@
         <v>2042.7104951776209</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -16182,7 +17123,7 @@
         <v>2021.8376971590096</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -16209,7 +17150,7 @@
         <v>2020.061094131775</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -16236,7 +17177,7 @@
         <v>2077.5953998377659</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>445</v>
       </c>
@@ -16263,7 +17204,7 @@
         <v>2070.5131821287491</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>444</v>
       </c>
@@ -16290,7 +17231,7 @@
         <v>2039.7835203470456</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>443</v>
       </c>
@@ -16317,7 +17258,7 @@
         <v>2085.2904143725195</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -16344,7 +17285,7 @@
         <v>2083.6957165373619</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>441</v>
       </c>
@@ -16371,7 +17312,7 @@
         <v>2077.9176949076241</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>440</v>
       </c>
@@ -16398,7 +17339,7 @@
         <v>2081.584839022888</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -16425,7 +17366,7 @@
         <v>2084.9382480320514</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -16452,7 +17393,7 @@
         <v>2069.6871404229232</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -16479,7 +17420,7 @@
         <v>2087.9080187301261</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -16506,7 +17447,7 @@
         <v>2085.0982821647799</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>435</v>
       </c>
@@ -16533,7 +17474,7 @@
         <v>2080.3714364792136</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>434</v>
       </c>
@@ -16560,7 +17501,7 @@
         <v>2095.4037356258077</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>433</v>
       </c>
@@ -16587,7 +17528,7 @@
         <v>2083.2940788706987</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>432</v>
       </c>
@@ -16614,7 +17555,7 @@
         <v>2091.862626794908</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -16641,7 +17582,7 @@
         <v>2092.0782266285519</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>430</v>
       </c>
@@ -16668,7 +17609,7 @@
         <v>2090.1698200106148</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>429</v>
       </c>
@@ -16695,7 +17636,7 @@
         <v>1986.3421817089466</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>428</v>
       </c>
@@ -16722,7 +17663,7 @@
         <v>2015.0929068344599</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>427</v>
       </c>
@@ -16749,7 +17690,7 @@
         <v>2065.2277899741575</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>426</v>
       </c>
@@ -16776,7 +17717,7 @@
         <v>1940.2941194050361</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -16803,7 +17744,7 @@
         <v>1943.0163813895758</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>424</v>
       </c>
@@ -16830,7 +17771,7 @@
         <v>2007.3880592251571</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -16857,7 +17798,7 @@
         <v>4126.8421705865403</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>423</v>
       </c>
@@ -16884,7 +17825,7 @@
         <v>2184.1380409269573</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>422</v>
       </c>
@@ -16911,7 +17852,7 @@
         <v>2219.2025412647718</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>421</v>
       </c>
@@ -16938,7 +17879,7 @@
         <v>1529.0051692634095</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>420</v>
       </c>
@@ -16965,7 +17906,7 @@
         <v>1191.6145136994769</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>419</v>
       </c>
@@ -16992,7 +17933,7 @@
         <v>1126.6069085577265</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>418</v>
       </c>
@@ -17019,7 +17960,7 @@
         <v>1206.0214438397616</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>417</v>
       </c>
@@ -17046,7 +17987,7 @@
         <v>1526.60486428529</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>416</v>
       </c>
@@ -17073,7 +18014,7 @@
         <v>1872.6808967484887</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -17100,7 +18041,7 @@
         <v>2170.6415878381918</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>414</v>
       </c>
@@ -17127,7 +18068,7 @@
         <v>2171.2841849980941</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>413</v>
       </c>
@@ -17154,7 +18095,7 @@
         <v>2215.2536820414007</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>412</v>
       </c>
@@ -17181,7 +18122,7 @@
         <v>2231.9153603437198</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>411</v>
       </c>
@@ -17208,7 +18149,7 @@
         <v>2197.6776827762833</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -17235,7 +18176,7 @@
         <v>2196.5274281383126</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>409</v>
       </c>
@@ -17262,7 +18203,7 @@
         <v>2251.5168929317811</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -17289,7 +18230,7 @@
         <v>2240.9670001262739</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -17316,7 +18257,7 @@
         <v>2242.6272509913292</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -17343,7 +18284,7 @@
         <v>2254.1287426527424</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -17370,7 +18311,7 @@
         <v>2243.3504695441661</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -17397,7 +18338,7 @@
         <v>2235.5071891735256</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -17424,7 +18365,7 @@
         <v>2248.5975588955494</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -17451,7 +18392,7 @@
         <v>2245.7551549026584</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -17478,7 +18419,7 @@
         <v>2242.407396958366</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -17505,7 +18446,7 @@
         <v>2236.4125511396865</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -17532,7 +18473,7 @@
         <v>2221.7763988424799</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -17559,7 +18500,7 @@
         <v>2169.5631890526411</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>397</v>
       </c>
@@ -17586,7 +18527,7 @@
         <v>2191.4433736171068</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>396</v>
       </c>
@@ -17613,7 +18554,7 @@
         <v>2122.1253714580594</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>395</v>
       </c>
@@ -17640,7 +18581,7 @@
         <v>2176.9484236971907</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>394</v>
       </c>
@@ -17667,7 +18608,7 @@
         <v>2250.5988691287052</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>393</v>
       </c>
@@ -17694,7 +18635,7 @@
         <v>2231.0770663182188</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>392</v>
       </c>
@@ -17721,7 +18662,7 @@
         <v>2193.6248771123974</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>391</v>
       </c>
@@ -17748,7 +18689,7 @@
         <v>2184.8653474882321</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>390</v>
       </c>
@@ -17775,7 +18716,7 @@
         <v>2184.4346399817059</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -17802,7 +18743,7 @@
         <v>2152.7215836512451</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>388</v>
       </c>
@@ -17829,7 +18770,7 @@
         <v>1562.082794596678</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>387</v>
       </c>
@@ -17856,7 +18797,7 @@
         <v>1963.967129068915</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>386</v>
       </c>
@@ -17883,7 +18824,7 @@
         <v>1997.8118349421122</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>385</v>
       </c>
@@ -17910,7 +18851,7 @@
         <v>2140.9973796152935</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>384</v>
       </c>
@@ -17937,7 +18878,7 @@
         <v>2059.6689134945855</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>383</v>
       </c>
@@ -17964,7 +18905,7 @@
         <v>2173.4989754334988</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>382</v>
       </c>
@@ -17991,7 +18932,7 @@
         <v>2248.9718201406431</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>381</v>
       </c>
@@ -18018,7 +18959,7 @@
         <v>2249.4205103826298</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>380</v>
       </c>
@@ -18045,7 +18986,7 @@
         <v>2244.5338685322495</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>379</v>
       </c>
@@ -18072,7 +19013,7 @@
         <v>2239.2705607636799</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>378</v>
       </c>
@@ -18099,7 +19040,7 @@
         <v>2249.6225903934892</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>377</v>
       </c>
@@ -18126,7 +19067,7 @@
         <v>2245.4877979038561</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>376</v>
       </c>
@@ -18153,7 +19094,7 @@
         <v>2248.0040385223556</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>375</v>
       </c>
@@ -18180,7 +19121,7 @@
         <v>2237.8547816610599</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>374</v>
       </c>
@@ -18207,7 +19148,7 @@
         <v>2234.864639614188</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>373</v>
       </c>
@@ -18234,7 +19175,7 @@
         <v>2234.9566235840584</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>372</v>
       </c>
@@ -18261,7 +19202,7 @@
         <v>2254.3687012053474</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>371</v>
       </c>
@@ -18288,7 +19229,7 @@
         <v>2256.3391558424446</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>370</v>
       </c>
@@ -18315,7 +19256,7 @@
         <v>2249.1314241636105</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>369</v>
       </c>
@@ -18342,7 +19283,7 @@
         <v>2253.4657189825771</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -18369,7 +19310,7 @@
         <v>2104.2648323623935</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>367</v>
       </c>
@@ -18396,7 +19337,7 @@
         <v>1994.8122288889826</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>366</v>
       </c>
@@ -18423,7 +19364,7 @@
         <v>1996.5393204176776</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>365</v>
       </c>
@@ -18450,7 +19391,7 @@
         <v>2085.9314659065481</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>364</v>
       </c>
@@ -18477,7 +19418,7 @@
         <v>2003.6488138416585</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>363</v>
       </c>
@@ -18504,7 +19445,7 @@
         <v>2047.6109617098048</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>362</v>
       </c>
@@ -18531,7 +19472,7 @@
         <v>2223.2643573539731</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>361</v>
       </c>
@@ -18558,7 +19499,7 @@
         <v>2151.2527210126436</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>360</v>
       </c>
@@ -18585,7 +19526,7 @@
         <v>2182.1157293129272</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>359</v>
       </c>
@@ -18612,7 +19553,7 @@
         <v>2209.1852228597681</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>358</v>
       </c>
@@ -18639,7 +19580,7 @@
         <v>2242.4233134547344</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -18666,7 +19607,7 @@
         <v>2245.7863247394293</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>356</v>
       </c>
@@ -18693,7 +19634,7 @@
         <v>2251.333921470939</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>355</v>
       </c>
@@ -18720,7 +19661,7 @@
         <v>2246.4450153957409</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>354</v>
       </c>
@@ -18747,7 +19688,7 @@
         <v>2249.2732452516948</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>353</v>
       </c>
@@ -18774,7 +19715,7 @@
         <v>2232.5761569240194</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>352</v>
       </c>
@@ -18801,7 +19742,7 @@
         <v>2171.4790527232685</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>351</v>
       </c>
@@ -18828,7 +19769,7 @@
         <v>2241.9962240285067</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>350</v>
       </c>
@@ -18855,7 +19796,7 @@
         <v>2250.5945237714477</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>349</v>
       </c>
@@ -18882,7 +19823,7 @@
         <v>2230.9645881341276</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>348</v>
       </c>
@@ -18909,7 +19850,7 @@
         <v>2234.3454977777701</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>347</v>
       </c>
@@ -18936,7 +19877,7 @@
         <v>2242.9140191307069</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>346</v>
       </c>
@@ -18963,7 +19904,7 @@
         <v>2243.8253780507307</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>345</v>
       </c>
@@ -18986,11 +19927,11 @@
         <v>75.612147140000005</v>
       </c>
       <c r="H258">
-        <f t="shared" ref="H258:H321" si="4">(B258+C258)/G258</f>
+        <f t="shared" ref="H258:H273" si="4">(B258+C258)/G258</f>
         <v>2249.2285490201461</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -19017,7 +19958,7 @@
         <v>2239.4038320094551</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>343</v>
       </c>
@@ -19044,7 +19985,7 @@
         <v>2252.1646525951619</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -19071,7 +20012,7 @@
         <v>2240.4314904983521</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -19098,7 +20039,7 @@
         <v>2246.1168757981063</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>340</v>
       </c>
@@ -19125,7 +20066,7 @@
         <v>2080.6914216395849</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>339</v>
       </c>
@@ -19152,7 +20093,7 @@
         <v>1910.9906660358893</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>338</v>
       </c>
@@ -19179,7 +20120,7 @@
         <v>2007.2987776701812</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>337</v>
       </c>
@@ -19206,7 +20147,7 @@
         <v>2089.7238486081847</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>336</v>
       </c>
@@ -19233,7 +20174,7 @@
         <v>2152.0267900649696</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>335</v>
       </c>
@@ -19260,7 +20201,7 @@
         <v>2182.4833290254633</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -19287,7 +20228,7 @@
         <v>2194.4791532203167</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>333</v>
       </c>
@@ -19314,7 +20255,7 @@
         <v>2180.2796249482653</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -19341,7 +20282,7 @@
         <v>2166.676361369925</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -19368,7 +20309,7 @@
         <v>2179.3166648498072</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>330</v>
       </c>
@@ -19409,6 +20350,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -19416,17 +20358,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D2DD8-2C20-3749-8214-0315492B8D93}">
   <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19455,7 +20397,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -19486,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -19517,7 +20459,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>596</v>
       </c>
@@ -19548,7 +20490,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -19579,7 +20521,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>594</v>
       </c>
@@ -19610,7 +20552,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>593</v>
       </c>
@@ -19641,7 +20583,7 @@
         <v>0.44328426628635459</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>592</v>
       </c>
@@ -19672,7 +20614,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>591</v>
       </c>
@@ -19703,7 +20645,7 @@
         <v>0.44294604752543826</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>590</v>
       </c>
@@ -19734,7 +20676,7 @@
         <v>0.444077539289427</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -19765,7 +20707,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -19796,7 +20738,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>587</v>
       </c>
@@ -19827,7 +20769,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>586</v>
       </c>
@@ -19858,7 +20800,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -19889,7 +20831,7 @@
         <v>0.44324351856568023</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -19920,7 +20862,7 @@
         <v>0.44294604752543826</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -19951,7 +20893,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>582</v>
       </c>
@@ -19982,7 +20924,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>581</v>
       </c>
@@ -20013,7 +20955,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>580</v>
       </c>
@@ -20044,7 +20986,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>579</v>
       </c>
@@ -20075,7 +21017,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>578</v>
       </c>
@@ -20106,7 +21048,7 @@
         <v>0.44316329856584091</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>577</v>
       </c>
@@ -20137,7 +21079,7 @@
         <v>0.44294604752543826</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>576</v>
       </c>
@@ -20168,7 +21110,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>575</v>
       </c>
@@ -20199,7 +21141,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>574</v>
       </c>
@@ -20230,7 +21172,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>573</v>
       </c>
@@ -20261,7 +21203,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>572</v>
       </c>
@@ -20292,7 +21234,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>571</v>
       </c>
@@ -20323,7 +21265,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -20354,7 +21296,7 @@
         <v>0.44312255541069101</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>569</v>
       </c>
@@ -20385,7 +21327,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -20416,7 +21358,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>567</v>
       </c>
@@ -20447,7 +21389,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -20478,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>566</v>
       </c>
@@ -20509,7 +21451,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>565</v>
       </c>
@@ -20540,7 +21482,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>564</v>
       </c>
@@ -20571,7 +21513,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>563</v>
       </c>
@@ -20602,7 +21544,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>562</v>
       </c>
@@ -20633,7 +21575,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>561</v>
       </c>
@@ -20664,7 +21606,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>560</v>
       </c>
@@ -20695,7 +21637,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>559</v>
       </c>
@@ -20726,7 +21668,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>558</v>
       </c>
@@ -20757,7 +21699,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>557</v>
       </c>
@@ -20788,7 +21730,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>556</v>
       </c>
@@ -20819,7 +21761,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -20850,7 +21792,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>554</v>
       </c>
@@ -20881,7 +21823,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>553</v>
       </c>
@@ -20912,7 +21854,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>552</v>
       </c>
@@ -20943,7 +21885,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>551</v>
       </c>
@@ -20974,7 +21916,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>550</v>
       </c>
@@ -21005,7 +21947,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>549</v>
       </c>
@@ -21036,7 +21978,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>548</v>
       </c>
@@ -21067,7 +22009,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -21098,7 +22040,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -21129,7 +22071,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -21160,7 +22102,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -21191,7 +22133,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>543</v>
       </c>
@@ -21222,7 +22164,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>542</v>
       </c>
@@ -21253,7 +22195,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>541</v>
       </c>
@@ -21284,7 +22226,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>540</v>
       </c>
@@ -21315,7 +22257,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>539</v>
       </c>
@@ -21346,7 +22288,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>538</v>
       </c>
@@ -21377,7 +22319,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>537</v>
       </c>
@@ -21408,7 +22350,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>536</v>
       </c>
@@ -21439,7 +22381,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>535</v>
       </c>
@@ -21470,7 +22412,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>534</v>
       </c>
@@ -21501,7 +22443,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -21532,7 +22474,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>532</v>
       </c>
@@ -21563,7 +22505,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>531</v>
       </c>
@@ -21594,7 +22536,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>530</v>
       </c>
@@ -21625,7 +22567,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>529</v>
       </c>
@@ -21656,7 +22598,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -21687,7 +22629,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>527</v>
       </c>
@@ -21718,7 +22660,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>526</v>
       </c>
@@ -21749,7 +22691,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>525</v>
       </c>
@@ -21780,7 +22722,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>524</v>
       </c>
@@ -21811,7 +22753,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>523</v>
       </c>
@@ -21842,7 +22784,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -21873,7 +22815,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>521</v>
       </c>
@@ -21904,7 +22846,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>520</v>
       </c>
@@ -21935,7 +22877,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>519</v>
       </c>
@@ -21966,7 +22908,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>518</v>
       </c>
@@ -21997,7 +22939,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -22028,7 +22970,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>516</v>
       </c>
@@ -22059,7 +23001,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>515</v>
       </c>
@@ -22090,7 +23032,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>514</v>
       </c>
@@ -22121,7 +23063,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>513</v>
       </c>
@@ -22152,7 +23094,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>512</v>
       </c>
@@ -22183,7 +23125,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -22214,7 +23156,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>510</v>
       </c>
@@ -22245,7 +23187,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>509</v>
       </c>
@@ -22276,7 +23218,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>508</v>
       </c>
@@ -22307,7 +23249,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>507</v>
       </c>
@@ -22338,7 +23280,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>506</v>
       </c>
@@ -22369,7 +23311,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>505</v>
       </c>
@@ -22400,7 +23342,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>504</v>
       </c>
@@ -22431,7 +23373,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>503</v>
       </c>
@@ -22462,7 +23404,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>502</v>
       </c>
@@ -22493,7 +23435,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>501</v>
       </c>
@@ -22524,7 +23466,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>500</v>
       </c>
@@ -22555,7 +23497,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -22586,7 +23528,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>498</v>
       </c>
@@ -22617,7 +23559,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>497</v>
       </c>
@@ -22648,7 +23590,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>496</v>
       </c>
@@ -22679,7 +23621,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -22710,7 +23652,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>494</v>
       </c>
@@ -22741,7 +23683,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>493</v>
       </c>
@@ -22772,7 +23714,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>492</v>
       </c>
@@ -22803,7 +23745,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>491</v>
       </c>
@@ -22834,7 +23776,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>490</v>
       </c>
@@ -22865,7 +23807,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>489</v>
       </c>
@@ -22896,7 +23838,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>488</v>
       </c>
@@ -22927,7 +23869,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>487</v>
       </c>
@@ -22958,7 +23900,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>486</v>
       </c>
@@ -22989,7 +23931,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>485</v>
       </c>
@@ -23020,7 +23962,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>484</v>
       </c>
@@ -23051,7 +23993,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>483</v>
       </c>
@@ -23082,7 +24024,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -23113,7 +24055,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>481</v>
       </c>
@@ -23144,7 +24086,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>480</v>
       </c>
@@ -23175,7 +24117,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>479</v>
       </c>
@@ -23206,7 +24148,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>478</v>
       </c>
@@ -23237,7 +24179,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -23268,7 +24210,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>476</v>
       </c>
@@ -23299,7 +24241,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>475</v>
       </c>
@@ -23330,7 +24272,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -23361,7 +24303,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>473</v>
       </c>
@@ -23392,7 +24334,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>472</v>
       </c>
@@ -23423,7 +24365,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>471</v>
       </c>
@@ -23454,7 +24396,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>470</v>
       </c>
@@ -23485,7 +24427,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>469</v>
       </c>
@@ -23516,7 +24458,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>468</v>
       </c>
@@ -23547,7 +24489,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -23578,7 +24520,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>466</v>
       </c>
@@ -23609,7 +24551,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>465</v>
       </c>
@@ -23640,7 +24582,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>464</v>
       </c>
@@ -23671,7 +24613,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>463</v>
       </c>
@@ -23702,7 +24644,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>462</v>
       </c>
@@ -23733,7 +24675,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>461</v>
       </c>
@@ -23764,7 +24706,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>460</v>
       </c>
@@ -23795,7 +24737,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>459</v>
       </c>
@@ -23826,7 +24768,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>458</v>
       </c>
@@ -23857,7 +24799,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>457</v>
       </c>
@@ -23888,7 +24830,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>456</v>
       </c>
@@ -23919,7 +24861,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>455</v>
       </c>
@@ -23950,7 +24892,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -23981,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>454</v>
       </c>
@@ -24012,7 +24954,7 @@
         <v>0.49003449597546955</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>453</v>
       </c>
@@ -24043,7 +24985,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>452</v>
       </c>
@@ -24074,7 +25016,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -24105,7 +25047,7 @@
         <v>0.49013131939356364</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -24136,7 +25078,7 @@
         <v>0.49011982460293307</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>449</v>
       </c>
@@ -24167,7 +25109,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -24198,7 +25140,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -24229,7 +25171,7 @@
         <v>0.49013684424104426</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -24260,7 +25202,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>445</v>
       </c>
@@ -24291,7 +25233,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>444</v>
       </c>
@@ -24322,7 +25264,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>443</v>
       </c>
@@ -24353,7 +25295,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -24384,7 +25326,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>441</v>
       </c>
@@ -24415,7 +25357,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>440</v>
       </c>
@@ -24446,7 +25388,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -24477,7 +25419,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -24508,7 +25450,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -24539,7 +25481,7 @@
         <v>0.49011982460293307</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -24570,7 +25512,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>435</v>
       </c>
@@ -24601,7 +25543,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>434</v>
       </c>
@@ -24632,7 +25574,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>433</v>
       </c>
@@ -24663,7 +25605,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>432</v>
       </c>
@@ -24694,7 +25636,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -24725,7 +25667,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>430</v>
       </c>
@@ -24756,7 +25698,7 @@
         <v>0.49013684424104426</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>429</v>
       </c>
@@ -24787,7 +25729,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>428</v>
       </c>
@@ -24818,7 +25760,7 @@
         <v>0.49001172438672441</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>427</v>
       </c>
@@ -24849,7 +25791,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>426</v>
       </c>
@@ -24880,7 +25822,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -24911,7 +25853,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>424</v>
       </c>
@@ -24942,7 +25884,7 @@
         <v>0.48945890156001487</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -24973,7 +25915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>423</v>
       </c>
@@ -25004,7 +25946,7 @@
         <v>0.21785496037907856</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>422</v>
       </c>
@@ -25035,7 +25977,7 @@
         <v>0.21798744595901151</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>421</v>
       </c>
@@ -25066,7 +26008,7 @@
         <v>0.21784494244698011</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>420</v>
       </c>
@@ -25097,7 +26039,7 @@
         <v>0.21785496037907856</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>419</v>
       </c>
@@ -25128,7 +26070,7 @@
         <v>0.21784494244698011</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>418</v>
       </c>
@@ -25159,7 +26101,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>417</v>
       </c>
@@ -25190,7 +26132,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>416</v>
       </c>
@@ -25221,7 +26163,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -25252,7 +26194,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>414</v>
       </c>
@@ -25283,7 +26225,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>413</v>
       </c>
@@ -25314,7 +26256,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>412</v>
       </c>
@@ -25345,7 +26287,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>411</v>
       </c>
@@ -25376,7 +26318,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -25407,7 +26349,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>409</v>
       </c>
@@ -25438,7 +26380,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -25469,7 +26411,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -25500,7 +26442,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -25531,7 +26473,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -25562,7 +26504,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -25593,7 +26535,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -25624,7 +26566,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -25655,7 +26597,7 @@
         <v>0.21795648885170843</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -25686,7 +26628,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -25717,7 +26659,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -25748,7 +26690,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -25779,7 +26721,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>397</v>
       </c>
@@ -25810,7 +26752,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>396</v>
       </c>
@@ -25841,7 +26783,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>395</v>
       </c>
@@ -25872,7 +26814,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>394</v>
       </c>
@@ -25903,7 +26845,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>393</v>
       </c>
@@ -25934,7 +26876,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>392</v>
       </c>
@@ -25965,7 +26907,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>391</v>
       </c>
@@ -25996,7 +26938,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>390</v>
       </c>
@@ -26027,7 +26969,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -26058,7 +27000,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>388</v>
       </c>
@@ -26089,7 +27031,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>387</v>
       </c>
@@ -26120,7 +27062,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>386</v>
       </c>
@@ -26151,7 +27093,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>385</v>
       </c>
@@ -26182,7 +27124,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>384</v>
       </c>
@@ -26213,7 +27155,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>383</v>
       </c>
@@ -26244,7 +27186,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>382</v>
       </c>
@@ -26275,7 +27217,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>381</v>
       </c>
@@ -26306,7 +27248,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>380</v>
       </c>
@@ -26337,7 +27279,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>379</v>
       </c>
@@ -26368,7 +27310,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>378</v>
       </c>
@@ -26399,7 +27341,7 @@
         <v>0.21785496037907856</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>377</v>
       </c>
@@ -26430,7 +27372,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>376</v>
       </c>
@@ -26461,7 +27403,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>375</v>
       </c>
@@ -26492,7 +27434,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>374</v>
       </c>
@@ -26523,7 +27465,7 @@
         <v>0.21784494244698011</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>373</v>
       </c>
@@ -26554,7 +27496,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>372</v>
       </c>
@@ -26585,7 +27527,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>371</v>
       </c>
@@ -26616,7 +27558,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>370</v>
       </c>
@@ -26647,7 +27589,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>369</v>
       </c>
@@ -26678,7 +27620,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -26709,7 +27651,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>367</v>
       </c>
@@ -26740,7 +27682,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>366</v>
       </c>
@@ -26771,7 +27713,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>365</v>
       </c>
@@ -26802,7 +27744,7 @@
         <v>0.21988719616226091</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>364</v>
       </c>
@@ -26833,7 +27775,7 @@
         <v>0.21825579763885269</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>363</v>
       </c>
@@ -26864,7 +27806,7 @@
         <v>0.21833124530192935</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>362</v>
       </c>
@@ -26895,7 +27837,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>361</v>
       </c>
@@ -26926,7 +27868,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>360</v>
       </c>
@@ -26957,7 +27899,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>359</v>
       </c>
@@ -26988,7 +27930,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>358</v>
       </c>
@@ -27019,7 +27961,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -27050,7 +27992,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>356</v>
       </c>
@@ -27081,7 +28023,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>355</v>
       </c>
@@ -27112,7 +28054,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>354</v>
       </c>
@@ -27143,7 +28085,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>353</v>
       </c>
@@ -27174,7 +28116,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>352</v>
       </c>
@@ -27205,7 +28147,7 @@
         <v>0.21988719616226091</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>351</v>
       </c>
@@ -27236,7 +28178,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>350</v>
       </c>
@@ -27267,7 +28209,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>349</v>
       </c>
@@ -27298,7 +28240,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>348</v>
       </c>
@@ -27329,7 +28271,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>347</v>
       </c>
@@ -27360,7 +28302,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>346</v>
       </c>
@@ -27391,7 +28333,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>345</v>
       </c>
@@ -27414,7 +28356,7 @@
         <v>151.16371093999999</v>
       </c>
       <c r="H258">
-        <f t="shared" ref="H258:H321" si="8">(B258+C258)/G258</f>
+        <f t="shared" ref="H258:H273" si="8">(B258+C258)/G258</f>
         <v>1320.6939599362022</v>
       </c>
       <c r="I258">
@@ -27422,7 +28364,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -27453,7 +28395,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>343</v>
       </c>
@@ -27484,7 +28426,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -27515,7 +28457,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -27546,7 +28488,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>340</v>
       </c>
@@ -27577,7 +28519,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>339</v>
       </c>
@@ -27608,7 +28550,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>338</v>
       </c>
@@ -27639,7 +28581,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>337</v>
       </c>
@@ -27670,7 +28612,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>336</v>
       </c>
@@ -27701,7 +28643,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>335</v>
       </c>
@@ -27732,7 +28674,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -27763,7 +28705,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>333</v>
       </c>
@@ -27794,7 +28736,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -27825,7 +28767,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -27856,7 +28798,7 @@
         <v>0.21825579763885269</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>330</v>
       </c>
@@ -27913,5 +28855,459 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BB6539-6259-064F-9D44-487D0E540817}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="57" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2">
+        <v>34306</v>
+      </c>
+      <c r="C2">
+        <v>223236</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>443144</v>
+      </c>
+      <c r="G2" s="1">
+        <v>710.03863330000001</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H13" si="0">(B2+C2)/G2</f>
+        <v>362.71547479471496</v>
+      </c>
+      <c r="I2">
+        <f>F2/(B2+C2)</f>
+        <v>1.7206669203469724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3">
+        <v>34306</v>
+      </c>
+      <c r="C3">
+        <v>29573</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>93684</v>
+      </c>
+      <c r="G3" s="1">
+        <v>122.75181316</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>520.39149854949483</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="1">F3/(B3+C3)</f>
+        <v>1.4665852627624101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4">
+        <v>34306</v>
+      </c>
+      <c r="C4">
+        <v>85035</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>175552</v>
+      </c>
+      <c r="G4" s="1">
+        <v>209.55215722</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>569.50499380786096</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.4710116389170529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5">
+        <v>223236</v>
+      </c>
+      <c r="C5">
+        <v>34306</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>443144</v>
+      </c>
+      <c r="G5" s="1">
+        <v>533.96909782</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>482.31630079615007</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.7206669203469724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B6">
+        <v>223236</v>
+      </c>
+      <c r="C6">
+        <v>29573</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>433888</v>
+      </c>
+      <c r="G6" s="1">
+        <v>518.65498030000003</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>487.43193375636804</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.7162680126103105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B7">
+        <v>223236</v>
+      </c>
+      <c r="C7">
+        <v>85035</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>513222</v>
+      </c>
+      <c r="G7" s="1">
+        <v>619.60519297999997</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>497.5281090162693</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.6648403515088996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8">
+        <v>29573</v>
+      </c>
+      <c r="C8">
+        <v>34306</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>93684</v>
+      </c>
+      <c r="G8" s="1">
+        <v>118.16484986</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>540.59223259440444</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.4665852627624101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B9">
+        <v>29573</v>
+      </c>
+      <c r="C9">
+        <v>223236</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>433888</v>
+      </c>
+      <c r="G9" s="1">
+        <v>668.75798859999998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>378.02763377711375</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.7162680126103105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10">
+        <v>29573</v>
+      </c>
+      <c r="C10">
+        <v>85035</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>160784</v>
+      </c>
+      <c r="G10" s="1">
+        <v>196.35014262000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>583.69196207717016</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.4029038112522687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B11">
+        <v>85035</v>
+      </c>
+      <c r="C11">
+        <v>34306</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>175552</v>
+      </c>
+      <c r="G11" s="1">
+        <v>197.12378368</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>605.41147177720404</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.4710116389170529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B12">
+        <v>85035</v>
+      </c>
+      <c r="C12">
+        <v>223236</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>513222</v>
+      </c>
+      <c r="G12" s="1">
+        <v>761.99631060000002</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>404.55707686729579</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.6648403515088996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13">
+        <v>85035</v>
+      </c>
+      <c r="C13">
+        <v>29573</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>160784</v>
+      </c>
+      <c r="G13" s="1">
+        <v>182.84889272000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>626.79077950721535</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.4029038112522687</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H17 I1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="1250"/>
+        <cfvo type="num" val="2000"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/benchmark/measurements/json.xlsx
+++ b/benchmark/measurements/json.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andiderp/repos/truediff/benchmark/measurements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/projects/truediff/benchmark/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D7DDF-5686-594D-97E7-D8A2D4EFC469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C067AE-FA42-4F44-BDC5-C7D2EC457156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="50920" windowHeight="36800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="json_unchanged" sheetId="2" r:id="rId1"/>
@@ -21,17 +21,25 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">json_changeeverything!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">json_changeeverything!$J$2:$J$312</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
     <definedName name="json_changeeverything" localSheetId="4">json_changeeverything!$A$1:$BE$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">json_changeeverything!$P$17:$V$40</definedName>
   </definedNames>
@@ -1957,7 +1965,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2506,7 +2514,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2592,7 +2600,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="9" firstPageNumber="1" orientation="portrait" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -2602,27 +2610,67 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{B9885FD7-C380-9342-8775-A2A1EBB8C5B9}">
+        <cx:series layoutId="boxWhisker" uniqueId="{00000000-C920-774E-99A4-3B9E7F9C625F}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Maximal</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-C920-774E-99A4-3B9E7F9C625F}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Minimal</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -2663,10 +2711,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="2600"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="2600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2687,7 +2735,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr>
+              <a:defRPr sz="2000">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -2696,7 +2744,7 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -3874,8 +3922,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16004692" y="3302823"/>
-              <a:ext cx="4568589" cy="4573669"/>
+              <a:off x="15978498" y="3379023"/>
+              <a:ext cx="4573352" cy="4683206"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3894,7 +3942,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -3913,10 +3961,10 @@
       <xdr:rowOff>26914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>443857</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>36520</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202464</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3952,8 +4000,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7738420" y="3201914"/>
-              <a:ext cx="4572000" cy="4573669"/>
+              <a:off x="7718576" y="3266334"/>
+              <a:ext cx="6637946" cy="7086927"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3972,7 +4020,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -4293,12 +4341,12 @@
       <selection activeCell="I2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4327,7 +4375,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -4357,7 +4405,7 @@
         <v>4240.2433695324198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>321</v>
       </c>
@@ -4387,7 +4435,7 @@
         <v>2968.1531122784081</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -4417,7 +4465,7 @@
         <v>4080.3658412922787</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -4469,17 +4517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4553,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4532,7 +4580,7 @@
         <v>2408.5985995499518</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4567,7 +4615,7 @@
         <v>2176.6384261088392</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4594,7 +4642,7 @@
         <v>2146.9389512865159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4621,7 +4669,7 @@
         <v>2177.5286847003781</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4648,7 +4696,7 @@
         <v>2191.7276296362766</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4675,7 +4723,7 @@
         <v>2196.6845987337938</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4750,7 @@
         <v>2202.0183229067848</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4729,7 +4777,7 @@
         <v>2198.7688332776956</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4756,7 +4804,7 @@
         <v>2206.731506518322</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +4831,7 @@
         <v>2207.926994413162</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4810,7 +4858,7 @@
         <v>2204.3705476414539</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4837,7 +4885,7 @@
         <v>2211.3545028488511</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4864,7 +4912,7 @@
         <v>2213.7192056831423</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4891,7 +4939,7 @@
         <v>2217.298654953001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +4966,7 @@
         <v>2201.4367319464959</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4945,7 +4993,7 @@
         <v>2190.2090112194742</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4972,7 +5020,7 @@
         <v>2195.1702599290443</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4999,7 +5047,7 @@
         <v>2207.4253813296459</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5026,7 +5074,7 @@
         <v>2212.6424494513558</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5053,7 +5101,7 @@
         <v>2190.4408602807644</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5080,7 +5128,7 @@
         <v>2203.1863889808874</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5107,7 +5155,7 @@
         <v>2214.331399774162</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5182,7 @@
         <v>2194.3331079480022</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5161,7 +5209,7 @@
         <v>2206.8647610386238</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5188,7 +5236,7 @@
         <v>2211.2705922470986</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -5215,7 +5263,7 @@
         <v>2201.059411739765</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5242,7 +5290,7 @@
         <v>2200.8808574947461</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -5269,7 +5317,7 @@
         <v>2213.6377151739775</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5296,7 +5344,7 @@
         <v>2201.9436331672837</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -5323,7 +5371,7 @@
         <v>2216.6403354098215</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5350,7 +5398,7 @@
         <v>2051.0008375312682</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -5377,7 +5425,7 @@
         <v>3896.6422040509246</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5412,7 +5460,7 @@
         <v>2405.1851142297132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5439,7 +5487,7 @@
         <v>2508.2819098191449</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5466,7 +5514,7 @@
         <v>2485.090037255216</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -5493,7 +5541,7 @@
         <v>2510.7813778020245</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5520,7 +5568,7 @@
         <v>2502.6383593716723</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -5547,7 +5595,7 @@
         <v>2422.0949051544194</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -5574,7 +5622,7 @@
         <v>2550.9569520665277</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -5601,7 +5649,7 @@
         <v>2567.1060803749738</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5628,7 +5676,7 @@
         <v>2547.9728393217688</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -5655,7 +5703,7 @@
         <v>2422.3112123398137</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5682,7 +5730,7 @@
         <v>2326.7997176452373</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -5709,7 +5757,7 @@
         <v>2496.5494823413551</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5736,7 +5784,7 @@
         <v>2538.0538716853162</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -5763,7 +5811,7 @@
         <v>2554.7756304781183</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5790,7 +5838,7 @@
         <v>2478.1184577382292</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -5817,7 +5865,7 @@
         <v>2572.0357545465399</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5844,7 +5892,7 @@
         <v>2553.5288702614671</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -5871,7 +5919,7 @@
         <v>2547.3736048714695</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5898,7 +5946,7 @@
         <v>2488.9974049557363</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5925,7 +5973,7 @@
         <v>2520.8136693419174</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -5952,7 +6000,7 @@
         <v>2587.0059943664742</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5979,7 +6027,7 @@
         <v>2568.9802900673308</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6006,7 +6054,7 @@
         <v>2572.3870965995766</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -6033,7 +6081,7 @@
         <v>2567.2979996799813</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6060,7 +6108,7 @@
         <v>2556.343980297941</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -6087,7 +6135,7 @@
         <v>2508.3052901569263</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -6114,7 +6162,7 @@
         <v>2386.8028695074927</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -6141,7 +6189,7 @@
         <v>2575.5923258301959</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6168,7 +6216,7 @@
         <v>2582.1968405789867</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -6195,7 +6243,7 @@
         <v>2546.1669688611014</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -6222,7 +6270,7 @@
         <v>2564.9532972819679</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +6297,7 @@
         <v>2574.5514693835194</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -6276,7 +6324,7 @@
         <v>2575.8052126371949</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -6303,7 +6351,7 @@
         <v>2493.7159948205422</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -6330,7 +6378,7 @@
         <v>2401.4325524311193</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -6357,7 +6405,7 @@
         <v>2430.6745356437077</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -6384,7 +6432,7 @@
         <v>2367.4374704138786</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -6411,7 +6459,7 @@
         <v>2370.007846900678</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -6438,7 +6486,7 @@
         <v>2389.7958862996788</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -6465,7 +6513,7 @@
         <v>2546.5429821750649</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -6492,7 +6540,7 @@
         <v>2573.4149158028677</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -6519,7 +6567,7 @@
         <v>2553.3443785444415</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -6546,7 +6594,7 @@
         <v>2542.8664127564502</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -6573,7 +6621,7 @@
         <v>2334.9508699313642</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -6600,7 +6648,7 @@
         <v>2497.8784568263145</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -6627,7 +6675,7 @@
         <v>2506.5097700328183</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -6654,7 +6702,7 @@
         <v>2527.4262469954178</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -6681,7 +6729,7 @@
         <v>2377.0345161952478</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -6708,7 +6756,7 @@
         <v>2398.5894978609167</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -6735,7 +6783,7 @@
         <v>2490.9666748223408</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -6762,7 +6810,7 @@
         <v>2570.7518383450588</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -6789,7 +6837,7 @@
         <v>2343.5371030061051</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -6816,7 +6864,7 @@
         <v>2551.0350467649223</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -6843,7 +6891,7 @@
         <v>2565.5590467042807</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -6870,7 +6918,7 @@
         <v>2575.1921937290949</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -6897,7 +6945,7 @@
         <v>2562.1969007942621</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -6924,7 +6972,7 @@
         <v>2287.9447100173838</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -6951,7 +6999,7 @@
         <v>2282.878239459224</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -6978,7 +7026,7 @@
         <v>2228.8678274959352</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -7005,7 +7053,7 @@
         <v>2273.3400231537112</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -7032,7 +7080,7 @@
         <v>2286.186162244187</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -7059,7 +7107,7 @@
         <v>2288.8618260977396</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -7086,7 +7134,7 @@
         <v>2286.4008142795537</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -7113,7 +7161,7 @@
         <v>2283.8849452201348</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -7140,7 +7188,7 @@
         <v>2285.134778674359</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -7167,7 +7215,7 @@
         <v>2230.1974524649791</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -7194,7 +7242,7 @@
         <v>2282.0460155160231</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -7221,7 +7269,7 @@
         <v>2287.9609352921025</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -7248,7 +7296,7 @@
         <v>2230.115695193696</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -7275,7 +7323,7 @@
         <v>2290.0045296524713</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -7302,7 +7350,7 @@
         <v>2291.8645577555048</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -7329,7 +7377,7 @@
         <v>2286.7127767471688</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -7356,7 +7404,7 @@
         <v>2295.9106478556268</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -7383,7 +7431,7 @@
         <v>2284.2726642749781</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -7410,7 +7458,7 @@
         <v>2283.4656629470201</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -7437,7 +7485,7 @@
         <v>2299.5490148506315</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -7464,7 +7512,7 @@
         <v>2297.9171503894763</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -7491,7 +7539,7 @@
         <v>2293.1949478751908</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -7518,7 +7566,7 @@
         <v>2291.5094485459808</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -7545,7 +7593,7 @@
         <v>2299.0067968293124</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -7572,7 +7620,7 @@
         <v>2275.0459161950316</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -7599,7 +7647,7 @@
         <v>2287.7417825583575</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -7626,7 +7674,7 @@
         <v>2293.551657538505</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -7653,7 +7701,7 @@
         <v>2295.9915183138373</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -7680,7 +7728,7 @@
         <v>2310.1059695764229</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -7707,7 +7755,7 @@
         <v>2290.5635322453327</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -7734,7 +7782,7 @@
         <v>2298.9927153568901</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -7761,7 +7809,7 @@
         <v>2227.0114538470416</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -7788,7 +7836,7 @@
         <v>2221.5329634476175</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -7815,7 +7863,7 @@
         <v>2296.8459974076336</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -7842,7 +7890,7 @@
         <v>2301.0659854751325</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -7869,7 +7917,7 @@
         <v>2300.4924985863554</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -7896,7 +7944,7 @@
         <v>2252.3713566147671</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -7923,7 +7971,7 @@
         <v>2302.4116240166668</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -7950,7 +7998,7 @@
         <v>2281.1065270214499</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -7977,7 +8025,7 @@
         <v>2162.5073541473498</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -8004,7 +8052,7 @@
         <v>2272.2683162992093</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -8031,7 +8079,7 @@
         <v>2291.0461381647542</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -8058,7 +8106,7 @@
         <v>2296.4719187600795</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -8085,7 +8133,7 @@
         <v>2160.2454866601161</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -8112,7 +8160,7 @@
         <v>2230.0313700229826</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -8139,7 +8187,7 @@
         <v>2135.5147603281216</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -8166,7 +8214,7 @@
         <v>1982.3614967964998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -8193,7 +8241,7 @@
         <v>2245.7026647475168</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -8220,7 +8268,7 @@
         <v>2201.5364421607051</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -8247,7 +8295,7 @@
         <v>2273.5280677238634</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -8274,7 +8322,7 @@
         <v>2224.7019137192297</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8349,7 @@
         <v>2283.7516598321154</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -8328,7 +8376,7 @@
         <v>2291.5183698687947</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -8355,7 +8403,7 @@
         <v>2317.3976352798918</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -8382,7 +8430,7 @@
         <v>2296.5746399438026</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -8409,7 +8457,7 @@
         <v>2288.2438594859791</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -8436,7 +8484,7 @@
         <v>2292.3315992304888</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -8463,7 +8511,7 @@
         <v>2561.8365491827167</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -8490,7 +8538,7 @@
         <v>2464.5570177460422</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -8517,7 +8565,7 @@
         <v>2320.4876404175843</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -8544,7 +8592,7 @@
         <v>2184.8674067430425</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -8571,7 +8619,7 @@
         <v>2424.6516845750202</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -8598,7 +8646,7 @@
         <v>2449.3158589816499</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -8625,7 +8673,7 @@
         <v>2324.0805445124452</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -8652,7 +8700,7 @@
         <v>2342.9333943601241</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -8679,7 +8727,7 @@
         <v>2375.6523766837513</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -8706,7 +8754,7 @@
         <v>2516.1872021772547</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -8733,7 +8781,7 @@
         <v>2537.9346771159931</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -8760,7 +8808,7 @@
         <v>2545.8692273788074</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -8787,7 +8835,7 @@
         <v>2362.8179621598028</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -8814,7 +8862,7 @@
         <v>2403.6274131918258</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -8841,7 +8889,7 @@
         <v>2373.020659588914</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -8868,7 +8916,7 @@
         <v>2355.9668625723448</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -8895,7 +8943,7 @@
         <v>2407.8307424032182</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -8922,7 +8970,7 @@
         <v>2344.9604455076101</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -8949,7 +8997,7 @@
         <v>2381.0271506301278</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -8976,7 +9024,7 @@
         <v>2401.0584048209225</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -9003,7 +9051,7 @@
         <v>2397.152074836355</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -9030,7 +9078,7 @@
         <v>2363.0096319135273</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -9057,7 +9105,7 @@
         <v>2383.9876686722455</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -9084,7 +9132,7 @@
         <v>2373.8884795783356</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -9111,7 +9159,7 @@
         <v>2340.8545979206715</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -9138,7 +9186,7 @@
         <v>2296.8631262075874</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -9165,7 +9213,7 @@
         <v>2341.0583856251105</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -9192,7 +9240,7 @@
         <v>2382.6215129463076</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -9219,7 +9267,7 @@
         <v>2403.9712273659388</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -9246,7 +9294,7 @@
         <v>2398.4954029340938</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -9273,7 +9321,7 @@
         <v>2383.7653595477923</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -9300,7 +9348,7 @@
         <v>2431.4304411419621</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -9327,7 +9375,7 @@
         <v>2405.2809838824169</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -9354,7 +9402,7 @@
         <v>2287.326831135455</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -9381,7 +9429,7 @@
         <v>2385.9839774981051</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -9408,7 +9456,7 @@
         <v>2407.961618644209</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -9435,7 +9483,7 @@
         <v>2376.2697249157682</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -9462,7 +9510,7 @@
         <v>2414.1134081562568</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -9489,7 +9537,7 @@
         <v>2412.3042454833312</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -9516,7 +9564,7 @@
         <v>2409.9669119335258</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -9543,7 +9591,7 @@
         <v>2396.1175096050019</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -9570,7 +9618,7 @@
         <v>2378.6211117411149</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -9597,7 +9645,7 @@
         <v>2387.7894324519671</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -9624,7 +9672,7 @@
         <v>2400.3433356760684</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -9651,7 +9699,7 @@
         <v>2402.3294377288535</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -9678,7 +9726,7 @@
         <v>2436.1079402958094</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -9705,7 +9753,7 @@
         <v>2500.8467381463115</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -9732,7 +9780,7 @@
         <v>2295.6563346154417</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -9759,7 +9807,7 @@
         <v>2165.1816500845171</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -9786,7 +9834,7 @@
         <v>2532.0697173757717</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -9813,7 +9861,7 @@
         <v>2490.7287185147939</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -9840,7 +9888,7 @@
         <v>2528.6604214331819</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -9867,7 +9915,7 @@
         <v>2507.9762835190381</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -9894,7 +9942,7 @@
         <v>2565.5373141513978</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -9921,7 +9969,7 @@
         <v>2558.258068114118</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -9948,7 +9996,7 @@
         <v>2565.4349984845967</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -9975,7 +10023,7 @@
         <v>2552.3549925615321</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -10002,7 +10050,7 @@
         <v>2536.4585350010611</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -10029,7 +10077,7 @@
         <v>2554.4771447797157</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -10056,7 +10104,7 @@
         <v>2540.0438488512859</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -10083,7 +10131,7 @@
         <v>2547.9238413337589</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -10110,7 +10158,7 @@
         <v>2535.4385547270804</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -10137,7 +10185,7 @@
         <v>2540.9591286631958</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -10164,7 +10212,7 @@
         <v>2532.956995942413</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -10191,7 +10239,7 @@
         <v>2528.8911130987722</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -10218,7 +10266,7 @@
         <v>2512.1638372405268</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -10245,7 +10293,7 @@
         <v>2073.2461747164839</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -10272,7 +10320,7 @@
         <v>2500.3952563566963</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -10299,7 +10347,7 @@
         <v>2530.4228402026711</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -10326,7 +10374,7 @@
         <v>2535.7973368613266</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -10353,7 +10401,7 @@
         <v>2536.0565823583415</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -10380,7 +10428,7 @@
         <v>2518.8203640800234</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -10407,7 +10455,7 @@
         <v>2539.3092380766002</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -10434,7 +10482,7 @@
         <v>2548.2139051062532</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -10461,7 +10509,7 @@
         <v>2547.6334772532487</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -10488,7 +10536,7 @@
         <v>2560.0094319391387</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -10515,7 +10563,7 @@
         <v>2541.1476930433882</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -10542,7 +10590,7 @@
         <v>2484.714113591976</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -10569,7 +10617,7 @@
         <v>2564.3111847504638</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -10596,7 +10644,7 @@
         <v>2544.7200548567121</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -10623,7 +10671,7 @@
         <v>2532.850543158439</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -10650,7 +10698,7 @@
         <v>2485.1015938026567</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -10677,7 +10725,7 @@
         <v>2525.7834970569993</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -10704,7 +10752,7 @@
         <v>2529.022718494326</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -10731,7 +10779,7 @@
         <v>2525.5411701411867</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -10758,7 +10806,7 @@
         <v>2479.9111488925028</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -10785,7 +10833,7 @@
         <v>2296.0194379206123</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -10812,7 +10860,7 @@
         <v>2475.2870141397661</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -10839,7 +10887,7 @@
         <v>2224.2608051357633</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -10866,7 +10914,7 @@
         <v>2246.1873017152038</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -10893,7 +10941,7 @@
         <v>2242.973336898825</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -10920,7 +10968,7 @@
         <v>2309.6769134745859</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -10947,7 +10995,7 @@
         <v>2414.1700298422857</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -10974,7 +11022,7 @@
         <v>2408.6965448176106</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -11001,7 +11049,7 @@
         <v>2271.1592296916947</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -11028,7 +11076,7 @@
         <v>2315.62661093116</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -11055,7 +11103,7 @@
         <v>2473.6785061957471</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -11082,7 +11130,7 @@
         <v>2227.4340063069949</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -11109,7 +11157,7 @@
         <v>2435.0378280273076</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -11136,7 +11184,7 @@
         <v>2404.4837201410392</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -11163,7 +11211,7 @@
         <v>2454.1370515250587</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -11190,7 +11238,7 @@
         <v>2405.8925890016803</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -11217,7 +11265,7 @@
         <v>2123.2125278242147</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -11244,7 +11292,7 @@
         <v>2229.4028654189378</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -11271,7 +11319,7 @@
         <v>2451.0709587809592</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -11298,7 +11346,7 @@
         <v>2442.739110209252</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -11325,7 +11373,7 @@
         <v>2470.8641555289028</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -11352,7 +11400,7 @@
         <v>2458.8640750619102</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -11379,7 +11427,7 @@
         <v>2479.7196437297403</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -11406,7 +11454,7 @@
         <v>3901.1402386663322</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -11441,7 +11489,7 @@
         <v>2123.2361890193351</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -11468,7 +11516,7 @@
         <v>2125.987472673633</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -11495,7 +11543,7 @@
         <v>2138.8455116269802</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -11522,7 +11570,7 @@
         <v>2118.7157220061367</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -11549,7 +11597,7 @@
         <v>2125.0962280083772</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -11576,7 +11624,7 @@
         <v>2115.6580651071713</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -11603,7 +11651,7 @@
         <v>2124.6590248439406</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -11630,7 +11678,7 @@
         <v>2118.1575721233116</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -11657,7 +11705,7 @@
         <v>2125.4779734445729</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -11684,7 +11732,7 @@
         <v>2131.1023388181952</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -11711,7 +11759,7 @@
         <v>2124.3571371006974</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -11738,7 +11786,7 @@
         <v>2135.9919980639029</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -11765,7 +11813,7 @@
         <v>2118.7301044325959</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -11792,7 +11840,7 @@
         <v>2109.3476536923908</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -11819,7 +11867,7 @@
         <v>2111.3651179564708</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -11846,7 +11894,7 @@
         <v>2126.9810170076485</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -11873,7 +11921,7 @@
         <v>2126.6232149404254</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -11900,7 +11948,7 @@
         <v>2133.7700773149759</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -11927,7 +11975,7 @@
         <v>2130.164611490241</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -11954,7 +12002,7 @@
         <v>2110.4563693728801</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -11981,7 +12029,7 @@
         <v>2121.5709146979925</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -12008,7 +12056,7 @@
         <v>2122.5929531780098</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -12035,7 +12083,7 @@
         <v>2127.430931636176</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -12062,7 +12110,7 @@
         <v>4369.5945861058735</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -12097,7 +12145,7 @@
         <v>2069.0479921363681</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -12124,7 +12172,7 @@
         <v>2233.8228196525174</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -12151,7 +12199,7 @@
         <v>2249.3760185690962</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -12178,7 +12226,7 @@
         <v>1950.9815995850784</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -12205,7 +12253,7 @@
         <v>1367.0070216480042</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -12232,7 +12280,7 @@
         <v>1726.1502666648234</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -12259,7 +12307,7 @@
         <v>1108.4612035372136</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -12286,7 +12334,7 @@
         <v>1337.0736787196481</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -12313,7 +12361,7 @@
         <v>2262.6564835536033</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -12340,7 +12388,7 @@
         <v>2256.7519354711121</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -12367,7 +12415,7 @@
         <v>2252.4555472540437</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -12394,7 +12442,7 @@
         <v>2253.3586322338083</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -12421,7 +12469,7 @@
         <v>2257.7295933432706</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -12448,7 +12496,7 @@
         <v>2254.629095964011</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -12475,7 +12523,7 @@
         <v>2259.673915350083</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -12502,7 +12550,7 @@
         <v>2057.4609877408625</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -12529,7 +12577,7 @@
         <v>2255.6740539803154</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -12556,7 +12604,7 @@
         <v>2197.6517670515013</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -12583,7 +12631,7 @@
         <v>1956.2432272396773</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -12610,7 +12658,7 @@
         <v>2274.3078605855098</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -12637,7 +12685,7 @@
         <v>2134.4535020279941</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -12664,7 +12712,7 @@
         <v>2233.2022044060682</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -12691,7 +12739,7 @@
         <v>2161.278575287115</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -12718,7 +12766,7 @@
         <v>1374.6896734654974</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -12745,7 +12793,7 @@
         <v>1865.6506585853342</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -12772,7 +12820,7 @@
         <v>2123.0987060921179</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -12799,7 +12847,7 @@
         <v>2264.4361027040686</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -12826,7 +12874,7 @@
         <v>2277.1773147008375</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -12853,7 +12901,7 @@
         <v>2272.9478729755438</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -12880,7 +12928,7 @@
         <v>2253.1810437002036</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -12907,7 +12955,7 @@
         <v>2228.2253886442959</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -12960,13 +13008,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12992,7 +13040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13019,7 +13067,7 @@
         <v>2870.1995459758746</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -13046,7 +13094,7 @@
         <v>1822.8731493627906</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>596</v>
       </c>
@@ -13073,7 +13121,7 @@
         <v>1809.8715292191259</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -13100,7 +13148,7 @@
         <v>1714.0976402109322</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>594</v>
       </c>
@@ -13127,7 +13175,7 @@
         <v>1994.2370293478755</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>593</v>
       </c>
@@ -13154,7 +13202,7 @@
         <v>2008.8872177094436</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>592</v>
       </c>
@@ -13181,7 +13229,7 @@
         <v>2013.1582868201901</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>591</v>
       </c>
@@ -13208,7 +13256,7 @@
         <v>2014.4215139520054</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>590</v>
       </c>
@@ -13235,7 +13283,7 @@
         <v>1985.1953257794385</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -13262,7 +13310,7 @@
         <v>2013.6372133408315</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -13289,7 +13337,7 @@
         <v>2034.0914220391478</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>587</v>
       </c>
@@ -13316,7 +13364,7 @@
         <v>2018.7511214797719</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>586</v>
       </c>
@@ -13343,7 +13391,7 @@
         <v>2030.4250775747587</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -13370,7 +13418,7 @@
         <v>2016.8535258587647</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -13397,7 +13445,7 @@
         <v>1859.3612990436675</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -13424,7 +13472,7 @@
         <v>2006.5686222315228</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>582</v>
       </c>
@@ -13451,7 +13499,7 @@
         <v>2016.0150683263535</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>581</v>
       </c>
@@ -13478,7 +13526,7 @@
         <v>1999.8352377334597</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>580</v>
       </c>
@@ -13505,7 +13553,7 @@
         <v>2010.8322476948342</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>579</v>
       </c>
@@ -13532,7 +13580,7 @@
         <v>1997.8507200456133</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>578</v>
       </c>
@@ -13559,7 +13607,7 @@
         <v>2001.8221939298953</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>577</v>
       </c>
@@ -13586,7 +13634,7 @@
         <v>2015.0920446005912</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>576</v>
       </c>
@@ -13613,7 +13661,7 @@
         <v>2036.5575484443352</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>575</v>
       </c>
@@ -13640,7 +13688,7 @@
         <v>2006.0199837563605</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>574</v>
       </c>
@@ -13667,7 +13715,7 @@
         <v>2019.5841427937567</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>573</v>
       </c>
@@ -13694,7 +13742,7 @@
         <v>2003.9368673341264</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>572</v>
       </c>
@@ -13721,7 +13769,7 @@
         <v>2011.074281317756</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>571</v>
       </c>
@@ -13748,7 +13796,7 @@
         <v>2003.1054475521755</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -13775,7 +13823,7 @@
         <v>2013.847568607428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>569</v>
       </c>
@@ -13802,7 +13850,7 @@
         <v>2009.8676569346596</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -13829,7 +13877,7 @@
         <v>2016.9343112315428</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>567</v>
       </c>
@@ -13856,7 +13904,7 @@
         <v>2017.6216306682559</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -13883,7 +13931,7 @@
         <v>3989.6549945254069</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>566</v>
       </c>
@@ -13910,7 +13958,7 @@
         <v>2360.6900310290403</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>565</v>
       </c>
@@ -13937,7 +13985,7 @@
         <v>2357.1599186597859</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>564</v>
       </c>
@@ -13964,7 +14012,7 @@
         <v>2410.2495449970738</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>563</v>
       </c>
@@ -13991,7 +14039,7 @@
         <v>2393.227831410054</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>562</v>
       </c>
@@ -14018,7 +14066,7 @@
         <v>2391.5402332035696</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>561</v>
       </c>
@@ -14045,7 +14093,7 @@
         <v>2383.7887019552891</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>560</v>
       </c>
@@ -14072,7 +14120,7 @@
         <v>2121.757609578458</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>559</v>
       </c>
@@ -14099,7 +14147,7 @@
         <v>2365.0259594342233</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>558</v>
       </c>
@@ -14126,7 +14174,7 @@
         <v>2390.4224868732922</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>557</v>
       </c>
@@ -14153,7 +14201,7 @@
         <v>2396.7907515058159</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>556</v>
       </c>
@@ -14180,7 +14228,7 @@
         <v>2412.699592332629</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -14207,7 +14255,7 @@
         <v>2391.2962604476238</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>554</v>
       </c>
@@ -14234,7 +14282,7 @@
         <v>2410.5804405018966</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>553</v>
       </c>
@@ -14261,7 +14309,7 @@
         <v>2451.7860053879526</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>552</v>
       </c>
@@ -14288,7 +14336,7 @@
         <v>2379.859473044603</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>551</v>
       </c>
@@ -14315,7 +14363,7 @@
         <v>2422.2829042525668</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>550</v>
       </c>
@@ -14342,7 +14390,7 @@
         <v>2356.4417003930289</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>549</v>
       </c>
@@ -14369,7 +14417,7 @@
         <v>2320.6804582216282</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>548</v>
       </c>
@@ -14396,7 +14444,7 @@
         <v>2440.9812197970127</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -14423,7 +14471,7 @@
         <v>2463.5482868743484</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -14450,7 +14498,7 @@
         <v>2448.9396155969703</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -14477,7 +14525,7 @@
         <v>2418.3440238160238</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -14504,7 +14552,7 @@
         <v>2492.6181540102466</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>543</v>
       </c>
@@ -14531,7 +14579,7 @@
         <v>2465.8489015237856</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>542</v>
       </c>
@@ -14558,7 +14606,7 @@
         <v>2405.977766487872</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>541</v>
       </c>
@@ -14585,7 +14633,7 @@
         <v>2494.6488795617706</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>540</v>
       </c>
@@ -14612,7 +14660,7 @@
         <v>2488.9753134499924</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>539</v>
       </c>
@@ -14639,7 +14687,7 @@
         <v>2500.044072705794</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>538</v>
       </c>
@@ -14666,7 +14714,7 @@
         <v>2238.9161984444054</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>537</v>
       </c>
@@ -14693,7 +14741,7 @@
         <v>2236.279875774313</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>536</v>
       </c>
@@ -14720,7 +14768,7 @@
         <v>2244.0267696496476</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>535</v>
       </c>
@@ -14747,7 +14795,7 @@
         <v>2238.4943057008986</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>534</v>
       </c>
@@ -14774,7 +14822,7 @@
         <v>2234.7666593011118</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -14801,7 +14849,7 @@
         <v>2247.4230807871668</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>532</v>
       </c>
@@ -14828,7 +14876,7 @@
         <v>2247.3196667140651</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>531</v>
       </c>
@@ -14855,7 +14903,7 @@
         <v>2230.5963808474426</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>530</v>
       </c>
@@ -14882,7 +14930,7 @@
         <v>2205.2170298414107</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>529</v>
       </c>
@@ -14909,7 +14957,7 @@
         <v>2067.2314935949144</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -14936,7 +14984,7 @@
         <v>2236.3127846671341</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>527</v>
       </c>
@@ -14963,7 +15011,7 @@
         <v>2157.5369971568389</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>526</v>
       </c>
@@ -14990,7 +15038,7 @@
         <v>2244.8682830396956</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>525</v>
       </c>
@@ -15017,7 +15065,7 @@
         <v>2240.8950636307304</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>524</v>
       </c>
@@ -15044,7 +15092,7 @@
         <v>2245.5095318159679</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>523</v>
       </c>
@@ -15071,7 +15119,7 @@
         <v>2243.5710710883468</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -15098,7 +15146,7 @@
         <v>2244.557223076687</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>521</v>
       </c>
@@ -15125,7 +15173,7 @@
         <v>2237.1301047395705</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>520</v>
       </c>
@@ -15152,7 +15200,7 @@
         <v>2236.4609525448409</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>519</v>
       </c>
@@ -15179,7 +15227,7 @@
         <v>2238.7740293959691</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>518</v>
       </c>
@@ -15206,7 +15254,7 @@
         <v>2233.3985197658676</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -15233,7 +15281,7 @@
         <v>2252.4870573177072</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>516</v>
       </c>
@@ -15260,7 +15308,7 @@
         <v>2244.720068785814</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>515</v>
       </c>
@@ -15287,7 +15335,7 @@
         <v>2244.2910707338224</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>514</v>
       </c>
@@ -15314,7 +15362,7 @@
         <v>2246.1744510374047</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>513</v>
       </c>
@@ -15341,7 +15389,7 @@
         <v>2242.0260777962308</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>512</v>
       </c>
@@ -15368,7 +15416,7 @@
         <v>2252.3645399309094</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -15395,7 +15443,7 @@
         <v>2247.3757458666923</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>510</v>
       </c>
@@ -15422,7 +15470,7 @@
         <v>2245.7601118074804</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>509</v>
       </c>
@@ -15449,7 +15497,7 @@
         <v>2486.2637606758708</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>508</v>
       </c>
@@ -15476,7 +15524,7 @@
         <v>2427.3703426181983</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>507</v>
       </c>
@@ -15503,7 +15551,7 @@
         <v>2232.3239875807808</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>506</v>
       </c>
@@ -15530,7 +15578,7 @@
         <v>2444.282411375787</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>505</v>
       </c>
@@ -15557,7 +15605,7 @@
         <v>2458.1243281744028</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>504</v>
       </c>
@@ -15584,7 +15632,7 @@
         <v>2490.8962862076191</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>503</v>
       </c>
@@ -15611,7 +15659,7 @@
         <v>2340.8507620235264</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>502</v>
       </c>
@@ -15638,7 +15686,7 @@
         <v>2366.8150265122817</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>501</v>
       </c>
@@ -15665,7 +15713,7 @@
         <v>2330.9605797920085</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>500</v>
       </c>
@@ -15692,7 +15740,7 @@
         <v>2348.5613480785842</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -15719,7 +15767,7 @@
         <v>2327.6831379315799</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>498</v>
       </c>
@@ -15746,7 +15794,7 @@
         <v>2344.942130112006</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>497</v>
       </c>
@@ -15773,7 +15821,7 @@
         <v>2303.3257667138596</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>496</v>
       </c>
@@ -15800,7 +15848,7 @@
         <v>2350.3104308940938</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -15827,7 +15875,7 @@
         <v>2317.4503043186819</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>494</v>
       </c>
@@ -15854,7 +15902,7 @@
         <v>2347.3276600259005</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>493</v>
       </c>
@@ -15881,7 +15929,7 @@
         <v>2323.7377761359094</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>492</v>
       </c>
@@ -15908,7 +15956,7 @@
         <v>2349.6360439402588</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>491</v>
       </c>
@@ -15935,7 +15983,7 @@
         <v>2322.4938262321994</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>490</v>
       </c>
@@ -15962,7 +16010,7 @@
         <v>2290.5391149839247</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>489</v>
       </c>
@@ -15989,7 +16037,7 @@
         <v>2315.7689832133146</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>488</v>
       </c>
@@ -16016,7 +16064,7 @@
         <v>2320.6806702813888</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>487</v>
       </c>
@@ -16043,7 +16091,7 @@
         <v>2459.1897703003892</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>486</v>
       </c>
@@ -16070,7 +16118,7 @@
         <v>2458.6826773888943</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>485</v>
       </c>
@@ -16097,7 +16145,7 @@
         <v>2478.6687918615189</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>484</v>
       </c>
@@ -16124,7 +16172,7 @@
         <v>2482.6172914009812</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>483</v>
       </c>
@@ -16151,7 +16199,7 @@
         <v>2468.5344726402345</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -16178,7 +16226,7 @@
         <v>2461.9029258044793</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>481</v>
       </c>
@@ -16205,7 +16253,7 @@
         <v>2455.3540240542579</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>480</v>
       </c>
@@ -16232,7 +16280,7 @@
         <v>2418.2659962185653</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>479</v>
       </c>
@@ -16259,7 +16307,7 @@
         <v>2403.5064799528254</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>478</v>
       </c>
@@ -16286,7 +16334,7 @@
         <v>2429.0192247933287</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -16313,7 +16361,7 @@
         <v>2446.7352079239236</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>476</v>
       </c>
@@ -16340,7 +16388,7 @@
         <v>2448.6526220514629</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>475</v>
       </c>
@@ -16367,7 +16415,7 @@
         <v>2430.397624348986</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -16394,7 +16442,7 @@
         <v>2455.3762759208785</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>473</v>
       </c>
@@ -16421,7 +16469,7 @@
         <v>2472.6247856785762</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>472</v>
       </c>
@@ -16448,7 +16496,7 @@
         <v>2472.4752933566442</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>471</v>
       </c>
@@ -16475,7 +16523,7 @@
         <v>2463.7167687227088</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>470</v>
       </c>
@@ -16502,7 +16550,7 @@
         <v>2463.511597242345</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>469</v>
       </c>
@@ -16529,7 +16577,7 @@
         <v>2472.9342716945016</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>468</v>
       </c>
@@ -16556,7 +16604,7 @@
         <v>2443.0760971134696</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -16583,7 +16631,7 @@
         <v>2459.9843135704982</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>466</v>
       </c>
@@ -16610,7 +16658,7 @@
         <v>2459.9931262612126</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>465</v>
       </c>
@@ -16637,7 +16685,7 @@
         <v>2396.4632591910758</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>464</v>
       </c>
@@ -16664,7 +16712,7 @@
         <v>2390.740934466377</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>463</v>
       </c>
@@ -16691,7 +16739,7 @@
         <v>2398.4404248752244</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>462</v>
       </c>
@@ -16718,7 +16766,7 @@
         <v>2404.3534806774874</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>461</v>
       </c>
@@ -16745,7 +16793,7 @@
         <v>2365.8038996638279</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>460</v>
       </c>
@@ -16772,7 +16820,7 @@
         <v>2411.6185127303202</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>459</v>
       </c>
@@ -16799,7 +16847,7 @@
         <v>2293.0276787580847</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>458</v>
       </c>
@@ -16826,7 +16874,7 @@
         <v>2405.7202359446846</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>457</v>
       </c>
@@ -16853,7 +16901,7 @@
         <v>2406.4566256277217</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>456</v>
       </c>
@@ -16880,7 +16928,7 @@
         <v>2405.0423311141453</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>455</v>
       </c>
@@ -16907,7 +16955,7 @@
         <v>2407.9715741448758</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -16934,7 +16982,7 @@
         <v>3844.2677601897963</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>454</v>
       </c>
@@ -16961,7 +17009,7 @@
         <v>2097.8691603002712</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>453</v>
       </c>
@@ -16988,7 +17036,7 @@
         <v>2082.3933455330407</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>452</v>
       </c>
@@ -17015,7 +17063,7 @@
         <v>2089.8072390577986</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -17042,7 +17090,7 @@
         <v>2083.2740331315454</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -17069,7 +17117,7 @@
         <v>2043.2431495098886</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>449</v>
       </c>
@@ -17096,7 +17144,7 @@
         <v>2042.7104951776209</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -17123,7 +17171,7 @@
         <v>2021.8376971590096</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -17150,7 +17198,7 @@
         <v>2020.061094131775</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -17177,7 +17225,7 @@
         <v>2077.5953998377659</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>445</v>
       </c>
@@ -17204,7 +17252,7 @@
         <v>2070.5131821287491</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>444</v>
       </c>
@@ -17231,7 +17279,7 @@
         <v>2039.7835203470456</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>443</v>
       </c>
@@ -17258,7 +17306,7 @@
         <v>2085.2904143725195</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -17285,7 +17333,7 @@
         <v>2083.6957165373619</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>441</v>
       </c>
@@ -17312,7 +17360,7 @@
         <v>2077.9176949076241</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>440</v>
       </c>
@@ -17339,7 +17387,7 @@
         <v>2081.584839022888</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -17366,7 +17414,7 @@
         <v>2084.9382480320514</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -17393,7 +17441,7 @@
         <v>2069.6871404229232</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -17420,7 +17468,7 @@
         <v>2087.9080187301261</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -17447,7 +17495,7 @@
         <v>2085.0982821647799</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>435</v>
       </c>
@@ -17474,7 +17522,7 @@
         <v>2080.3714364792136</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>434</v>
       </c>
@@ -17501,7 +17549,7 @@
         <v>2095.4037356258077</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>433</v>
       </c>
@@ -17528,7 +17576,7 @@
         <v>2083.2940788706987</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>432</v>
       </c>
@@ -17555,7 +17603,7 @@
         <v>2091.862626794908</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -17582,7 +17630,7 @@
         <v>2092.0782266285519</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>430</v>
       </c>
@@ -17609,7 +17657,7 @@
         <v>2090.1698200106148</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>429</v>
       </c>
@@ -17636,7 +17684,7 @@
         <v>1986.3421817089466</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>428</v>
       </c>
@@ -17663,7 +17711,7 @@
         <v>2015.0929068344599</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>427</v>
       </c>
@@ -17690,7 +17738,7 @@
         <v>2065.2277899741575</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>426</v>
       </c>
@@ -17717,7 +17765,7 @@
         <v>1940.2941194050361</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -17744,7 +17792,7 @@
         <v>1943.0163813895758</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>424</v>
       </c>
@@ -17771,7 +17819,7 @@
         <v>2007.3880592251571</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -17798,7 +17846,7 @@
         <v>4126.8421705865403</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>423</v>
       </c>
@@ -17825,7 +17873,7 @@
         <v>2184.1380409269573</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>422</v>
       </c>
@@ -17852,7 +17900,7 @@
         <v>2219.2025412647718</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>421</v>
       </c>
@@ -17879,7 +17927,7 @@
         <v>1529.0051692634095</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>420</v>
       </c>
@@ -17906,7 +17954,7 @@
         <v>1191.6145136994769</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>419</v>
       </c>
@@ -17933,7 +17981,7 @@
         <v>1126.6069085577265</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>418</v>
       </c>
@@ -17960,7 +18008,7 @@
         <v>1206.0214438397616</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>417</v>
       </c>
@@ -17987,7 +18035,7 @@
         <v>1526.60486428529</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>416</v>
       </c>
@@ -18014,7 +18062,7 @@
         <v>1872.6808967484887</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -18041,7 +18089,7 @@
         <v>2170.6415878381918</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>414</v>
       </c>
@@ -18068,7 +18116,7 @@
         <v>2171.2841849980941</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>413</v>
       </c>
@@ -18095,7 +18143,7 @@
         <v>2215.2536820414007</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>412</v>
       </c>
@@ -18122,7 +18170,7 @@
         <v>2231.9153603437198</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>411</v>
       </c>
@@ -18149,7 +18197,7 @@
         <v>2197.6776827762833</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -18176,7 +18224,7 @@
         <v>2196.5274281383126</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>409</v>
       </c>
@@ -18203,7 +18251,7 @@
         <v>2251.5168929317811</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -18230,7 +18278,7 @@
         <v>2240.9670001262739</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -18257,7 +18305,7 @@
         <v>2242.6272509913292</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -18284,7 +18332,7 @@
         <v>2254.1287426527424</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -18311,7 +18359,7 @@
         <v>2243.3504695441661</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -18338,7 +18386,7 @@
         <v>2235.5071891735256</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -18365,7 +18413,7 @@
         <v>2248.5975588955494</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -18392,7 +18440,7 @@
         <v>2245.7551549026584</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -18419,7 +18467,7 @@
         <v>2242.407396958366</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -18446,7 +18494,7 @@
         <v>2236.4125511396865</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -18473,7 +18521,7 @@
         <v>2221.7763988424799</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -18500,7 +18548,7 @@
         <v>2169.5631890526411</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>397</v>
       </c>
@@ -18527,7 +18575,7 @@
         <v>2191.4433736171068</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>396</v>
       </c>
@@ -18554,7 +18602,7 @@
         <v>2122.1253714580594</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>395</v>
       </c>
@@ -18581,7 +18629,7 @@
         <v>2176.9484236971907</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>394</v>
       </c>
@@ -18608,7 +18656,7 @@
         <v>2250.5988691287052</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>393</v>
       </c>
@@ -18635,7 +18683,7 @@
         <v>2231.0770663182188</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>392</v>
       </c>
@@ -18662,7 +18710,7 @@
         <v>2193.6248771123974</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>391</v>
       </c>
@@ -18689,7 +18737,7 @@
         <v>2184.8653474882321</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>390</v>
       </c>
@@ -18716,7 +18764,7 @@
         <v>2184.4346399817059</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -18743,7 +18791,7 @@
         <v>2152.7215836512451</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>388</v>
       </c>
@@ -18770,7 +18818,7 @@
         <v>1562.082794596678</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>387</v>
       </c>
@@ -18797,7 +18845,7 @@
         <v>1963.967129068915</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>386</v>
       </c>
@@ -18824,7 +18872,7 @@
         <v>1997.8118349421122</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>385</v>
       </c>
@@ -18851,7 +18899,7 @@
         <v>2140.9973796152935</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>384</v>
       </c>
@@ -18878,7 +18926,7 @@
         <v>2059.6689134945855</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>383</v>
       </c>
@@ -18905,7 +18953,7 @@
         <v>2173.4989754334988</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>382</v>
       </c>
@@ -18932,7 +18980,7 @@
         <v>2248.9718201406431</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>381</v>
       </c>
@@ -18959,7 +19007,7 @@
         <v>2249.4205103826298</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>380</v>
       </c>
@@ -18986,7 +19034,7 @@
         <v>2244.5338685322495</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>379</v>
       </c>
@@ -19013,7 +19061,7 @@
         <v>2239.2705607636799</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>378</v>
       </c>
@@ -19040,7 +19088,7 @@
         <v>2249.6225903934892</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>377</v>
       </c>
@@ -19067,7 +19115,7 @@
         <v>2245.4877979038561</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>376</v>
       </c>
@@ -19094,7 +19142,7 @@
         <v>2248.0040385223556</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>375</v>
       </c>
@@ -19121,7 +19169,7 @@
         <v>2237.8547816610599</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>374</v>
       </c>
@@ -19148,7 +19196,7 @@
         <v>2234.864639614188</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>373</v>
       </c>
@@ -19175,7 +19223,7 @@
         <v>2234.9566235840584</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>372</v>
       </c>
@@ -19202,7 +19250,7 @@
         <v>2254.3687012053474</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>371</v>
       </c>
@@ -19229,7 +19277,7 @@
         <v>2256.3391558424446</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>370</v>
       </c>
@@ -19256,7 +19304,7 @@
         <v>2249.1314241636105</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>369</v>
       </c>
@@ -19283,7 +19331,7 @@
         <v>2253.4657189825771</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -19310,7 +19358,7 @@
         <v>2104.2648323623935</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>367</v>
       </c>
@@ -19337,7 +19385,7 @@
         <v>1994.8122288889826</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>366</v>
       </c>
@@ -19364,7 +19412,7 @@
         <v>1996.5393204176776</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>365</v>
       </c>
@@ -19391,7 +19439,7 @@
         <v>2085.9314659065481</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>364</v>
       </c>
@@ -19418,7 +19466,7 @@
         <v>2003.6488138416585</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>363</v>
       </c>
@@ -19445,7 +19493,7 @@
         <v>2047.6109617098048</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>362</v>
       </c>
@@ -19472,7 +19520,7 @@
         <v>2223.2643573539731</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>361</v>
       </c>
@@ -19499,7 +19547,7 @@
         <v>2151.2527210126436</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>360</v>
       </c>
@@ -19526,7 +19574,7 @@
         <v>2182.1157293129272</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>359</v>
       </c>
@@ -19553,7 +19601,7 @@
         <v>2209.1852228597681</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>358</v>
       </c>
@@ -19580,7 +19628,7 @@
         <v>2242.4233134547344</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -19607,7 +19655,7 @@
         <v>2245.7863247394293</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>356</v>
       </c>
@@ -19634,7 +19682,7 @@
         <v>2251.333921470939</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>355</v>
       </c>
@@ -19661,7 +19709,7 @@
         <v>2246.4450153957409</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>354</v>
       </c>
@@ -19688,7 +19736,7 @@
         <v>2249.2732452516948</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>353</v>
       </c>
@@ -19715,7 +19763,7 @@
         <v>2232.5761569240194</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>352</v>
       </c>
@@ -19742,7 +19790,7 @@
         <v>2171.4790527232685</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>351</v>
       </c>
@@ -19769,7 +19817,7 @@
         <v>2241.9962240285067</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>350</v>
       </c>
@@ -19796,7 +19844,7 @@
         <v>2250.5945237714477</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>349</v>
       </c>
@@ -19823,7 +19871,7 @@
         <v>2230.9645881341276</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>348</v>
       </c>
@@ -19850,7 +19898,7 @@
         <v>2234.3454977777701</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>347</v>
       </c>
@@ -19877,7 +19925,7 @@
         <v>2242.9140191307069</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>346</v>
       </c>
@@ -19904,7 +19952,7 @@
         <v>2243.8253780507307</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>345</v>
       </c>
@@ -19931,7 +19979,7 @@
         <v>2249.2285490201461</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -19958,7 +20006,7 @@
         <v>2239.4038320094551</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>343</v>
       </c>
@@ -19985,7 +20033,7 @@
         <v>2252.1646525951619</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -20012,7 +20060,7 @@
         <v>2240.4314904983521</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -20039,7 +20087,7 @@
         <v>2246.1168757981063</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>340</v>
       </c>
@@ -20066,7 +20114,7 @@
         <v>2080.6914216395849</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>339</v>
       </c>
@@ -20093,7 +20141,7 @@
         <v>1910.9906660358893</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>338</v>
       </c>
@@ -20120,7 +20168,7 @@
         <v>2007.2987776701812</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>337</v>
       </c>
@@ -20147,7 +20195,7 @@
         <v>2089.7238486081847</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>336</v>
       </c>
@@ -20174,7 +20222,7 @@
         <v>2152.0267900649696</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>335</v>
       </c>
@@ -20201,7 +20249,7 @@
         <v>2182.4833290254633</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -20228,7 +20276,7 @@
         <v>2194.4791532203167</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>333</v>
       </c>
@@ -20255,7 +20303,7 @@
         <v>2180.2796249482653</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -20282,7 +20330,7 @@
         <v>2166.676361369925</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -20309,7 +20357,7 @@
         <v>2179.3166648498072</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>330</v>
       </c>
@@ -20362,13 +20410,13 @@
       <selection activeCell="H1" sqref="H1:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20397,7 +20445,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20428,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -20459,7 +20507,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>596</v>
       </c>
@@ -20490,7 +20538,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -20521,7 +20569,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>594</v>
       </c>
@@ -20552,7 +20600,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>593</v>
       </c>
@@ -20583,7 +20631,7 @@
         <v>0.44328426628635459</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>592</v>
       </c>
@@ -20614,7 +20662,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>591</v>
       </c>
@@ -20645,7 +20693,7 @@
         <v>0.44294604752543826</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>590</v>
       </c>
@@ -20676,7 +20724,7 @@
         <v>0.444077539289427</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -20707,7 +20755,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -20738,7 +20786,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>587</v>
       </c>
@@ -20769,7 +20817,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>586</v>
       </c>
@@ -20800,7 +20848,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -20831,7 +20879,7 @@
         <v>0.44324351856568023</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -20862,7 +20910,7 @@
         <v>0.44294604752543826</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -20893,7 +20941,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>582</v>
       </c>
@@ -20924,7 +20972,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>581</v>
       </c>
@@ -20955,7 +21003,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>580</v>
       </c>
@@ -20986,7 +21034,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>579</v>
       </c>
@@ -21017,7 +21065,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>578</v>
       </c>
@@ -21048,7 +21096,7 @@
         <v>0.44316329856584091</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>577</v>
       </c>
@@ -21079,7 +21127,7 @@
         <v>0.44294604752543826</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>576</v>
       </c>
@@ -21110,7 +21158,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>575</v>
       </c>
@@ -21141,7 +21189,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>574</v>
       </c>
@@ -21172,7 +21220,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>573</v>
       </c>
@@ -21203,7 +21251,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>572</v>
       </c>
@@ -21234,7 +21282,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>571</v>
       </c>
@@ -21265,7 +21313,7 @@
         <v>0.44297441538336185</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -21296,7 +21344,7 @@
         <v>0.44312255541069101</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>569</v>
       </c>
@@ -21327,7 +21375,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -21358,7 +21406,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>567</v>
       </c>
@@ -21389,7 +21437,7 @@
         <v>0.44295404546565631</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -21420,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>566</v>
       </c>
@@ -21451,7 +21499,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>565</v>
       </c>
@@ -21482,7 +21530,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>564</v>
       </c>
@@ -21513,7 +21561,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>563</v>
       </c>
@@ -21544,7 +21592,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>562</v>
       </c>
@@ -21575,7 +21623,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>561</v>
       </c>
@@ -21606,7 +21654,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>560</v>
       </c>
@@ -21637,7 +21685,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>559</v>
       </c>
@@ -21668,7 +21716,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>558</v>
       </c>
@@ -21699,7 +21747,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>557</v>
       </c>
@@ -21730,7 +21778,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>556</v>
       </c>
@@ -21761,7 +21809,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -21792,7 +21840,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>554</v>
       </c>
@@ -21823,7 +21871,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>553</v>
       </c>
@@ -21854,7 +21902,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>552</v>
       </c>
@@ -21885,7 +21933,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>551</v>
       </c>
@@ -21916,7 +21964,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>550</v>
       </c>
@@ -21947,7 +21995,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>549</v>
       </c>
@@ -21978,7 +22026,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>548</v>
       </c>
@@ -22009,7 +22057,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -22040,7 +22088,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -22071,7 +22119,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -22102,7 +22150,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -22133,7 +22181,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>543</v>
       </c>
@@ -22164,7 +22212,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>542</v>
       </c>
@@ -22195,7 +22243,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>541</v>
       </c>
@@ -22226,7 +22274,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>540</v>
       </c>
@@ -22257,7 +22305,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>539</v>
       </c>
@@ -22288,7 +22336,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>538</v>
       </c>
@@ -22319,7 +22367,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>537</v>
       </c>
@@ -22350,7 +22398,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>536</v>
       </c>
@@ -22381,7 +22429,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>535</v>
       </c>
@@ -22412,7 +22460,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>534</v>
       </c>
@@ -22443,7 +22491,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -22474,7 +22522,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>532</v>
       </c>
@@ -22505,7 +22553,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>531</v>
       </c>
@@ -22536,7 +22584,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>530</v>
       </c>
@@ -22567,7 +22615,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>529</v>
       </c>
@@ -22598,7 +22646,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -22629,7 +22677,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>527</v>
       </c>
@@ -22660,7 +22708,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>526</v>
       </c>
@@ -22691,7 +22739,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>525</v>
       </c>
@@ -22722,7 +22770,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>524</v>
       </c>
@@ -22753,7 +22801,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>523</v>
       </c>
@@ -22784,7 +22832,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>522</v>
       </c>
@@ -22815,7 +22863,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>521</v>
       </c>
@@ -22846,7 +22894,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>520</v>
       </c>
@@ -22877,7 +22925,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>519</v>
       </c>
@@ -22908,7 +22956,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>518</v>
       </c>
@@ -22939,7 +22987,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -22970,7 +23018,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>516</v>
       </c>
@@ -23001,7 +23049,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>515</v>
       </c>
@@ -23032,7 +23080,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>514</v>
       </c>
@@ -23063,7 +23111,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>513</v>
       </c>
@@ -23094,7 +23142,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>512</v>
       </c>
@@ -23125,7 +23173,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -23156,7 +23204,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>510</v>
       </c>
@@ -23187,7 +23235,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>509</v>
       </c>
@@ -23218,7 +23266,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>508</v>
       </c>
@@ -23249,7 +23297,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>507</v>
       </c>
@@ -23280,7 +23328,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>506</v>
       </c>
@@ -23311,7 +23359,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>505</v>
       </c>
@@ -23342,7 +23390,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>504</v>
       </c>
@@ -23373,7 +23421,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>503</v>
       </c>
@@ -23404,7 +23452,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>502</v>
       </c>
@@ -23435,7 +23483,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>501</v>
       </c>
@@ -23466,7 +23514,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>500</v>
       </c>
@@ -23497,7 +23545,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -23528,7 +23576,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>498</v>
       </c>
@@ -23559,7 +23607,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>497</v>
       </c>
@@ -23590,7 +23638,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>496</v>
       </c>
@@ -23621,7 +23669,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -23652,7 +23700,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>494</v>
       </c>
@@ -23683,7 +23731,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>493</v>
       </c>
@@ -23714,7 +23762,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>492</v>
       </c>
@@ -23745,7 +23793,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>491</v>
       </c>
@@ -23776,7 +23824,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>490</v>
       </c>
@@ -23807,7 +23855,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>489</v>
       </c>
@@ -23838,7 +23886,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>488</v>
       </c>
@@ -23869,7 +23917,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>487</v>
       </c>
@@ -23900,7 +23948,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>486</v>
       </c>
@@ -23931,7 +23979,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>485</v>
       </c>
@@ -23962,7 +24010,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>484</v>
       </c>
@@ -23993,7 +24041,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>483</v>
       </c>
@@ -24024,7 +24072,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -24055,7 +24103,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>481</v>
       </c>
@@ -24086,7 +24134,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>480</v>
       </c>
@@ -24117,7 +24165,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>479</v>
       </c>
@@ -24148,7 +24196,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>478</v>
       </c>
@@ -24179,7 +24227,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -24210,7 +24258,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>476</v>
       </c>
@@ -24241,7 +24289,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>475</v>
       </c>
@@ -24272,7 +24320,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -24303,7 +24351,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>473</v>
       </c>
@@ -24334,7 +24382,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>472</v>
       </c>
@@ -24365,7 +24413,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>471</v>
       </c>
@@ -24396,7 +24444,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>470</v>
       </c>
@@ -24427,7 +24475,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>469</v>
       </c>
@@ -24458,7 +24506,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>468</v>
       </c>
@@ -24489,7 +24537,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -24520,7 +24568,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>466</v>
       </c>
@@ -24551,7 +24599,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>465</v>
       </c>
@@ -24582,7 +24630,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>464</v>
       </c>
@@ -24613,7 +24661,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>463</v>
       </c>
@@ -24644,7 +24692,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>462</v>
       </c>
@@ -24675,7 +24723,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>461</v>
       </c>
@@ -24706,7 +24754,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>460</v>
       </c>
@@ -24737,7 +24785,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>459</v>
       </c>
@@ -24768,7 +24816,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>458</v>
       </c>
@@ -24799,7 +24847,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>457</v>
       </c>
@@ -24830,7 +24878,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>456</v>
       </c>
@@ -24861,7 +24909,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>455</v>
       </c>
@@ -24892,7 +24940,7 @@
         <v>9.1370281131247094E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -24923,7 +24971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>454</v>
       </c>
@@ -24954,7 +25002,7 @@
         <v>0.49003449597546955</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>453</v>
       </c>
@@ -24985,7 +25033,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>452</v>
       </c>
@@ -25016,7 +25064,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -25047,7 +25095,7 @@
         <v>0.49013131939356364</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -25078,7 +25126,7 @@
         <v>0.49011982460293307</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>449</v>
       </c>
@@ -25109,7 +25157,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -25140,7 +25188,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -25171,7 +25219,7 @@
         <v>0.49013684424104426</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -25202,7 +25250,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>445</v>
       </c>
@@ -25233,7 +25281,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>444</v>
       </c>
@@ -25264,7 +25312,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>443</v>
       </c>
@@ -25295,7 +25343,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -25326,7 +25374,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>441</v>
       </c>
@@ -25357,7 +25405,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>440</v>
       </c>
@@ -25388,7 +25436,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -25419,7 +25467,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -25450,7 +25498,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -25481,7 +25529,7 @@
         <v>0.49011982460293307</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -25512,7 +25560,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>435</v>
       </c>
@@ -25543,7 +25591,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>434</v>
       </c>
@@ -25574,7 +25622,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>433</v>
       </c>
@@ -25605,7 +25653,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>432</v>
       </c>
@@ -25636,7 +25684,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -25667,7 +25715,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>430</v>
       </c>
@@ -25698,7 +25746,7 @@
         <v>0.49013684424104426</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>429</v>
       </c>
@@ -25729,7 +25777,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>428</v>
       </c>
@@ -25760,7 +25808,7 @@
         <v>0.49001172438672441</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>427</v>
       </c>
@@ -25791,7 +25839,7 @@
         <v>0.49016535725960075</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>426</v>
       </c>
@@ -25822,7 +25870,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -25853,7 +25901,7 @@
         <v>0.49017110394733876</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>424</v>
       </c>
@@ -25884,7 +25932,7 @@
         <v>0.48945890156001487</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -25915,7 +25963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>423</v>
       </c>
@@ -25946,7 +25994,7 @@
         <v>0.21785496037907856</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>422</v>
       </c>
@@ -25977,7 +26025,7 @@
         <v>0.21798744595901151</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>421</v>
       </c>
@@ -26008,7 +26056,7 @@
         <v>0.21784494244698011</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>420</v>
       </c>
@@ -26039,7 +26087,7 @@
         <v>0.21785496037907856</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>419</v>
       </c>
@@ -26070,7 +26118,7 @@
         <v>0.21784494244698011</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>418</v>
       </c>
@@ -26101,7 +26149,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>417</v>
       </c>
@@ -26132,7 +26180,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>416</v>
       </c>
@@ -26163,7 +26211,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -26194,7 +26242,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>414</v>
       </c>
@@ -26225,7 +26273,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>413</v>
       </c>
@@ -26256,7 +26304,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>412</v>
       </c>
@@ -26287,7 +26335,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>411</v>
       </c>
@@ -26318,7 +26366,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -26349,7 +26397,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>409</v>
       </c>
@@ -26380,7 +26428,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -26411,7 +26459,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -26442,7 +26490,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -26473,7 +26521,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -26504,7 +26552,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -26535,7 +26583,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -26566,7 +26614,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -26597,7 +26645,7 @@
         <v>0.21795648885170843</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -26628,7 +26676,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -26659,7 +26707,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -26690,7 +26738,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -26721,7 +26769,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>397</v>
       </c>
@@ -26752,7 +26800,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>396</v>
       </c>
@@ -26783,7 +26831,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>395</v>
       </c>
@@ -26814,7 +26862,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>394</v>
       </c>
@@ -26845,7 +26893,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>393</v>
       </c>
@@ -26876,7 +26924,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>392</v>
       </c>
@@ -26907,7 +26955,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>391</v>
       </c>
@@ -26938,7 +26986,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>390</v>
       </c>
@@ -26969,7 +27017,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -27000,7 +27048,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>388</v>
       </c>
@@ -27031,7 +27079,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>387</v>
       </c>
@@ -27062,7 +27110,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>386</v>
       </c>
@@ -27093,7 +27141,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>385</v>
       </c>
@@ -27124,7 +27172,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>384</v>
       </c>
@@ -27155,7 +27203,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>383</v>
       </c>
@@ -27186,7 +27234,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
         <v>382</v>
       </c>
@@ -27217,7 +27265,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>381</v>
       </c>
@@ -27248,7 +27296,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
         <v>380</v>
       </c>
@@ -27279,7 +27327,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
         <v>379</v>
       </c>
@@ -27310,7 +27358,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>378</v>
       </c>
@@ -27341,7 +27389,7 @@
         <v>0.21785496037907856</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>377</v>
       </c>
@@ -27372,7 +27420,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>376</v>
       </c>
@@ -27403,7 +27451,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
         <v>375</v>
       </c>
@@ -27434,7 +27482,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
         <v>374</v>
       </c>
@@ -27465,7 +27513,7 @@
         <v>0.21784494244698011</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
         <v>373</v>
       </c>
@@ -27496,7 +27544,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
         <v>372</v>
       </c>
@@ -27527,7 +27575,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>371</v>
       </c>
@@ -27558,7 +27606,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>370</v>
       </c>
@@ -27589,7 +27637,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>369</v>
       </c>
@@ -27620,7 +27668,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -27651,7 +27699,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>367</v>
       </c>
@@ -27682,7 +27730,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>366</v>
       </c>
@@ -27713,7 +27761,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>365</v>
       </c>
@@ -27744,7 +27792,7 @@
         <v>0.21988719616226091</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>364</v>
       </c>
@@ -27775,7 +27823,7 @@
         <v>0.21825579763885269</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>363</v>
       </c>
@@ -27806,7 +27854,7 @@
         <v>0.21833124530192935</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>362</v>
       </c>
@@ -27837,7 +27885,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>361</v>
       </c>
@@ -27868,7 +27916,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>360</v>
       </c>
@@ -27899,7 +27947,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>359</v>
       </c>
@@ -27930,7 +27978,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>358</v>
       </c>
@@ -27961,7 +28009,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -27992,7 +28040,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>356</v>
       </c>
@@ -28023,7 +28071,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>355</v>
       </c>
@@ -28054,7 +28102,7 @@
         <v>0.21806722478569532</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>354</v>
       </c>
@@ -28085,7 +28133,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>353</v>
       </c>
@@ -28116,7 +28164,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
         <v>352</v>
       </c>
@@ -28147,7 +28195,7 @@
         <v>0.21988719616226091</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
         <v>351</v>
       </c>
@@ -28178,7 +28226,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
         <v>350</v>
       </c>
@@ -28209,7 +28257,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
         <v>349</v>
       </c>
@@ -28240,7 +28288,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
         <v>348</v>
       </c>
@@ -28271,7 +28319,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
         <v>347</v>
       </c>
@@ -28302,7 +28350,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
         <v>346</v>
       </c>
@@ -28333,7 +28381,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
         <v>345</v>
       </c>
@@ -28364,7 +28412,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -28395,7 +28443,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
         <v>343</v>
       </c>
@@ -28426,7 +28474,7 @@
         <v>0.21786259924361961</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -28457,7 +28505,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -28488,7 +28536,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>340</v>
       </c>
@@ -28519,7 +28567,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
         <v>339</v>
       </c>
@@ -28550,7 +28598,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>338</v>
       </c>
@@ -28581,7 +28629,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
         <v>337</v>
       </c>
@@ -28612,7 +28660,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
         <v>336</v>
       </c>
@@ -28643,7 +28691,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>335</v>
       </c>
@@ -28674,7 +28722,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -28705,7 +28753,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>333</v>
       </c>
@@ -28736,7 +28784,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -28767,7 +28815,7 @@
         <v>0.21782098867467103</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
         <v>331</v>
       </c>
@@ -28798,7 +28846,7 @@
         <v>0.21825579763885269</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
         <v>330</v>
       </c>
@@ -28863,11 +28911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BB6539-6259-064F-9D44-487D0E540817}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -28880,7 +28928,7 @@
     <col min="9" max="57" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28909,7 +28957,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -28940,7 +28988,7 @@
         <v>1.7206669203469724</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>600</v>
       </c>
@@ -28971,7 +29019,7 @@
         <v>1.4665852627624101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>601</v>
       </c>
@@ -29002,7 +29050,7 @@
         <v>1.4710116389170529</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>602</v>
       </c>
@@ -29033,7 +29081,7 @@
         <v>1.7206669203469724</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>603</v>
       </c>
@@ -29064,7 +29112,7 @@
         <v>1.7162680126103105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>604</v>
       </c>
@@ -29095,7 +29143,7 @@
         <v>1.6648403515088996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>605</v>
       </c>
@@ -29126,7 +29174,7 @@
         <v>1.4665852627624101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>606</v>
       </c>
@@ -29157,7 +29205,7 @@
         <v>1.7162680126103105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>607</v>
       </c>
@@ -29188,7 +29236,7 @@
         <v>1.4029038112522687</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>608</v>
       </c>
@@ -29219,7 +29267,7 @@
         <v>1.4710116389170529</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>609</v>
       </c>
@@ -29250,7 +29298,7 @@
         <v>1.6648403515088996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>610</v>
       </c>

--- a/benchmark/measurements/json.xlsx
+++ b/benchmark/measurements/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/projects/truediff/benchmark/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C067AE-FA42-4F44-BDC5-C7D2EC457156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980DCE25-B9A4-E04E-BBA5-B07D66D6749E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="50920" windowHeight="36800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,11 @@
     <definedName name="_xlchart.v1.0" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">json_changeleaves!$H$2:$H$312</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">json_changeeverything!$H$2:$H$13</definedName>
@@ -2514,7 +2510,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2711,15 +2707,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="2600"/>
+                <a:defRPr sz="2600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-GB" sz="2600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -2737,19 +2734,13 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="2000">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
@@ -28912,7 +28903,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
